--- a/data/Stock.xlsx
+++ b/data/Stock.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgPWL2bS+y/zOKiMfmsUTh27FqsuQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhqESf94IyUVYvzdaJAQkUu4LMT1g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -87,14 +87,11 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -5755,13 +5752,13 @@
       </c>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="A495" s="4">
+      <c r="A495" s="2">
         <v>76.0</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="2">
         <v>11.0</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -5799,35 +5796,35 @@
       </c>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="A499" s="4">
+      <c r="A499" s="2">
         <v>76.0</v>
       </c>
-      <c r="B499" s="4">
+      <c r="B499" s="2">
         <v>16.0</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="A500" s="4">
+      <c r="A500" s="2">
         <v>76.0</v>
       </c>
       <c r="B500" s="2">
         <v>17.0</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="A501" s="5">
+      <c r="A501" s="3">
         <v>76.0</v>
       </c>
-      <c r="B501" s="5">
+      <c r="B501" s="3">
         <v>18.0</v>
       </c>
-      <c r="C501" s="5">
+      <c r="C501" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -5859,7 +5856,7 @@
       <c r="A505" s="3">
         <v>80.0</v>
       </c>
-      <c r="B505" s="6"/>
+      <c r="B505" s="4"/>
       <c r="C505" s="3">
         <v>10.0</v>
       </c>
@@ -5916,7 +5913,7 @@
       <c r="A512" s="3">
         <v>87.0</v>
       </c>
-      <c r="B512" s="6"/>
+      <c r="B512" s="4"/>
       <c r="C512" s="3">
         <v>12.0</v>
       </c>
@@ -5989,7 +5986,7 @@
       <c r="A521" s="2">
         <v>96.0</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521" s="2">
         <v>6.0</v>
       </c>
     </row>
@@ -6013,7 +6010,7 @@
       <c r="A524" s="3">
         <v>99.0</v>
       </c>
-      <c r="B524" s="6"/>
+      <c r="B524" s="4"/>
       <c r="C524" s="3">
         <v>12.0</v>
       </c>
@@ -6294,13 +6291,13 @@
       </c>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="A550" s="5">
+      <c r="A550" s="3">
         <v>119.0</v>
       </c>
-      <c r="B550" s="5">
+      <c r="B550" s="3">
         <v>5.0</v>
       </c>
-      <c r="C550" s="5">
+      <c r="C550" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -6316,13 +6313,13 @@
       </c>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="A552" s="4">
+      <c r="A552" s="2">
         <v>120.0</v>
       </c>
-      <c r="B552" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C552" s="4">
+      <c r="B552" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C552" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6382,13 +6379,13 @@
       </c>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="A558" s="4">
+      <c r="A558" s="2">
         <v>121.0</v>
       </c>
-      <c r="B558" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C558" s="4">
+      <c r="B558" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C558" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6415,46 +6412,46 @@
       </c>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="A561" s="4">
+      <c r="A561" s="2">
         <v>121.0</v>
       </c>
-      <c r="B561" s="4">
+      <c r="B561" s="2">
         <v>5.0</v>
       </c>
-      <c r="C561" s="4">
+      <c r="C561" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="A562" s="4">
+      <c r="A562" s="2">
         <v>121.0</v>
       </c>
-      <c r="B562" s="4">
+      <c r="B562" s="2">
         <v>6.0</v>
       </c>
-      <c r="C562" s="4">
+      <c r="C562" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="A563" s="4">
+      <c r="A563" s="2">
         <v>122.0</v>
       </c>
-      <c r="B563" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C563" s="4">
+      <c r="B563" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C563" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="A564" s="4">
+      <c r="A564" s="2">
         <v>122.0</v>
       </c>
-      <c r="B564" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C564" s="4">
+      <c r="B564" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C564" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6470,24 +6467,24 @@
       </c>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="A566" s="4">
+      <c r="A566" s="2">
         <v>122.0</v>
       </c>
-      <c r="B566" s="4">
+      <c r="B566" s="2">
         <v>4.0</v>
       </c>
-      <c r="C566" s="4">
+      <c r="C566" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="A567" s="4">
+      <c r="A567" s="2">
         <v>122.0</v>
       </c>
-      <c r="B567" s="4">
+      <c r="B567" s="2">
         <v>5.0</v>
       </c>
-      <c r="C567" s="4">
+      <c r="C567" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6503,35 +6500,35 @@
       </c>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="A569" s="4">
+      <c r="A569" s="2">
         <v>123.0</v>
       </c>
-      <c r="B569" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C569" s="4">
+      <c r="B569" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C569" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="A570" s="4">
+      <c r="A570" s="2">
         <v>123.0</v>
       </c>
-      <c r="B570" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C570" s="4">
+      <c r="B570" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C570" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="A571" s="4">
+      <c r="A571" s="2">
         <v>123.0</v>
       </c>
-      <c r="B571" s="4">
+      <c r="B571" s="2">
         <v>3.0</v>
       </c>
-      <c r="C571" s="4">
+      <c r="C571" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6547,35 +6544,35 @@
       </c>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="A573" s="4">
+      <c r="A573" s="2">
         <v>123.0</v>
       </c>
-      <c r="B573" s="4">
+      <c r="B573" s="2">
         <v>5.0</v>
       </c>
-      <c r="C573" s="4">
+      <c r="C573" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="A574" s="4">
+      <c r="A574" s="2">
         <v>123.0</v>
       </c>
-      <c r="B574" s="4">
+      <c r="B574" s="2">
         <v>6.0</v>
       </c>
-      <c r="C574" s="4">
+      <c r="C574" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="A575" s="4">
+      <c r="A575" s="2">
         <v>124.0</v>
       </c>
-      <c r="B575" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C575" s="4">
+      <c r="B575" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C575" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6591,13 +6588,13 @@
       </c>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="A577" s="4">
+      <c r="A577" s="2">
         <v>124.0</v>
       </c>
-      <c r="B577" s="4">
+      <c r="B577" s="2">
         <v>3.0</v>
       </c>
-      <c r="C577" s="4">
+      <c r="C577" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6613,46 +6610,46 @@
       </c>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="A579" s="4">
+      <c r="A579" s="2">
         <v>124.0</v>
       </c>
-      <c r="B579" s="4">
+      <c r="B579" s="2">
         <v>5.0</v>
       </c>
-      <c r="C579" s="4">
+      <c r="C579" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="A580" s="4">
+      <c r="A580" s="2">
         <v>124.0</v>
       </c>
-      <c r="B580" s="4">
+      <c r="B580" s="2">
         <v>6.0</v>
       </c>
-      <c r="C580" s="4">
+      <c r="C580" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="A581" s="4">
+      <c r="A581" s="2">
         <v>125.0</v>
       </c>
-      <c r="B581" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C581" s="4">
+      <c r="B581" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C581" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="A582" s="4">
+      <c r="A582" s="2">
         <v>125.0</v>
       </c>
-      <c r="B582" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C582" s="4">
+      <c r="B582" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C582" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6690,46 +6687,46 @@
       </c>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="A586" s="4">
+      <c r="A586" s="2">
         <v>125.0</v>
       </c>
-      <c r="B586" s="4">
+      <c r="B586" s="2">
         <v>6.0</v>
       </c>
-      <c r="C586" s="4">
+      <c r="C586" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="A587" s="4">
+      <c r="A587" s="2">
         <v>126.0</v>
       </c>
-      <c r="B587" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C587" s="4">
+      <c r="B587" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C587" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="A588" s="4">
+      <c r="A588" s="2">
         <v>126.0</v>
       </c>
-      <c r="B588" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C588" s="4">
+      <c r="B588" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C588" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="A589" s="4">
+      <c r="A589" s="2">
         <v>126.0</v>
       </c>
-      <c r="B589" s="4">
+      <c r="B589" s="2">
         <v>3.0</v>
       </c>
-      <c r="C589" s="4">
+      <c r="C589" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6748,7 +6745,7 @@
       <c r="A591" s="2">
         <v>126.0</v>
       </c>
-      <c r="B591" s="4">
+      <c r="B591" s="2">
         <v>5.0</v>
       </c>
       <c r="C591" s="2">
@@ -6759,7 +6756,7 @@
       <c r="A592" s="2">
         <v>126.0</v>
       </c>
-      <c r="B592" s="4">
+      <c r="B592" s="2">
         <v>6.0</v>
       </c>
       <c r="C592" s="2">
@@ -6767,24 +6764,24 @@
       </c>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="A593" s="4">
+      <c r="A593" s="2">
         <v>127.0</v>
       </c>
-      <c r="B593" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C593" s="4">
+      <c r="B593" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C593" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="A594" s="4">
+      <c r="A594" s="2">
         <v>127.0</v>
       </c>
-      <c r="B594" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C594" s="4">
+      <c r="B594" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C594" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -6888,288 +6885,288 @@
       </c>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="4">
+      <c r="A604" s="2">
         <v>129.0</v>
       </c>
-      <c r="B604" s="4">
+      <c r="B604" s="2">
         <v>6.0</v>
       </c>
-      <c r="C604" s="4">
+      <c r="C604" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="4">
+      <c r="A605" s="2">
         <v>128.0</v>
       </c>
-      <c r="B605" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C605" s="4">
+      <c r="B605" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C605" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="A606" s="4">
+      <c r="A606" s="2">
         <v>128.0</v>
       </c>
-      <c r="B606" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C606" s="4">
+      <c r="B606" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C606" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="4">
+      <c r="A607" s="2">
         <v>128.0</v>
       </c>
-      <c r="B607" s="4">
+      <c r="B607" s="2">
         <v>3.0</v>
       </c>
-      <c r="C607" s="4">
+      <c r="C607" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="4">
+      <c r="A608" s="2">
         <v>128.0</v>
       </c>
-      <c r="B608" s="4">
+      <c r="B608" s="2">
         <v>4.0</v>
       </c>
-      <c r="C608" s="4">
+      <c r="C608" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="4">
+      <c r="A609" s="2">
         <v>128.0</v>
       </c>
-      <c r="B609" s="4">
+      <c r="B609" s="2">
         <v>5.0</v>
       </c>
-      <c r="C609" s="4">
+      <c r="C609" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="4">
+      <c r="A610" s="2">
         <v>128.0</v>
       </c>
-      <c r="B610" s="4">
+      <c r="B610" s="2">
         <v>6.0</v>
       </c>
-      <c r="C610" s="4">
+      <c r="C610" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="4">
+      <c r="A611" s="2">
         <v>130.0</v>
       </c>
-      <c r="B611" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C611" s="4">
+      <c r="B611" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C611" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="A612" s="4">
+      <c r="A612" s="2">
         <v>130.0</v>
       </c>
-      <c r="B612" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C612" s="4">
+      <c r="B612" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C612" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="4">
+      <c r="A613" s="2">
         <v>130.0</v>
       </c>
-      <c r="B613" s="4">
+      <c r="B613" s="2">
         <v>3.0</v>
       </c>
-      <c r="C613" s="4">
+      <c r="C613" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="4">
+      <c r="A614" s="2">
         <v>130.0</v>
       </c>
-      <c r="B614" s="4">
+      <c r="B614" s="2">
         <v>4.0</v>
       </c>
-      <c r="C614" s="4">
+      <c r="C614" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="A615" s="4">
+      <c r="A615" s="2">
         <v>130.0</v>
       </c>
-      <c r="B615" s="4">
+      <c r="B615" s="2">
         <v>5.0</v>
       </c>
-      <c r="C615" s="4">
+      <c r="C615" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="4">
+      <c r="A616" s="2">
         <v>130.0</v>
       </c>
-      <c r="B616" s="4">
+      <c r="B616" s="2">
         <v>6.0</v>
       </c>
-      <c r="C616" s="4">
+      <c r="C616" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="4">
+      <c r="A617" s="2">
         <v>131.0</v>
       </c>
-      <c r="B617" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C617" s="4">
+      <c r="B617" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C617" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="4">
+      <c r="A618" s="2">
         <v>131.0</v>
       </c>
-      <c r="B618" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C618" s="4">
+      <c r="B618" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C618" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="4">
+      <c r="A619" s="2">
         <v>131.0</v>
       </c>
-      <c r="B619" s="4">
+      <c r="B619" s="2">
         <v>3.0</v>
       </c>
-      <c r="C619" s="4">
+      <c r="C619" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="4">
+      <c r="A620" s="2">
         <v>131.0</v>
       </c>
-      <c r="B620" s="4">
+      <c r="B620" s="2">
         <v>4.0</v>
       </c>
-      <c r="C620" s="4">
+      <c r="C620" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="4">
+      <c r="A621" s="2">
         <v>131.0</v>
       </c>
-      <c r="B621" s="4">
+      <c r="B621" s="2">
         <v>5.0</v>
       </c>
-      <c r="C621" s="4">
+      <c r="C621" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="A622" s="4">
+      <c r="A622" s="2">
         <v>131.0</v>
       </c>
-      <c r="B622" s="4">
+      <c r="B622" s="2">
         <v>6.0</v>
       </c>
-      <c r="C622" s="4">
+      <c r="C622" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="A623" s="4">
+      <c r="A623" s="2">
         <v>132.0</v>
       </c>
-      <c r="B623" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C623" s="4">
+      <c r="B623" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C623" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="A624" s="4">
+      <c r="A624" s="2">
         <v>132.0</v>
       </c>
-      <c r="B624" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C624" s="4">
+      <c r="B624" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C624" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="4">
+      <c r="A625" s="2">
         <v>132.0</v>
       </c>
-      <c r="B625" s="4">
+      <c r="B625" s="2">
         <v>3.0</v>
       </c>
-      <c r="C625" s="4">
+      <c r="C625" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="4">
+      <c r="A626" s="2">
         <v>132.0</v>
       </c>
-      <c r="B626" s="4">
+      <c r="B626" s="2">
         <v>4.0</v>
       </c>
-      <c r="C626" s="4">
+      <c r="C626" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="A627" s="4">
+      <c r="A627" s="2">
         <v>132.0</v>
       </c>
-      <c r="B627" s="4">
+      <c r="B627" s="2">
         <v>5.0</v>
       </c>
-      <c r="C627" s="4">
+      <c r="C627" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="A628" s="7">
+      <c r="A628" s="5">
         <v>132.0</v>
       </c>
-      <c r="B628" s="7">
+      <c r="B628" s="5">
         <v>6.0</v>
       </c>
-      <c r="C628" s="7">
+      <c r="C628" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="A629" s="4">
+      <c r="A629" s="2">
         <v>133.0</v>
       </c>
-      <c r="B629" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C629" s="4">
+      <c r="B629" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C629" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -7185,13 +7182,13 @@
       </c>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="4">
+      <c r="A631" s="2">
         <v>133.0</v>
       </c>
-      <c r="B631" s="4">
+      <c r="B631" s="2">
         <v>3.0</v>
       </c>
-      <c r="C631" s="4">
+      <c r="C631" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -7218,294 +7215,294 @@
       </c>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="A634" s="4">
+      <c r="A634" s="2">
         <v>133.0</v>
       </c>
-      <c r="B634" s="4">
+      <c r="B634" s="2">
         <v>6.0</v>
       </c>
-      <c r="C634" s="4">
+      <c r="C634" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B635" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C635" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="636" ht="14.25" customHeight="1">
+      <c r="A636" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B636" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C636" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="637" ht="14.25" customHeight="1">
+      <c r="A637" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B637" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C637" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="638" ht="14.25" customHeight="1">
+      <c r="A638" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B638" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C638" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="639" ht="14.25" customHeight="1">
+      <c r="A639" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B639" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C639" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="640" ht="14.25" customHeight="1">
+      <c r="A640" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B640" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C640" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="641" ht="14.25" customHeight="1">
+      <c r="A641" s="2">
         <v>135.0</v>
       </c>
-      <c r="B635" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C635" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="636" ht="14.25" customHeight="1">
-      <c r="A636" s="4">
+      <c r="B641" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C641" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="642" ht="14.25" customHeight="1">
+      <c r="A642" s="2">
         <v>135.0</v>
       </c>
-      <c r="B636" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C636" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="637" ht="14.25" customHeight="1">
-      <c r="A637" s="4">
-        <v>135.0</v>
-      </c>
-      <c r="B637" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C637" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="638" ht="14.25" customHeight="1">
-      <c r="A638" s="4">
-        <v>135.0</v>
-      </c>
-      <c r="B638" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C638" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="639" ht="14.25" customHeight="1">
-      <c r="A639" s="4">
-        <v>135.0</v>
-      </c>
-      <c r="B639" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C639" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="640" ht="14.25" customHeight="1">
-      <c r="A640" s="4">
-        <v>135.0</v>
-      </c>
-      <c r="B640" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C640" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="641" ht="14.25" customHeight="1">
-      <c r="A641" s="4">
-        <v>136.0</v>
-      </c>
-      <c r="B641" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C641" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="642" ht="14.25" customHeight="1">
-      <c r="A642" s="4">
-        <v>136.0</v>
-      </c>
-      <c r="B642" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C642" s="4">
-        <v>1.0</v>
+      <c r="B642" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C642" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="A643" s="2">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="B643" s="2">
         <v>3.0</v>
       </c>
-      <c r="C643" s="4">
-        <v>2.0</v>
+      <c r="C643" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="A644" s="4">
+      <c r="A644" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="B644" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C644" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="645" ht="14.25" customHeight="1">
+      <c r="A645" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="B645" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C645" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="646" ht="14.25" customHeight="1">
+      <c r="A646" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="B646" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C646" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="647" ht="14.25" customHeight="1">
+      <c r="A647" s="2">
         <v>136.0</v>
       </c>
-      <c r="B644" s="4">
+      <c r="B647" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C647" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="648" ht="14.25" customHeight="1">
+      <c r="A648" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="B648" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C648" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="649" ht="14.25" customHeight="1">
+      <c r="A649" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="B649" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C649" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="650" ht="14.25" customHeight="1">
+      <c r="A650" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="B650" s="2">
         <v>4.0</v>
       </c>
-      <c r="C644" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="645" ht="14.25" customHeight="1">
-      <c r="A645" s="4">
-        <v>136.0</v>
-      </c>
-      <c r="B645" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C645" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="646" ht="14.25" customHeight="1">
-      <c r="A646" s="4">
-        <v>136.0</v>
-      </c>
-      <c r="B646" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C646" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="647" ht="14.25" customHeight="1">
-      <c r="A647" s="4">
-        <v>137.0</v>
-      </c>
-      <c r="B647" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C647" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="648" ht="14.25" customHeight="1">
-      <c r="A648" s="4">
-        <v>137.0</v>
-      </c>
-      <c r="B648" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C648" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="649" ht="14.25" customHeight="1">
-      <c r="A649" s="4">
-        <v>137.0</v>
-      </c>
-      <c r="B649" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C649" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="650" ht="14.25" customHeight="1">
-      <c r="A650" s="4">
-        <v>137.0</v>
-      </c>
-      <c r="B650" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C650" s="4">
+      <c r="C650" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="A651" s="2">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="B651" s="2">
         <v>5.0</v>
       </c>
-      <c r="C651" s="4">
+      <c r="C651" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="A652" s="4">
+      <c r="A652" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="B652" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C652" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="653" ht="14.25" customHeight="1">
+      <c r="A653" s="2">
         <v>137.0</v>
       </c>
-      <c r="B652" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C652" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="653" ht="14.25" customHeight="1">
-      <c r="A653" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="B653" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C653" s="4">
+      <c r="B653" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C653" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="654" ht="14.25" customHeight="1">
       <c r="A654" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B654" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C654" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="655" ht="14.25" customHeight="1">
+      <c r="A655" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B655" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C655" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="656" ht="14.25" customHeight="1">
+      <c r="A656" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B656" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C656" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="657" ht="14.25" customHeight="1">
+      <c r="A657" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B657" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C657" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="658" ht="14.25" customHeight="1">
+      <c r="A658" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B658" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C658" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="659" ht="14.25" customHeight="1">
+      <c r="A659" s="2">
         <v>138.0</v>
       </c>
-      <c r="B654" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C654" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="655" ht="14.25" customHeight="1">
-      <c r="A655" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="B655" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C655" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="656" ht="14.25" customHeight="1">
-      <c r="A656" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="B656" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C656" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="657" ht="14.25" customHeight="1">
-      <c r="A657" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="B657" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C657" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="658" ht="14.25" customHeight="1">
-      <c r="A658" s="4">
-        <v>138.0</v>
-      </c>
-      <c r="B658" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C658" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="659" ht="14.25" customHeight="1">
-      <c r="A659" s="4">
-        <v>139.0</v>
-      </c>
-      <c r="B659" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C659" s="4">
+      <c r="B659" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C659" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="660" ht="14.25" customHeight="1">
       <c r="A660" s="2">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B660" s="2">
         <v>2.0</v>
@@ -7515,30 +7512,30 @@
       </c>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="A661" s="4">
-        <v>139.0</v>
-      </c>
-      <c r="B661" s="4">
+      <c r="A661" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="B661" s="2">
         <v>3.0</v>
       </c>
-      <c r="C661" s="4">
+      <c r="C661" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="A662" s="4">
-        <v>139.0</v>
-      </c>
-      <c r="B662" s="4">
+      <c r="A662" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="B662" s="2">
         <v>4.0</v>
       </c>
-      <c r="C662" s="4">
-        <v>0.0</v>
+      <c r="C662" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="663" ht="14.25" customHeight="1">
       <c r="A663" s="2">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="B663" s="2">
         <v>5.0</v>
@@ -7548,30 +7545,30 @@
       </c>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="A664" s="4">
+      <c r="A664" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="B664" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C664" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="665" ht="14.25" customHeight="1">
+      <c r="A665" s="2">
         <v>139.0</v>
       </c>
-      <c r="B664" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C664" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="665" ht="14.25" customHeight="1">
-      <c r="A665" s="4">
-        <v>140.0</v>
-      </c>
-      <c r="B665" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C665" s="4">
+      <c r="B665" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C665" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="666" ht="14.25" customHeight="1">
       <c r="A666" s="2">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B666" s="2">
         <v>2.0</v>
@@ -7581,561 +7578,561 @@
       </c>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="A667" s="4">
-        <v>140.0</v>
-      </c>
-      <c r="B667" s="4">
+      <c r="A667" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="B667" s="2">
         <v>3.0</v>
       </c>
-      <c r="C667" s="4">
+      <c r="C667" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="668" ht="14.25" customHeight="1">
       <c r="A668" s="2">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B668" s="2">
         <v>4.0</v>
       </c>
       <c r="C668" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="669" ht="14.25" customHeight="1">
       <c r="A669" s="2">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B669" s="2">
         <v>5.0</v>
       </c>
       <c r="C669" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="B670" s="2">
         <v>6.0</v>
       </c>
       <c r="C670" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="A671" s="4">
-        <v>141.0</v>
-      </c>
-      <c r="B671" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C671" s="4">
+      <c r="A671" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="B671" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C671" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="A672" s="4">
-        <v>141.0</v>
-      </c>
-      <c r="B672" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C672" s="4">
-        <v>0.0</v>
+      <c r="A672" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="B672" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C672" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="673" ht="14.25" customHeight="1">
       <c r="A673" s="2">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="B673" s="2">
         <v>3.0</v>
       </c>
       <c r="C673" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="A674" s="4">
-        <v>141.0</v>
-      </c>
-      <c r="B674" s="4">
+      <c r="A674" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="B674" s="2">
         <v>4.0</v>
       </c>
-      <c r="C674" s="4">
+      <c r="C674" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="A675" s="4">
-        <v>141.0</v>
-      </c>
-      <c r="B675" s="4">
+      <c r="A675" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="B675" s="2">
         <v>5.0</v>
       </c>
-      <c r="C675" s="4">
-        <v>0.0</v>
+      <c r="C675" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="B676" s="2">
         <v>6.0</v>
       </c>
       <c r="C676" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="677" ht="14.25" customHeight="1">
       <c r="A677" s="2">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B677" s="2">
         <v>1.0</v>
       </c>
       <c r="C677" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="678" ht="14.25" customHeight="1">
       <c r="A678" s="2">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B678" s="2">
         <v>2.0</v>
       </c>
-      <c r="C678" s="4">
-        <v>2.0</v>
+      <c r="C678" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="679" ht="14.25" customHeight="1">
       <c r="A679" s="2">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B679" s="2">
         <v>3.0</v>
       </c>
       <c r="C679" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="A680" s="4">
-        <v>142.0</v>
-      </c>
-      <c r="B680" s="4">
+      <c r="A680" s="2">
+        <v>141.0</v>
+      </c>
+      <c r="B680" s="2">
         <v>4.0</v>
       </c>
-      <c r="C680" s="4">
-        <v>0.0</v>
+      <c r="C680" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="681" ht="14.25" customHeight="1">
       <c r="A681" s="2">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B681" s="2">
         <v>5.0</v>
       </c>
       <c r="C681" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="B682" s="2">
         <v>6.0</v>
       </c>
-      <c r="C682" s="4">
-        <v>2.0</v>
+      <c r="C682" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="A683" s="4">
-        <v>143.0</v>
-      </c>
-      <c r="B683" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C683" s="4">
-        <v>2.0</v>
+      <c r="A683" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B683" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C683" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="A684" s="4">
-        <v>143.0</v>
-      </c>
-      <c r="B684" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C684" s="4">
-        <v>0.0</v>
+      <c r="A684" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B684" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C684" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="685" ht="14.25" customHeight="1">
       <c r="A685" s="2">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="B685" s="2">
         <v>3.0</v>
       </c>
       <c r="C685" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="A686" s="4">
-        <v>143.0</v>
-      </c>
-      <c r="B686" s="4">
+      <c r="A686" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B686" s="2">
         <v>4.0</v>
       </c>
-      <c r="C686" s="4">
+      <c r="C686" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="A687" s="4">
-        <v>143.0</v>
-      </c>
-      <c r="B687" s="4">
+      <c r="A687" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B687" s="2">
         <v>5.0</v>
       </c>
-      <c r="C687" s="4">
-        <v>0.0</v>
+      <c r="C687" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="A688" s="4">
-        <v>143.0</v>
-      </c>
-      <c r="B688" s="4">
+      <c r="A688" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B688" s="2">
         <v>6.0</v>
       </c>
-      <c r="C688" s="4">
-        <v>0.0</v>
+      <c r="C688" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="689" ht="14.25" customHeight="1">
       <c r="A689" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B689" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C689" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="690" ht="14.25" customHeight="1">
+      <c r="A690" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B690" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C690" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="691" ht="14.25" customHeight="1">
+      <c r="A691" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B691" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C691" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="692" ht="14.25" customHeight="1">
+      <c r="A692" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B692" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C692" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="693" ht="14.25" customHeight="1">
+      <c r="A693" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B693" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C693" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="694" ht="14.25" customHeight="1">
+      <c r="A694" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B694" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C694" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="695" ht="14.25" customHeight="1">
+      <c r="A695" s="2">
         <v>144.0</v>
       </c>
-      <c r="B689" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C689" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="690" ht="14.25" customHeight="1">
-      <c r="A690" s="4">
+      <c r="B695" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C695" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="696" ht="14.25" customHeight="1">
+      <c r="A696" s="2">
         <v>144.0</v>
       </c>
-      <c r="B690" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C690" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="691" ht="14.25" customHeight="1">
-      <c r="A691" s="4">
+      <c r="B696" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C696" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="697" ht="14.25" customHeight="1">
+      <c r="A697" s="2">
         <v>144.0</v>
       </c>
-      <c r="B691" s="4">
+      <c r="B697" s="2">
         <v>3.0</v>
       </c>
-      <c r="C691" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="692" ht="14.25" customHeight="1">
-      <c r="A692" s="4">
+      <c r="C697" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="698" ht="14.25" customHeight="1">
+      <c r="A698" s="2">
         <v>144.0</v>
       </c>
-      <c r="B692" s="4">
+      <c r="B698" s="2">
         <v>4.0</v>
       </c>
-      <c r="C692" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="693" ht="14.25" customHeight="1">
-      <c r="A693" s="4">
+      <c r="C698" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="699" ht="14.25" customHeight="1">
+      <c r="A699" s="2">
         <v>144.0</v>
-      </c>
-      <c r="B693" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C693" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="694" ht="14.25" customHeight="1">
-      <c r="A694" s="4">
-        <v>144.0</v>
-      </c>
-      <c r="B694" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C694" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="695" ht="14.25" customHeight="1">
-      <c r="A695" s="4">
-        <v>145.0</v>
-      </c>
-      <c r="B695" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C695" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="696" ht="14.25" customHeight="1">
-      <c r="A696" s="4">
-        <v>145.0</v>
-      </c>
-      <c r="B696" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C696" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="697" ht="14.25" customHeight="1">
-      <c r="A697" s="4">
-        <v>145.0</v>
-      </c>
-      <c r="B697" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C697" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="698" ht="14.25" customHeight="1">
-      <c r="A698" s="4">
-        <v>145.0</v>
-      </c>
-      <c r="B698" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C698" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="699" ht="14.25" customHeight="1">
-      <c r="A699" s="4">
-        <v>145.0</v>
       </c>
       <c r="B699" s="2">
         <v>5.0</v>
       </c>
-      <c r="C699" s="4">
-        <v>0.0</v>
+      <c r="C699" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="A700" s="5">
-        <v>145.0</v>
-      </c>
-      <c r="B700" s="5">
+      <c r="A700" s="2">
+        <v>144.0</v>
+      </c>
+      <c r="B700" s="2">
         <v>6.0</v>
       </c>
-      <c r="C700" s="5">
-        <v>0.0</v>
+      <c r="C700" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="701" ht="14.25" customHeight="1">
       <c r="A701" s="2">
-        <v>146.0</v>
+        <v>145.0</v>
+      </c>
+      <c r="B701" s="2">
+        <v>1.0</v>
       </c>
       <c r="C701" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="702" ht="14.25" customHeight="1">
       <c r="A702" s="2">
-        <v>147.0</v>
+        <v>145.0</v>
+      </c>
+      <c r="B702" s="2">
+        <v>2.0</v>
       </c>
       <c r="C702" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="703" ht="14.25" customHeight="1">
       <c r="A703" s="2">
-        <v>148.0</v>
+        <v>145.0</v>
+      </c>
+      <c r="B703" s="2">
+        <v>3.0</v>
       </c>
       <c r="C703" s="2">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="704" ht="14.25" customHeight="1">
       <c r="A704" s="2">
-        <v>149.0</v>
+        <v>145.0</v>
+      </c>
+      <c r="B704" s="2">
+        <v>4.0</v>
       </c>
       <c r="C704" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="705" ht="14.25" customHeight="1">
       <c r="A705" s="2">
-        <v>150.0</v>
+        <v>145.0</v>
+      </c>
+      <c r="B705" s="2">
+        <v>5.0</v>
       </c>
       <c r="C705" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="A706" s="2">
-        <v>151.0</v>
-      </c>
-      <c r="C706" s="2">
-        <v>3.0</v>
+      <c r="A706" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="B706" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C706" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="2">
-        <v>152.0</v>
+        <v>146.0</v>
       </c>
       <c r="C707" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2">
-        <v>153.0</v>
+        <v>147.0</v>
       </c>
       <c r="C708" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2">
-        <v>154.0</v>
+        <v>148.0</v>
       </c>
       <c r="C709" s="2">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2">
-        <v>155.0</v>
+        <v>149.0</v>
       </c>
       <c r="C710" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="A711" s="4">
-        <v>156.0</v>
-      </c>
-      <c r="B711" s="4">
+      <c r="A711" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="C711" s="2">
         <v>10.0</v>
       </c>
-      <c r="C711" s="4">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="A712" s="4">
-        <v>156.0</v>
-      </c>
-      <c r="B712" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C712" s="4">
-        <v>0.0</v>
+      <c r="A712" s="2">
+        <v>151.0</v>
+      </c>
+      <c r="C712" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2">
-        <v>156.0</v>
-      </c>
-      <c r="B713" s="2">
-        <v>12.0</v>
+        <v>152.0</v>
       </c>
       <c r="C713" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2">
-        <v>156.0</v>
-      </c>
-      <c r="B714" s="2">
-        <v>13.0</v>
+        <v>153.0</v>
       </c>
       <c r="C714" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2">
+        <v>154.0</v>
+      </c>
+      <c r="C715" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="716" ht="14.25" customHeight="1">
+      <c r="A716" s="2">
+        <v>155.0</v>
+      </c>
+      <c r="C716" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="717" ht="14.25" customHeight="1">
+      <c r="A717" s="2">
         <v>156.0</v>
       </c>
-      <c r="B715" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C715" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="716" ht="14.25" customHeight="1">
-      <c r="A716" s="4">
+      <c r="B717" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C717" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="718" ht="14.25" customHeight="1">
+      <c r="A718" s="2">
         <v>156.0</v>
       </c>
-      <c r="B716" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C716" s="4">
+      <c r="B718" s="2">
         <v>11.0</v>
       </c>
-    </row>
-    <row r="717" ht="14.25" customHeight="1">
-      <c r="A717" s="4">
-        <v>157.0</v>
-      </c>
-      <c r="B717" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C717" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="718" ht="14.25" customHeight="1">
-      <c r="A718" s="4">
-        <v>157.0</v>
-      </c>
-      <c r="B718" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C718" s="4">
+      <c r="C718" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="A719" s="4">
-        <v>157.0</v>
-      </c>
-      <c r="B719" s="4">
+      <c r="A719" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="B719" s="2">
         <v>12.0</v>
       </c>
-      <c r="C719" s="4">
-        <v>0.0</v>
+      <c r="C719" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="720" ht="14.25" customHeight="1">
       <c r="A720" s="2">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="B720" s="2">
         <v>13.0</v>
@@ -8145,341 +8142,341 @@
       </c>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="A721" s="4">
+      <c r="A721" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="B721" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C721" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="722" ht="14.25" customHeight="1">
+      <c r="A722" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="B722" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C722" s="2">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="723" ht="14.25" customHeight="1">
+      <c r="A723" s="2">
         <v>157.0</v>
       </c>
-      <c r="B721" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C721" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="722" ht="14.25" customHeight="1">
-      <c r="A722" s="4">
+      <c r="B723" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C723" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="724" ht="14.25" customHeight="1">
+      <c r="A724" s="2">
         <v>157.0</v>
       </c>
-      <c r="B722" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C722" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="723" ht="14.25" customHeight="1">
-      <c r="A723" s="4">
+      <c r="B724" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C724" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="725" ht="14.25" customHeight="1">
+      <c r="A725" s="2">
         <v>157.0</v>
       </c>
-      <c r="B723" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C723" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="724" ht="14.25" customHeight="1">
-      <c r="A724" s="4">
-        <v>157.0</v>
-      </c>
-      <c r="B724" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C724" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="725" ht="14.25" customHeight="1">
-      <c r="A725" s="4">
-        <v>158.0</v>
-      </c>
       <c r="B725" s="2">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C725" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="726" ht="14.25" customHeight="1">
       <c r="A726" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B726" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C726" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="727" ht="14.25" customHeight="1">
+      <c r="A727" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B727" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C727" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="728" ht="14.25" customHeight="1">
+      <c r="A728" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B728" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C728" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="729" ht="14.25" customHeight="1">
+      <c r="A729" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B729" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C729" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="730" ht="14.25" customHeight="1">
+      <c r="A730" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B730" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C730" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="731" ht="14.25" customHeight="1">
+      <c r="A731" s="2">
         <v>158.0</v>
       </c>
-      <c r="B726" s="2">
+      <c r="B731" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C731" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="732" ht="14.25" customHeight="1">
+      <c r="A732" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="B732" s="2">
         <v>11.0</v>
       </c>
-      <c r="C726" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="727" ht="14.25" customHeight="1">
-      <c r="A727" s="4">
+      <c r="C732" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="733" ht="14.25" customHeight="1">
+      <c r="A733" s="2">
         <v>158.0</v>
       </c>
-      <c r="B727" s="4">
+      <c r="B733" s="2">
         <v>12.0</v>
       </c>
-      <c r="C727" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="728" ht="14.25" customHeight="1">
-      <c r="A728" s="4">
+      <c r="C733" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="734" ht="14.25" customHeight="1">
+      <c r="A734" s="2">
         <v>158.0</v>
       </c>
-      <c r="B728" s="4">
+      <c r="B734" s="2">
         <v>13.0</v>
       </c>
-      <c r="C728" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="729" ht="14.25" customHeight="1">
-      <c r="A729" s="4">
-        <v>158.0</v>
-      </c>
-      <c r="B729" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C729" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="730" ht="14.25" customHeight="1">
-      <c r="A730" s="4">
-        <v>158.0</v>
-      </c>
-      <c r="B730" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C730" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="731" ht="14.25" customHeight="1">
-      <c r="A731" s="4">
-        <v>158.0</v>
-      </c>
-      <c r="B731" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C731" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="732" ht="14.25" customHeight="1">
-      <c r="A732" s="4">
-        <v>158.0</v>
-      </c>
-      <c r="B732" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C732" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="733" ht="14.25" customHeight="1">
-      <c r="A733" s="4">
-        <v>159.0</v>
-      </c>
-      <c r="B733" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C733" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="734" ht="14.25" customHeight="1">
-      <c r="A734" s="4">
-        <v>159.0</v>
-      </c>
-      <c r="B734" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="C734" s="4">
+      <c r="C734" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="735" ht="14.25" customHeight="1">
       <c r="A735" s="2">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B735" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C735" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="736" ht="14.25" customHeight="1">
       <c r="A736" s="2">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="B736" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C736" s="4">
-        <v>6.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="C736" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="737" ht="14.25" customHeight="1">
       <c r="A737" s="2">
-        <v>160.0</v>
+        <v>158.0</v>
       </c>
       <c r="B737" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C737" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="738" ht="14.25" customHeight="1">
+      <c r="A738" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="B738" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C738" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="739" ht="14.25" customHeight="1">
+      <c r="A739" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B739" s="2">
         <v>11.0</v>
       </c>
-      <c r="C737" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="738" ht="14.25" customHeight="1">
-      <c r="A738" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="B738" s="4">
+      <c r="C739" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="740" ht="14.25" customHeight="1">
+      <c r="A740" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B740" s="2">
         <v>12.0</v>
       </c>
-      <c r="C738" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="739" ht="14.25" customHeight="1">
-      <c r="A739" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="B739" s="4">
+      <c r="C740" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="741" ht="14.25" customHeight="1">
+      <c r="A741" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B741" s="2">
         <v>13.0</v>
       </c>
-      <c r="C739" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="740" ht="14.25" customHeight="1">
-      <c r="A740" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="B740" s="4">
+      <c r="C741" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="742" ht="14.25" customHeight="1">
+      <c r="A742" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B742" s="2">
         <v>20.0</v>
       </c>
-      <c r="C740" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="741" ht="14.25" customHeight="1">
-      <c r="A741" s="4">
-        <v>161.0</v>
-      </c>
-      <c r="B741" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C741" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="742" ht="14.25" customHeight="1">
-      <c r="A742" s="4">
-        <v>161.0</v>
-      </c>
-      <c r="B742" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="C742" s="4">
-        <v>0.0</v>
+      <c r="C742" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="743" ht="14.25" customHeight="1">
       <c r="A743" s="2">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
       <c r="B743" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C743" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="A744" s="4">
-        <v>161.0</v>
-      </c>
-      <c r="B744" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C744" s="4">
+      <c r="A744" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="B744" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C744" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="745" ht="14.25" customHeight="1">
       <c r="A745" s="2">
-        <v>162.0</v>
+        <v>160.0</v>
       </c>
       <c r="B745" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C745" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="746" ht="14.25" customHeight="1">
+      <c r="A746" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="B746" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C746" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="747" ht="14.25" customHeight="1">
+      <c r="A747" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="B747" s="2">
         <v>11.0</v>
       </c>
-      <c r="C745" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="746" ht="14.25" customHeight="1">
-      <c r="A746" s="4">
-        <v>162.0</v>
-      </c>
-      <c r="B746" s="4">
+      <c r="C747" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="748" ht="14.25" customHeight="1">
+      <c r="A748" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="B748" s="2">
         <v>12.0</v>
       </c>
-      <c r="C746" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="747" ht="14.25" customHeight="1">
-      <c r="A747" s="4">
-        <v>162.0</v>
-      </c>
-      <c r="B747" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C747" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="748" ht="14.25" customHeight="1">
-      <c r="A748" s="4">
-        <v>162.0</v>
-      </c>
-      <c r="B748" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C748" s="4">
+      <c r="C748" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="749" ht="14.25" customHeight="1">
       <c r="A749" s="2">
-        <v>163.0</v>
+        <v>161.0</v>
       </c>
       <c r="B749" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C749" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="2">
-        <v>163.0</v>
+        <v>161.0</v>
       </c>
       <c r="B750" s="2">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="C750" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="751" ht="14.25" customHeight="1">
       <c r="A751" s="2">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B751" s="2">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C751" s="2">
         <v>1.0</v>
@@ -8487,50 +8484,65 @@
     </row>
     <row r="752" ht="14.25" customHeight="1">
       <c r="A752" s="2">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="B752" s="2">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C752" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="753" ht="14.25" customHeight="1">
       <c r="A753" s="2">
-        <v>164.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="B753" s="2">
+        <v>13.0</v>
       </c>
       <c r="C753" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="2">
-        <v>165.0</v>
+        <v>162.0</v>
+      </c>
+      <c r="B754" s="2">
+        <v>20.0</v>
       </c>
       <c r="C754" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="755" ht="14.25" customHeight="1">
       <c r="A755" s="2">
-        <v>166.0</v>
+        <v>163.0</v>
+      </c>
+      <c r="B755" s="2">
+        <v>11.0</v>
       </c>
       <c r="C755" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="756" ht="14.25" customHeight="1">
       <c r="A756" s="2">
-        <v>167.0</v>
-      </c>
-      <c r="C756" s="4">
-        <v>25.0</v>
+        <v>163.0</v>
+      </c>
+      <c r="B756" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C756" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="757" ht="14.25" customHeight="1">
       <c r="A757" s="2">
-        <v>168.0</v>
+        <v>163.0</v>
+      </c>
+      <c r="B757" s="2">
+        <v>13.0</v>
       </c>
       <c r="C757" s="2">
         <v>1.0</v>
@@ -8538,115 +8550,100 @@
     </row>
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2">
-        <v>169.0</v>
+        <v>163.0</v>
+      </c>
+      <c r="B758" s="2">
+        <v>20.0</v>
       </c>
       <c r="C758" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="A759" s="5">
-        <v>170.0</v>
-      </c>
-      <c r="B759" s="6"/>
-      <c r="C759" s="5">
-        <v>7.0</v>
+      <c r="A759" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="C759" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B760" s="2">
-        <v>1.0</v>
+        <v>165.0</v>
       </c>
       <c r="C760" s="2">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B761" s="2">
-        <v>2.0</v>
+        <v>166.0</v>
       </c>
       <c r="C761" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B762" s="2">
-        <v>3.0</v>
+        <v>167.0</v>
       </c>
       <c r="C762" s="2">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B763" s="2">
-        <v>4.0</v>
+        <v>168.0</v>
       </c>
       <c r="C763" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="764" ht="14.25" customHeight="1">
       <c r="A764" s="2">
-        <v>171.0</v>
-      </c>
-      <c r="B764" s="2">
+        <v>169.0</v>
+      </c>
+      <c r="C764" s="2">
         <v>5.0</v>
       </c>
-      <c r="C764" s="2">
-        <v>9.0</v>
-      </c>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="A765" s="4">
-        <v>172.0</v>
-      </c>
-      <c r="B765" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C765" s="4">
-        <v>0.0</v>
+      <c r="A765" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="B765" s="4"/>
+      <c r="C765" s="3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="766" ht="14.25" customHeight="1">
       <c r="A766" s="2">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B766" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C766" s="2">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="767" ht="14.25" customHeight="1">
       <c r="A767" s="2">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B767" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C767" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="768" ht="14.25" customHeight="1">
       <c r="A768" s="2">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B768" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C768" s="2">
         <v>1.0</v>
@@ -8654,65 +8651,65 @@
     </row>
     <row r="769" ht="14.25" customHeight="1">
       <c r="A769" s="2">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="B769" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C769" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2">
-        <v>173.0</v>
+        <v>171.0</v>
       </c>
       <c r="B770" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C770" s="2">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="771" ht="14.25" customHeight="1">
       <c r="A771" s="2">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B771" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C771" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="772" ht="14.25" customHeight="1">
       <c r="A772" s="2">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B772" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C772" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="773" ht="14.25" customHeight="1">
       <c r="A773" s="2">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B773" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C773" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="774" ht="14.25" customHeight="1">
       <c r="A774" s="2">
-        <v>173.0</v>
+        <v>172.0</v>
       </c>
       <c r="B774" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C774" s="2">
         <v>1.0</v>
@@ -8720,387 +8717,387 @@
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
       <c r="B775" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C775" s="2">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="776" ht="14.25" customHeight="1">
       <c r="A776" s="2">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B776" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C776" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="A777" s="4">
-        <v>174.0</v>
-      </c>
-      <c r="B777" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C777" s="4">
-        <v>0.0</v>
+      <c r="A777" s="2">
+        <v>173.0</v>
+      </c>
+      <c r="B777" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C777" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="778" ht="14.25" customHeight="1">
       <c r="A778" s="2">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B778" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C778" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="779" ht="14.25" customHeight="1">
       <c r="A779" s="2">
-        <v>174.0</v>
+        <v>173.0</v>
       </c>
       <c r="B779" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C779" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2">
-        <v>175.0</v>
+        <v>173.0</v>
       </c>
       <c r="B780" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C780" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="781" ht="14.25" customHeight="1">
       <c r="A781" s="2">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B781" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C781" s="2">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="782" ht="14.25" customHeight="1">
       <c r="A782" s="2">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B782" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C782" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="783" ht="14.25" customHeight="1">
       <c r="A783" s="2">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="B783" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C783" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="784" ht="14.25" customHeight="1">
       <c r="A784" s="2">
-        <v>176.0</v>
+        <v>174.0</v>
       </c>
       <c r="B784" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C784" s="2">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2">
-        <v>176.0</v>
+        <v>174.0</v>
       </c>
       <c r="B785" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C785" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="786" ht="14.25" customHeight="1">
       <c r="A786" s="2">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B786" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C786" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="787" ht="14.25" customHeight="1">
       <c r="A787" s="2">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="B787" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C787" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="788" ht="14.25" customHeight="1">
+      <c r="A788" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="B788" s="2">
         <v>4.0</v>
       </c>
-      <c r="C787" s="2">
+      <c r="C788" s="2">
         <v>4.0</v>
-      </c>
-    </row>
-    <row r="788" ht="14.25" customHeight="1">
-      <c r="A788" s="4">
-        <v>176.0</v>
-      </c>
-      <c r="B788" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C788" s="4">
-        <v>0.0</v>
       </c>
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="2">
-        <v>177.0</v>
+        <v>175.0</v>
       </c>
       <c r="B789" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C789" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="A790" s="4">
-        <v>177.0</v>
-      </c>
-      <c r="B790" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C790" s="4">
-        <v>0.0</v>
+      <c r="A790" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B790" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C790" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="A791" s="4">
-        <v>177.0</v>
-      </c>
-      <c r="B791" s="4">
+      <c r="A791" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B791" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C791" s="2">
         <v>3.0</v>
       </c>
-      <c r="C791" s="4">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="A792" s="4">
-        <v>177.0</v>
-      </c>
-      <c r="B792" s="4">
+      <c r="A792" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B792" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C792" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="793" ht="14.25" customHeight="1">
+      <c r="A793" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B793" s="2">
         <v>4.0</v>
       </c>
-      <c r="C792" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="793" ht="14.25" customHeight="1">
-      <c r="A793" s="4">
-        <v>177.0</v>
-      </c>
-      <c r="B793" s="4">
+      <c r="C793" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="794" ht="14.25" customHeight="1">
+      <c r="A794" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B794" s="2">
         <v>5.0</v>
       </c>
-      <c r="C793" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="794" ht="14.25" customHeight="1">
-      <c r="A794" s="4">
-        <v>178.0</v>
-      </c>
-      <c r="B794" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C794" s="4">
+      <c r="C794" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="795" ht="14.25" customHeight="1">
       <c r="A795" s="2">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="B795" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C795" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="A796" s="4">
-        <v>178.0</v>
-      </c>
-      <c r="B796" s="4">
+      <c r="A796" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="B796" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C796" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="797" ht="14.25" customHeight="1">
+      <c r="A797" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="B797" s="2">
         <v>3.0</v>
       </c>
-      <c r="C796" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="797" ht="14.25" customHeight="1">
-      <c r="A797" s="4">
-        <v>178.0</v>
-      </c>
-      <c r="B797" s="4">
+      <c r="C797" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="798" ht="14.25" customHeight="1">
+      <c r="A798" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="B798" s="2">
         <v>4.0</v>
       </c>
-      <c r="C797" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="798" ht="14.25" customHeight="1">
-      <c r="A798" s="4">
-        <v>178.0</v>
-      </c>
-      <c r="B798" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C798" s="4">
+      <c r="C798" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="2">
-        <v>179.0</v>
+        <v>177.0</v>
       </c>
       <c r="B799" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C799" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="800" ht="14.25" customHeight="1">
       <c r="A800" s="2">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B800" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C800" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="801" ht="14.25" customHeight="1">
       <c r="A801" s="2">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="B801" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C801" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="802" ht="14.25" customHeight="1">
       <c r="A802" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="B802" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C802" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="803" ht="14.25" customHeight="1">
+      <c r="A803" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="B803" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C803" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="804" ht="14.25" customHeight="1">
+      <c r="A804" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="B804" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C804" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="805" ht="14.25" customHeight="1">
+      <c r="A805" s="2">
         <v>179.0</v>
       </c>
-      <c r="B802" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C802" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="803" ht="14.25" customHeight="1">
-      <c r="A803" s="5">
-        <v>179.0</v>
-      </c>
-      <c r="B803" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="C803" s="5">
+      <c r="B805" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C805" s="2">
         <v>3.0</v>
-      </c>
-    </row>
-    <row r="804" ht="14.25" customHeight="1">
-      <c r="A804" s="4">
-        <v>180.0</v>
-      </c>
-      <c r="B804" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C804" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="805" ht="14.25" customHeight="1">
-      <c r="A805" s="4">
-        <v>180.0</v>
-      </c>
-      <c r="B805" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C805" s="4">
-        <v>0.0</v>
       </c>
     </row>
     <row r="806" ht="14.25" customHeight="1">
       <c r="A806" s="2">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B806" s="2">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="C806" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="807" ht="14.25" customHeight="1">
       <c r="A807" s="2">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B807" s="2">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="C807" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="808" ht="14.25" customHeight="1">
       <c r="A808" s="2">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="B808" s="2">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="C808" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="A809" s="4">
-        <v>180.0</v>
-      </c>
-      <c r="B809" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C809" s="4">
-        <v>0.0</v>
+      <c r="A809" s="3">
+        <v>179.0</v>
+      </c>
+      <c r="B809" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C809" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="810" ht="14.25" customHeight="1">
@@ -9108,51 +9105,51 @@
         <v>180.0</v>
       </c>
       <c r="B810" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C810" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="811" ht="14.25" customHeight="1">
       <c r="A811" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B811" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C811" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="812" ht="14.25" customHeight="1">
       <c r="A812" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B812" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C812" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="813" ht="14.25" customHeight="1">
       <c r="A813" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B813" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C813" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="814" ht="14.25" customHeight="1">
       <c r="A814" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B814" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C814" s="2">
         <v>2.0</v>
@@ -9160,24 +9157,24 @@
     </row>
     <row r="815" ht="14.25" customHeight="1">
       <c r="A815" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B815" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C815" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="2">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="B816" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C816" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="817" ht="14.25" customHeight="1">
@@ -9185,306 +9182,306 @@
         <v>181.0</v>
       </c>
       <c r="B817" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C817" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="818" ht="14.25" customHeight="1">
+      <c r="A818" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B818" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C818" s="2">
         <v>3.0</v>
       </c>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
-      <c r="A818" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B818" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C818" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="A819" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B819" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C819" s="4">
-        <v>0.0</v>
+      <c r="A819" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B819" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C819" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="820" ht="14.25" customHeight="1">
       <c r="A820" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B820" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C820" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="821" ht="14.25" customHeight="1">
+      <c r="A821" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B821" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C821" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="822" ht="14.25" customHeight="1">
+      <c r="A822" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B822" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C822" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="823" ht="14.25" customHeight="1">
+      <c r="A823" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B823" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C823" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="824" ht="14.25" customHeight="1">
+      <c r="A824" s="2">
         <v>182.0</v>
       </c>
-      <c r="B820" s="2">
+      <c r="B824" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C824" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="825" ht="14.25" customHeight="1">
+      <c r="A825" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B825" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C825" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="826" ht="14.25" customHeight="1">
+      <c r="A826" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B826" s="2">
         <v>14.0</v>
       </c>
-      <c r="C820" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="821" ht="14.25" customHeight="1">
-      <c r="A821" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B821" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C821" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="822" ht="14.25" customHeight="1">
-      <c r="A822" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B822" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C822" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="823" ht="14.25" customHeight="1">
-      <c r="A823" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B823" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C823" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="824" ht="14.25" customHeight="1">
-      <c r="A824" s="4">
-        <v>182.0</v>
-      </c>
-      <c r="B824" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C824" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="825" ht="14.25" customHeight="1">
-      <c r="A825" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="B825" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C825" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="826" ht="14.25" customHeight="1">
-      <c r="A826" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="B826" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C826" s="4">
-        <v>0.0</v>
+      <c r="C826" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="827" ht="14.25" customHeight="1">
       <c r="A827" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B827" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C827" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="828" ht="14.25" customHeight="1">
+      <c r="A828" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B828" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C828" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="829" ht="14.25" customHeight="1">
+      <c r="A829" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B829" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C829" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="830" ht="14.25" customHeight="1">
+      <c r="A830" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B830" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C830" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="831" ht="14.25" customHeight="1">
+      <c r="A831" s="2">
         <v>183.0</v>
       </c>
-      <c r="B827" s="2">
+      <c r="B831" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C831" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="832" ht="14.25" customHeight="1">
+      <c r="A832" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="B832" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C832" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="833" ht="14.25" customHeight="1">
+      <c r="A833" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="B833" s="2">
         <v>14.0</v>
       </c>
-      <c r="C827" s="2">
+      <c r="C833" s="2">
         <v>3.0</v>
       </c>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
-      <c r="A828" s="4">
+    <row r="834" ht="14.25" customHeight="1">
+      <c r="A834" s="2">
         <v>183.0</v>
       </c>
-      <c r="B828" s="4">
+      <c r="B834" s="2">
         <v>15.0</v>
       </c>
-      <c r="C828" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="829" ht="14.25" customHeight="1">
-      <c r="A829" s="4">
+      <c r="C834" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="835" ht="14.25" customHeight="1">
+      <c r="A835" s="2">
         <v>183.0</v>
       </c>
-      <c r="B829" s="4">
+      <c r="B835" s="2">
         <v>16.0</v>
       </c>
-      <c r="C829" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="830" ht="14.25" customHeight="1">
-      <c r="A830" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="B830" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C830" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="831" ht="14.25" customHeight="1">
-      <c r="A831" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="B831" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C831" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="832" ht="14.25" customHeight="1">
-      <c r="A832" s="4">
-        <v>184.0</v>
-      </c>
-      <c r="B832" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C832" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="833" ht="14.25" customHeight="1">
-      <c r="A833" s="4">
-        <v>184.0</v>
-      </c>
-      <c r="B833" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C833" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="834" ht="14.25" customHeight="1">
-      <c r="A834" s="4">
-        <v>184.0</v>
-      </c>
-      <c r="B834" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C834" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="835" ht="14.25" customHeight="1">
-      <c r="A835" s="4">
-        <v>184.0</v>
-      </c>
-      <c r="B835" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C835" s="4">
+      <c r="C835" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="836" ht="14.25" customHeight="1">
       <c r="A836" s="2">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="B836" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C836" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="B837" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C837" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="838" ht="14.25" customHeight="1">
+      <c r="A838" s="2">
         <v>184.0</v>
       </c>
-      <c r="B837" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C837" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="838" ht="14.25" customHeight="1">
-      <c r="A838" s="4">
+      <c r="B838" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C838" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="839" ht="14.25" customHeight="1">
+      <c r="A839" s="2">
         <v>184.0</v>
       </c>
-      <c r="B838" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C838" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="839" ht="14.25" customHeight="1">
-      <c r="A839" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="B839" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C839" s="4">
+      <c r="B839" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C839" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="A840" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="B840" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C840" s="4">
+      <c r="A840" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="B840" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C840" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="841" ht="14.25" customHeight="1">
       <c r="A841" s="2">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B841" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C841" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="A842" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="B842" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C842" s="4">
-        <v>0.0</v>
+      <c r="A842" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="B842" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C842" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="843" ht="14.25" customHeight="1">
       <c r="A843" s="2">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="B843" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C843" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="A844" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="B844" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C844" s="4">
+      <c r="A844" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="B844" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C844" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -9493,76 +9490,76 @@
         <v>185.0</v>
       </c>
       <c r="B845" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C845" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="846" ht="14.25" customHeight="1">
       <c r="A846" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B846" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C846" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="A847" s="4">
-        <v>186.0</v>
-      </c>
-      <c r="B847" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C847" s="4">
-        <v>0.0</v>
+      <c r="A847" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="B847" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C847" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="848" ht="14.25" customHeight="1">
       <c r="A848" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B848" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C848" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="849" ht="14.25" customHeight="1">
       <c r="A849" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B849" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C849" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="850" ht="14.25" customHeight="1">
       <c r="A850" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B850" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C850" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="2">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="B851" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C851" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="852" ht="14.25" customHeight="1">
@@ -9570,76 +9567,76 @@
         <v>186.0</v>
       </c>
       <c r="B852" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C852" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="A853" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="B853" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C853" s="4">
+      <c r="A853" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B853" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C853" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="A854" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="B854" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C854" s="4">
-        <v>0.0</v>
+      <c r="A854" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B854" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C854" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="855" ht="14.25" customHeight="1">
       <c r="A855" s="2">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B855" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C855" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="856" ht="14.25" customHeight="1">
       <c r="A856" s="2">
-        <v>187.0</v>
+        <v>186.0</v>
       </c>
       <c r="B856" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C856" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="A857" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="B857" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C857" s="4">
-        <v>0.0</v>
+      <c r="A857" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B857" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C857" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="A858" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="B858" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C858" s="4">
-        <v>0.0</v>
+      <c r="A858" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B858" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C858" s="2">
+        <v>10.0</v>
       </c>
     </row>
     <row r="859" ht="14.25" customHeight="1">
@@ -9647,73 +9644,73 @@
         <v>187.0</v>
       </c>
       <c r="B859" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C859" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="860" ht="14.25" customHeight="1">
       <c r="A860" s="2">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B860" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C860" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="A861" s="4">
-        <v>188.0</v>
-      </c>
-      <c r="B861" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C861" s="4">
-        <v>0.0</v>
+      <c r="A861" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B861" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C861" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="A862" s="4">
-        <v>188.0</v>
-      </c>
-      <c r="B862" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C862" s="4">
-        <v>0.0</v>
+      <c r="A862" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B862" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C862" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="A863" s="4">
-        <v>188.0</v>
-      </c>
-      <c r="B863" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C863" s="4">
+      <c r="A863" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B863" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C863" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="A864" s="4">
-        <v>188.0</v>
-      </c>
-      <c r="B864" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C864" s="4">
+      <c r="A864" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B864" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C864" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="2">
-        <v>188.0</v>
+        <v>187.0</v>
       </c>
       <c r="B865" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C865" s="2">
         <v>2.0</v>
@@ -9724,76 +9721,76 @@
         <v>188.0</v>
       </c>
       <c r="B866" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C866" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="A867" s="4">
-        <v>189.0</v>
-      </c>
-      <c r="B867" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C867" s="4">
+      <c r="A867" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B867" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C867" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="868" ht="14.25" customHeight="1">
       <c r="A868" s="2">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B868" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C868" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="A869" s="4">
-        <v>189.0</v>
-      </c>
-      <c r="B869" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C869" s="4">
+      <c r="A869" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B869" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C869" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="A870" s="4">
-        <v>189.0</v>
-      </c>
-      <c r="B870" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C870" s="4">
+      <c r="A870" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B870" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C870" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="871" ht="14.25" customHeight="1">
       <c r="A871" s="2">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B871" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C871" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="2">
-        <v>189.0</v>
+        <v>188.0</v>
       </c>
       <c r="B872" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C872" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="873" ht="14.25" customHeight="1">
@@ -9801,153 +9798,153 @@
         <v>189.0</v>
       </c>
       <c r="B873" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C873" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="A874" s="4">
-        <v>190.0</v>
-      </c>
-      <c r="B874" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C874" s="4">
-        <v>0.0</v>
+      <c r="A874" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B874" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C874" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="A875" s="4">
-        <v>190.0</v>
-      </c>
-      <c r="B875" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C875" s="4">
+      <c r="A875" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B875" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C875" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="A876" s="4">
-        <v>190.0</v>
-      </c>
-      <c r="B876" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C876" s="4">
+      <c r="A876" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B876" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C876" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="A877" s="4">
-        <v>190.0</v>
-      </c>
-      <c r="B877" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C877" s="4">
-        <v>0.0</v>
+      <c r="A877" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B877" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C877" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="A878" s="4">
-        <v>190.0</v>
-      </c>
-      <c r="B878" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C878" s="4">
-        <v>0.0</v>
+      <c r="A878" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B878" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C878" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B879" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C879" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="880" ht="14.25" customHeight="1">
+      <c r="A880" s="2">
         <v>190.0</v>
       </c>
-      <c r="B879" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C879" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="880" ht="14.25" customHeight="1">
-      <c r="A880" s="4">
+      <c r="B880" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C880" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="881" ht="14.25" customHeight="1">
+      <c r="A881" s="2">
         <v>190.0</v>
       </c>
-      <c r="B880" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C880" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="881" ht="14.25" customHeight="1">
-      <c r="A881" s="4">
-        <v>191.0</v>
-      </c>
-      <c r="B881" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="C881" s="4">
+      <c r="B881" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C881" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="882" ht="14.25" customHeight="1">
       <c r="A882" s="2">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B882" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C882" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="883" ht="14.25" customHeight="1">
       <c r="A883" s="2">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B883" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C883" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="A884" s="4">
-        <v>191.0</v>
-      </c>
-      <c r="B884" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C884" s="4">
+      <c r="A884" s="2">
+        <v>190.0</v>
+      </c>
+      <c r="B884" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C884" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="A885" s="4">
-        <v>191.0</v>
-      </c>
-      <c r="B885" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="C885" s="4">
-        <v>0.0</v>
+      <c r="A885" s="2">
+        <v>190.0</v>
+      </c>
+      <c r="B885" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C885" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="2">
-        <v>191.0</v>
+        <v>190.0</v>
       </c>
       <c r="B886" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C886" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="887" ht="14.25" customHeight="1">
@@ -9955,62 +9952,62 @@
         <v>191.0</v>
       </c>
       <c r="B887" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C887" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="888" ht="14.25" customHeight="1">
       <c r="A888" s="2">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B888" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C888" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="A889" s="4">
-        <v>192.0</v>
-      </c>
-      <c r="B889" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="C889" s="4">
-        <v>0.0</v>
+      <c r="A889" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="B889" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C889" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="890" ht="14.25" customHeight="1">
       <c r="A890" s="2">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B890" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C890" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="891" ht="14.25" customHeight="1">
       <c r="A891" s="2">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B891" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C891" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="892" ht="14.25" customHeight="1">
       <c r="A892" s="2">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="B892" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C892" s="2">
         <v>1.0</v>
@@ -10018,244 +10015,256 @@
     </row>
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="B893" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C893" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="894" ht="14.25" customHeight="1">
+      <c r="A894" s="2">
         <v>192.0</v>
       </c>
-      <c r="B893" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C893" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="894" ht="14.25" customHeight="1">
-      <c r="A894" s="5">
-        <v>192.0</v>
-      </c>
-      <c r="B894" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="C894" s="5">
-        <v>2.0</v>
+      <c r="B894" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C894" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="895" ht="14.25" customHeight="1">
       <c r="A895" s="2">
-        <v>193.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="B895" s="2">
+        <v>13.0</v>
       </c>
       <c r="C895" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="896" ht="14.25" customHeight="1">
       <c r="A896" s="2">
-        <v>194.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="B896" s="2">
+        <v>14.0</v>
       </c>
       <c r="C896" s="2">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="897" ht="14.25" customHeight="1">
       <c r="A897" s="2">
-        <v>195.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="B897" s="2">
+        <v>15.0</v>
       </c>
       <c r="C897" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="898" ht="14.25" customHeight="1">
       <c r="A898" s="2">
-        <v>196.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="B898" s="2">
+        <v>16.0</v>
       </c>
       <c r="C898" s="2">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="899" ht="14.25" customHeight="1">
       <c r="A899" s="2">
-        <v>197.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="B899" s="2">
+        <v>17.0</v>
       </c>
       <c r="C899" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="A900" s="2">
-        <v>198.0</v>
-      </c>
-      <c r="C900" s="2">
-        <v>1.0</v>
+      <c r="A900" s="3">
+        <v>192.0</v>
+      </c>
+      <c r="B900" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C900" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="2">
-        <v>199.0</v>
+        <v>193.0</v>
       </c>
       <c r="C901" s="2">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="2">
-        <v>200.0</v>
+        <v>194.0</v>
       </c>
       <c r="C902" s="2">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="2">
-        <v>201.0</v>
+        <v>195.0</v>
       </c>
       <c r="C903" s="2">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="2">
-        <v>202.0</v>
+        <v>196.0</v>
       </c>
       <c r="C904" s="2">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="2">
-        <v>203.0</v>
+        <v>197.0</v>
       </c>
       <c r="C905" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="2">
-        <v>204.0</v>
+        <v>198.0</v>
       </c>
       <c r="C906" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="2">
-        <v>205.0</v>
+        <v>199.0</v>
       </c>
       <c r="C907" s="2">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="2">
-        <v>206.0</v>
+        <v>200.0</v>
       </c>
       <c r="C908" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="2">
-        <v>207.0</v>
+        <v>201.0</v>
       </c>
       <c r="C909" s="2">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="A910" s="4">
-        <v>208.0</v>
+      <c r="A910" s="2">
+        <v>202.0</v>
       </c>
       <c r="C910" s="2">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="2">
-        <v>209.0</v>
+        <v>203.0</v>
       </c>
       <c r="C911" s="2">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B912" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C912" s="2">
-        <v>0.0</v>
+        <v>204.0</v>
+      </c>
+      <c r="C912" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B913" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C913" s="2">
-        <v>0.0</v>
+        <v>205.0</v>
+      </c>
+      <c r="C913" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B914" s="2">
-        <v>3.0</v>
+        <v>206.0</v>
       </c>
       <c r="C914" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B915" s="2">
-        <v>4.0</v>
+        <v>207.0</v>
       </c>
       <c r="C915" s="2">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B916" s="2">
-        <v>5.0</v>
+        <v>208.0</v>
       </c>
       <c r="C916" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="2">
-        <v>211.0</v>
+        <v>209.0</v>
       </c>
       <c r="C917" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="2">
-        <v>212.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B918" s="2">
+        <v>1.0</v>
       </c>
       <c r="C918" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="2">
-        <v>213.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B919" s="2">
+        <v>2.0</v>
       </c>
       <c r="C919" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="2">
-        <v>214.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B920" s="2">
+        <v>3.0</v>
       </c>
       <c r="C920" s="2">
         <v>1.0</v>
@@ -10263,71 +10272,77 @@
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="2">
-        <v>215.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B921" s="2">
+        <v>4.0</v>
       </c>
       <c r="C921" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="2">
-        <v>216.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B922" s="2">
+        <v>5.0</v>
       </c>
       <c r="C922" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="2">
-        <v>217.0</v>
+        <v>211.0</v>
       </c>
       <c r="C923" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="2">
-        <v>218.0</v>
+        <v>212.0</v>
       </c>
       <c r="C924" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="2">
-        <v>219.0</v>
+        <v>213.0</v>
       </c>
       <c r="C925" s="2">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="2">
-        <v>220.0</v>
+        <v>214.0</v>
       </c>
       <c r="C926" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="2">
-        <v>221.0</v>
+        <v>215.0</v>
       </c>
       <c r="C927" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="2">
-        <v>222.0</v>
+        <v>216.0</v>
       </c>
       <c r="C928" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="2">
-        <v>223.0</v>
+        <v>217.0</v>
       </c>
       <c r="C929" s="2">
         <v>2.0</v>
@@ -10335,55 +10350,55 @@
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="2">
-        <v>224.0</v>
+        <v>218.0</v>
       </c>
       <c r="C930" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="2">
-        <v>225.0</v>
+        <v>219.0</v>
       </c>
       <c r="C931" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="2">
-        <v>226.0</v>
+        <v>220.0</v>
       </c>
       <c r="C932" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="2">
-        <v>227.0</v>
+        <v>221.0</v>
       </c>
       <c r="C933" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="2">
-        <v>228.0</v>
+        <v>222.0</v>
       </c>
       <c r="C934" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="2">
-        <v>229.0</v>
+        <v>223.0</v>
       </c>
       <c r="C935" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="2">
-        <v>230.0</v>
+        <v>224.0</v>
       </c>
       <c r="C936" s="2">
         <v>1.0</v>
@@ -10391,15 +10406,15 @@
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="2">
-        <v>231.0</v>
+        <v>225.0</v>
       </c>
       <c r="C937" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="2">
-        <v>232.0</v>
+        <v>226.0</v>
       </c>
       <c r="C938" s="2">
         <v>1.0</v>
@@ -10407,103 +10422,85 @@
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="2">
-        <v>233.0</v>
+        <v>227.0</v>
       </c>
       <c r="C939" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="2">
-        <v>234.0</v>
+        <v>228.0</v>
       </c>
       <c r="C940" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="2">
-        <v>235.0</v>
-      </c>
-      <c r="B941" s="2">
-        <v>1.0</v>
+        <v>229.0</v>
       </c>
       <c r="C941" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="2">
-        <v>235.0</v>
-      </c>
-      <c r="B942" s="2">
-        <v>2.0</v>
+        <v>230.0</v>
       </c>
       <c r="C942" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="2">
-        <v>235.0</v>
-      </c>
-      <c r="B943" s="2">
-        <v>3.0</v>
+        <v>231.0</v>
       </c>
       <c r="C943" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="2">
-        <v>235.0</v>
-      </c>
-      <c r="B944" s="2">
-        <v>4.0</v>
+        <v>232.0</v>
       </c>
       <c r="C944" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="2">
-        <v>235.0</v>
-      </c>
-      <c r="B945" s="2">
-        <v>5.0</v>
+        <v>233.0</v>
       </c>
       <c r="C945" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="2">
-        <v>236.0</v>
-      </c>
-      <c r="B946" s="2">
-        <v>1.0</v>
+        <v>234.0</v>
       </c>
       <c r="C946" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="2">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B947" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C947" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="2">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B948" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C948" s="2">
         <v>0.0</v>
@@ -10511,65 +10508,65 @@
     </row>
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="2">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B949" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C949" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="2">
-        <v>236.0</v>
+        <v>235.0</v>
       </c>
       <c r="B950" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C950" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="2">
-        <v>237.0</v>
+        <v>235.0</v>
       </c>
       <c r="B951" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C951" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="2">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B952" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C952" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="2">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B953" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C953" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="2">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B954" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C954" s="2">
         <v>0.0</v>
@@ -10577,21 +10574,21 @@
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="2">
-        <v>237.0</v>
+        <v>236.0</v>
       </c>
       <c r="B955" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C955" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="2">
-        <v>238.0</v>
+        <v>236.0</v>
       </c>
       <c r="B956" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C956" s="2">
         <v>1.0</v>
@@ -10599,21 +10596,21 @@
     </row>
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="2">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B957" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C957" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="2">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B958" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C958" s="2">
         <v>1.0</v>
@@ -10621,10 +10618,10 @@
     </row>
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="2">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B959" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C959" s="2">
         <v>0.0</v>
@@ -10632,10 +10629,10 @@
     </row>
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="2">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="B960" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C960" s="2">
         <v>0.0</v>
@@ -10643,65 +10640,65 @@
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="2">
-        <v>239.0</v>
+        <v>237.0</v>
       </c>
       <c r="B961" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C961" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="2">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B962" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C962" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="2">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B963" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C963" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="2">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B964" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C964" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="2">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="B965" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C965" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="2">
-        <v>240.0</v>
+        <v>238.0</v>
       </c>
       <c r="B966" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C966" s="2">
         <v>0.0</v>
@@ -10709,10 +10706,10 @@
     </row>
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="2">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B967" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C967" s="2">
         <v>0.0</v>
@@ -10720,10 +10717,10 @@
     </row>
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="2">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B968" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C968" s="2">
         <v>0.0</v>
@@ -10731,10 +10728,10 @@
     </row>
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="2">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B969" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C969" s="2">
         <v>1.0</v>
@@ -10742,32 +10739,32 @@
     </row>
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="2">
-        <v>240.0</v>
+        <v>239.0</v>
       </c>
       <c r="B970" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C970" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="2">
-        <v>241.0</v>
+        <v>239.0</v>
       </c>
       <c r="B971" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C971" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="2">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B972" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C972" s="2">
         <v>0.0</v>
@@ -10775,10 +10772,10 @@
     </row>
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="2">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B973" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C973" s="2">
         <v>0.0</v>
@@ -10786,10 +10783,10 @@
     </row>
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="2">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B974" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C974" s="2">
         <v>0.0</v>
@@ -10797,10 +10794,10 @@
     </row>
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="2">
-        <v>241.0</v>
+        <v>240.0</v>
       </c>
       <c r="B975" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C975" s="2">
         <v>1.0</v>
@@ -10808,32 +10805,32 @@
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="2">
-        <v>242.0</v>
+        <v>240.0</v>
       </c>
       <c r="B976" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C976" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="2">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B977" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C977" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="2">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B978" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C978" s="2">
         <v>0.0</v>
@@ -10841,21 +10838,21 @@
     </row>
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="2">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B979" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C979" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="2">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="B980" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C980" s="2">
         <v>0.0</v>
@@ -10863,32 +10860,32 @@
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="2">
-        <v>243.0</v>
+        <v>241.0</v>
       </c>
       <c r="B981" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C981" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="2">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B982" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C982" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="2">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B983" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C983" s="2">
         <v>1.0</v>
@@ -10896,10 +10893,10 @@
     </row>
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="2">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B984" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C984" s="2">
         <v>0.0</v>
@@ -10907,43 +10904,43 @@
     </row>
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="2">
-        <v>243.0</v>
+        <v>242.0</v>
       </c>
       <c r="B985" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C985" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="2">
-        <v>244.0</v>
+        <v>242.0</v>
       </c>
       <c r="B986" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C986" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="2">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B987" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C987" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="2">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B988" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C988" s="2">
         <v>1.0</v>
@@ -10951,10 +10948,10 @@
     </row>
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="2">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B989" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C989" s="2">
         <v>1.0</v>
@@ -10962,76 +10959,76 @@
     </row>
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="2">
-        <v>244.0</v>
+        <v>243.0</v>
       </c>
       <c r="B990" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C990" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="2">
-        <v>245.0</v>
+        <v>243.0</v>
       </c>
       <c r="B991" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C991" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="2">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B992" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C992" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="2">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B993" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C993" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="2">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B994" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C994" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C994" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="2">
-        <v>245.0</v>
+        <v>244.0</v>
       </c>
       <c r="B995" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C995" s="4">
-        <v>2.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="C995" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="2">
-        <v>246.0</v>
+        <v>244.0</v>
       </c>
       <c r="B996" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C996" s="2">
         <v>1.0</v>
@@ -11039,84 +11036,84 @@
     </row>
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="2">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B997" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C997" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="2">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B998" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C998" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="2">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B999" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C999" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="2">
-        <v>246.0</v>
+        <v>245.0</v>
       </c>
       <c r="B1000" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1001" ht="14.25" customHeight="1">
+      <c r="A1001" s="2">
+        <v>245.0</v>
+      </c>
+      <c r="B1001" s="2">
         <v>5.0</v>
       </c>
-      <c r="C1000" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="1001" ht="14.25" customHeight="1">
-      <c r="A1001" s="4">
-        <v>247.0</v>
-      </c>
-      <c r="B1001" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C1001" s="4">
-        <v>1.0</v>
+      <c r="C1001" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="1002" ht="14.25" customHeight="1">
       <c r="A1002" s="2">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1002" s="2">
         <v>1.0</v>
       </c>
       <c r="C1002" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
       <c r="A1003" s="2">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1003" s="2">
         <v>2.0</v>
       </c>
       <c r="C1003" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1004" ht="14.25" customHeight="1">
       <c r="A1004" s="2">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1004" s="2">
         <v>3.0</v>
@@ -11127,18 +11124,18 @@
     </row>
     <row r="1005" ht="14.25" customHeight="1">
       <c r="A1005" s="2">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1005" s="2">
         <v>4.0</v>
       </c>
       <c r="C1005" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1006" ht="14.25" customHeight="1">
       <c r="A1006" s="2">
-        <v>247.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1006" s="2">
         <v>5.0</v>
@@ -11149,43 +11146,43 @@
     </row>
     <row r="1007" ht="14.25" customHeight="1">
       <c r="A1007" s="2">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1007" s="2">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1007" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1008" ht="14.25" customHeight="1">
       <c r="A1008" s="2">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1008" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1008" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1009" ht="14.25" customHeight="1">
       <c r="A1009" s="2">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1009" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1009" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1010" ht="14.25" customHeight="1">
       <c r="A1010" s="2">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1010" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1010" s="2">
         <v>1.0</v>
@@ -11193,29 +11190,29 @@
     </row>
     <row r="1011" ht="14.25" customHeight="1">
       <c r="A1011" s="2">
-        <v>248.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1011" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C1011" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1012" ht="14.25" customHeight="1">
+      <c r="A1012" s="2">
+        <v>247.0</v>
+      </c>
+      <c r="B1012" s="2">
         <v>5.0</v>
       </c>
-      <c r="C1011" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="1012" ht="14.25" customHeight="1">
-      <c r="A1012" s="4">
-        <v>248.0</v>
-      </c>
-      <c r="B1012" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C1012" s="4">
+      <c r="C1012" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="1013" ht="14.25" customHeight="1">
       <c r="A1013" s="2">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1013" s="2">
         <v>1.0</v>
@@ -11226,7 +11223,7 @@
     </row>
     <row r="1014" ht="14.25" customHeight="1">
       <c r="A1014" s="2">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1014" s="2">
         <v>2.0</v>
@@ -11237,7 +11234,7 @@
     </row>
     <row r="1015" ht="14.25" customHeight="1">
       <c r="A1015" s="2">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1015" s="2">
         <v>3.0</v>
@@ -11248,18 +11245,18 @@
     </row>
     <row r="1016" ht="14.25" customHeight="1">
       <c r="A1016" s="2">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1016" s="2">
         <v>4.0</v>
       </c>
       <c r="C1016" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1017" ht="14.25" customHeight="1">
       <c r="A1017" s="2">
-        <v>249.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1017" s="2">
         <v>5.0</v>
@@ -11269,10 +11266,10 @@
       </c>
     </row>
     <row r="1018" ht="14.25" customHeight="1">
-      <c r="A1018" s="4">
-        <v>249.0</v>
-      </c>
-      <c r="B1018" s="4">
+      <c r="A1018" s="2">
+        <v>248.0</v>
+      </c>
+      <c r="B1018" s="2">
         <v>6.0</v>
       </c>
       <c r="C1018" s="2">
@@ -11281,7 +11278,7 @@
     </row>
     <row r="1019" ht="14.25" customHeight="1">
       <c r="A1019" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1019" s="2">
         <v>1.0</v>
@@ -11292,18 +11289,18 @@
     </row>
     <row r="1020" ht="14.25" customHeight="1">
       <c r="A1020" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1020" s="2">
         <v>2.0</v>
       </c>
       <c r="C1020" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1021" ht="14.25" customHeight="1">
       <c r="A1021" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1021" s="2">
         <v>3.0</v>
@@ -11314,7 +11311,7 @@
     </row>
     <row r="1022" ht="14.25" customHeight="1">
       <c r="A1022" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1022" s="2">
         <v>4.0</v>
@@ -11325,29 +11322,29 @@
     </row>
     <row r="1023" ht="14.25" customHeight="1">
       <c r="A1023" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1023" s="2">
         <v>5.0</v>
       </c>
       <c r="C1023" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
       <c r="A1024" s="2">
-        <v>250.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1024" s="2">
         <v>6.0</v>
       </c>
       <c r="C1024" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1025" ht="14.25" customHeight="1">
       <c r="A1025" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1025" s="2">
         <v>1.0</v>
@@ -11358,7 +11355,7 @@
     </row>
     <row r="1026" ht="14.25" customHeight="1">
       <c r="A1026" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1026" s="2">
         <v>2.0</v>
@@ -11369,7 +11366,7 @@
     </row>
     <row r="1027" ht="14.25" customHeight="1">
       <c r="A1027" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1027" s="2">
         <v>3.0</v>
@@ -11380,7 +11377,7 @@
     </row>
     <row r="1028" ht="14.25" customHeight="1">
       <c r="A1028" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1028" s="2">
         <v>4.0</v>
@@ -11391,7 +11388,7 @@
     </row>
     <row r="1029" ht="14.25" customHeight="1">
       <c r="A1029" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1029" s="2">
         <v>5.0</v>
@@ -11402,7 +11399,7 @@
     </row>
     <row r="1030" ht="14.25" customHeight="1">
       <c r="A1030" s="2">
-        <v>251.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1030" s="2">
         <v>6.0</v>
@@ -11413,7 +11410,7 @@
     </row>
     <row r="1031" ht="14.25" customHeight="1">
       <c r="A1031" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1031" s="2">
         <v>1.0</v>
@@ -11424,7 +11421,7 @@
     </row>
     <row r="1032" ht="14.25" customHeight="1">
       <c r="A1032" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1032" s="2">
         <v>2.0</v>
@@ -11435,7 +11432,7 @@
     </row>
     <row r="1033" ht="14.25" customHeight="1">
       <c r="A1033" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1033" s="2">
         <v>3.0</v>
@@ -11446,7 +11443,7 @@
     </row>
     <row r="1034" ht="14.25" customHeight="1">
       <c r="A1034" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1034" s="2">
         <v>4.0</v>
@@ -11457,32 +11454,32 @@
     </row>
     <row r="1035" ht="14.25" customHeight="1">
       <c r="A1035" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1035" s="2">
         <v>5.0</v>
       </c>
       <c r="C1035" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1036" ht="14.25" customHeight="1">
       <c r="A1036" s="2">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1036" s="2">
         <v>6.0</v>
       </c>
       <c r="C1036" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1037" ht="14.25" customHeight="1">
       <c r="A1037" s="2">
-        <v>253.0</v>
-      </c>
-      <c r="B1037" s="4">
-        <v>14.0</v>
+        <v>252.0</v>
+      </c>
+      <c r="B1037" s="2">
+        <v>1.0</v>
       </c>
       <c r="C1037" s="2">
         <v>0.0</v>
@@ -11490,10 +11487,10 @@
     </row>
     <row r="1038" ht="14.25" customHeight="1">
       <c r="A1038" s="2">
-        <v>253.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1038" s="2">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1038" s="2">
         <v>0.0</v>
@@ -11501,10 +11498,10 @@
     </row>
     <row r="1039" ht="14.25" customHeight="1">
       <c r="A1039" s="2">
-        <v>253.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1039" s="2">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1039" s="2">
         <v>0.0</v>
@@ -11512,32 +11509,32 @@
     </row>
     <row r="1040" ht="14.25" customHeight="1">
       <c r="A1040" s="2">
-        <v>253.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1040" s="2">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1040" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1041" ht="14.25" customHeight="1">
       <c r="A1041" s="2">
-        <v>253.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1041" s="2">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1041" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1042" ht="14.25" customHeight="1">
       <c r="A1042" s="2">
-        <v>254.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1042" s="2">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1042" s="2">
         <v>0.0</v>
@@ -11545,10 +11542,10 @@
     </row>
     <row r="1043" ht="14.25" customHeight="1">
       <c r="A1043" s="2">
-        <v>254.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1043" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1043" s="2">
         <v>0.0</v>
@@ -11556,10 +11553,10 @@
     </row>
     <row r="1044" ht="14.25" customHeight="1">
       <c r="A1044" s="2">
-        <v>254.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1044" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1044" s="2">
         <v>0.0</v>
@@ -11567,10 +11564,10 @@
     </row>
     <row r="1045" ht="14.25" customHeight="1">
       <c r="A1045" s="2">
-        <v>254.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1045" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1045" s="2">
         <v>0.0</v>
@@ -11578,10 +11575,10 @@
     </row>
     <row r="1046" ht="14.25" customHeight="1">
       <c r="A1046" s="2">
-        <v>254.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1046" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1046" s="2">
         <v>1.0</v>
@@ -11589,21 +11586,21 @@
     </row>
     <row r="1047" ht="14.25" customHeight="1">
       <c r="A1047" s="2">
-        <v>255.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1047" s="2">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1047" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1048" ht="14.25" customHeight="1">
       <c r="A1048" s="2">
-        <v>255.0</v>
+        <v>254.0</v>
       </c>
       <c r="B1048" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1048" s="2">
         <v>0.0</v>
@@ -11611,21 +11608,21 @@
     </row>
     <row r="1049" ht="14.25" customHeight="1">
       <c r="A1049" s="2">
-        <v>255.0</v>
+        <v>254.0</v>
       </c>
       <c r="B1049" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1049" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1050" ht="14.25" customHeight="1">
       <c r="A1050" s="2">
-        <v>255.0</v>
+        <v>254.0</v>
       </c>
       <c r="B1050" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1050" s="2">
         <v>0.0</v>
@@ -11633,32 +11630,32 @@
     </row>
     <row r="1051" ht="14.25" customHeight="1">
       <c r="A1051" s="2">
-        <v>255.0</v>
+        <v>254.0</v>
       </c>
       <c r="B1051" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1052" ht="14.25" customHeight="1">
+      <c r="A1052" s="2">
+        <v>254.0</v>
+      </c>
+      <c r="B1052" s="2">
         <v>18.0</v>
       </c>
-      <c r="C1051" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="1052" ht="14.25" customHeight="1">
-      <c r="A1052" s="4">
-        <v>256.0</v>
-      </c>
-      <c r="B1052" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C1052" s="4">
-        <v>0.0</v>
+      <c r="C1052" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1053" ht="14.25" customHeight="1">
       <c r="A1053" s="2">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="B1053" s="2">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1053" s="2">
         <v>0.0</v>
@@ -11666,10 +11663,10 @@
     </row>
     <row r="1054" ht="14.25" customHeight="1">
       <c r="A1054" s="2">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="B1054" s="2">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1054" s="2">
         <v>0.0</v>
@@ -11677,62 +11674,62 @@
     </row>
     <row r="1055" ht="14.25" customHeight="1">
       <c r="A1055" s="2">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="B1055" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1055" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1056" ht="14.25" customHeight="1">
       <c r="A1056" s="2">
-        <v>256.0</v>
+        <v>255.0</v>
       </c>
       <c r="B1056" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C1056" s="4">
-        <v>2.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1057" ht="14.25" customHeight="1">
       <c r="A1057" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="B1057" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1058" ht="14.25" customHeight="1">
+      <c r="A1058" s="2">
         <v>256.0</v>
       </c>
-      <c r="B1057" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C1057" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="1058" ht="14.25" customHeight="1">
-      <c r="A1058" s="4">
-        <v>257.0</v>
-      </c>
-      <c r="B1058" s="4">
+      <c r="B1058" s="2">
         <v>22.0</v>
       </c>
       <c r="C1058" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1059" ht="14.25" customHeight="1">
       <c r="A1059" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1059" s="2">
         <v>1.0</v>
       </c>
       <c r="C1059" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1060" ht="14.25" customHeight="1">
       <c r="A1060" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1060" s="2">
         <v>2.0</v>
@@ -11743,7 +11740,7 @@
     </row>
     <row r="1061" ht="14.25" customHeight="1">
       <c r="A1061" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1061" s="2">
         <v>3.0</v>
@@ -11754,18 +11751,18 @@
     </row>
     <row r="1062" ht="14.25" customHeight="1">
       <c r="A1062" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1062" s="2">
         <v>4.0</v>
       </c>
       <c r="C1062" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
       <c r="A1063" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1063" s="2">
         <v>5.0</v>
@@ -11776,29 +11773,29 @@
     </row>
     <row r="1064" ht="14.25" customHeight="1">
       <c r="A1064" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1064" s="2">
         <v>22.0</v>
       </c>
       <c r="C1064" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1065" ht="14.25" customHeight="1">
       <c r="A1065" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1065" s="2">
         <v>1.0</v>
       </c>
       <c r="C1065" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1066" ht="14.25" customHeight="1">
       <c r="A1066" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1066" s="2">
         <v>2.0</v>
@@ -11809,7 +11806,7 @@
     </row>
     <row r="1067" ht="14.25" customHeight="1">
       <c r="A1067" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1067" s="2">
         <v>3.0</v>
@@ -11820,54 +11817,54 @@
     </row>
     <row r="1068" ht="14.25" customHeight="1">
       <c r="A1068" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1068" s="2">
         <v>4.0</v>
       </c>
       <c r="C1068" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1069" ht="14.25" customHeight="1">
       <c r="A1069" s="2">
-        <v>258.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1069" s="2">
         <v>5.0</v>
       </c>
       <c r="C1069" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1070" ht="14.25" customHeight="1">
       <c r="A1070" s="2">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1070" s="2">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1070" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1071" ht="14.25" customHeight="1">
       <c r="A1071" s="2">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1071" s="2">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1071" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1072" ht="14.25" customHeight="1">
       <c r="A1072" s="2">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1072" s="2">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1072" s="2">
         <v>0.0</v>
@@ -11875,65 +11872,65 @@
     </row>
     <row r="1073" ht="14.25" customHeight="1">
       <c r="A1073" s="2">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1073" s="2">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1073" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1074" ht="14.25" customHeight="1">
       <c r="A1074" s="2">
-        <v>259.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1074" s="2">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1074" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1075" ht="14.25" customHeight="1">
       <c r="A1075" s="2">
-        <v>260.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1075" s="2">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1075" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1076" ht="14.25" customHeight="1">
       <c r="A1076" s="2">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1076" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1076" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1077" ht="14.25" customHeight="1">
       <c r="A1077" s="2">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1077" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1077" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1078" ht="14.25" customHeight="1">
       <c r="A1078" s="2">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1078" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1078" s="2">
         <v>0.0</v>
@@ -11941,54 +11938,54 @@
     </row>
     <row r="1079" ht="14.25" customHeight="1">
       <c r="A1079" s="2">
-        <v>260.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1079" s="2">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1079" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1080" ht="14.25" customHeight="1">
       <c r="A1080" s="2">
-        <v>261.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1080" s="2">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1080" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1081" ht="14.25" customHeight="1">
       <c r="A1081" s="2">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1081" s="2">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1081" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1082" ht="14.25" customHeight="1">
       <c r="A1082" s="2">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1082" s="2">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1082" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1083" ht="14.25" customHeight="1">
       <c r="A1083" s="2">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1083" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1083" s="2">
         <v>2.0</v>
@@ -11996,21 +11993,21 @@
     </row>
     <row r="1084" ht="14.25" customHeight="1">
       <c r="A1084" s="2">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1084" s="2">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1084" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1085" ht="14.25" customHeight="1">
       <c r="A1085" s="2">
-        <v>261.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1085" s="2">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1085" s="2">
         <v>0.0</v>
@@ -12018,65 +12015,65 @@
     </row>
     <row r="1086" ht="14.25" customHeight="1">
       <c r="A1086" s="2">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1086" s="2">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1086" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1087" ht="14.25" customHeight="1">
       <c r="A1087" s="2">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1087" s="2">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1087" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1088" ht="14.25" customHeight="1">
       <c r="A1088" s="2">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1088" s="2">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1088" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1089" ht="14.25" customHeight="1">
       <c r="A1089" s="2">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1089" s="2">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1089" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1090" ht="14.25" customHeight="1">
       <c r="A1090" s="2">
-        <v>262.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1090" s="2">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1090" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="1091" ht="14.25" customHeight="1">
       <c r="A1091" s="2">
-        <v>263.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1091" s="2">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1091" s="2">
         <v>0.0</v>
@@ -12084,10 +12081,10 @@
     </row>
     <row r="1092" ht="14.25" customHeight="1">
       <c r="A1092" s="2">
-        <v>263.0</v>
+        <v>262.0</v>
       </c>
       <c r="B1092" s="2">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1092" s="2">
         <v>0.0</v>
@@ -12095,10 +12092,10 @@
     </row>
     <row r="1093" ht="14.25" customHeight="1">
       <c r="A1093" s="2">
-        <v>263.0</v>
+        <v>262.0</v>
       </c>
       <c r="B1093" s="2">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1093" s="2">
         <v>0.0</v>
@@ -12106,205 +12103,1914 @@
     </row>
     <row r="1094" ht="14.25" customHeight="1">
       <c r="A1094" s="2">
-        <v>263.0</v>
+        <v>262.0</v>
       </c>
       <c r="B1094" s="2">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1094" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1095" ht="14.25" customHeight="1">
       <c r="A1095" s="2">
+        <v>262.0</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1095" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1096" ht="14.25" customHeight="1">
+      <c r="A1096" s="2">
+        <v>262.0</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1096" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1097" ht="14.25" customHeight="1">
+      <c r="A1097" s="2">
         <v>263.0</v>
       </c>
-      <c r="B1095" s="2">
+      <c r="B1097" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1097" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1098" ht="14.25" customHeight="1">
+      <c r="A1098" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1098" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1099" ht="14.25" customHeight="1">
+      <c r="A1099" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1099" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1100" ht="14.25" customHeight="1">
+      <c r="A1100" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1100" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1101" ht="14.25" customHeight="1">
+      <c r="A1101" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="B1101" s="2">
         <v>18.0</v>
       </c>
-      <c r="C1095" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="1096" ht="14.25" customHeight="1"/>
-    <row r="1097" ht="14.25" customHeight="1"/>
-    <row r="1098" ht="14.25" customHeight="1"/>
-    <row r="1099" ht="14.25" customHeight="1"/>
-    <row r="1100" ht="14.25" customHeight="1"/>
-    <row r="1101" ht="14.25" customHeight="1"/>
-    <row r="1102" ht="14.25" customHeight="1"/>
-    <row r="1103" ht="14.25" customHeight="1"/>
-    <row r="1104" ht="14.25" customHeight="1"/>
-    <row r="1105" ht="14.25" customHeight="1"/>
-    <row r="1106" ht="14.25" customHeight="1"/>
-    <row r="1107" ht="14.25" customHeight="1"/>
-    <row r="1108" ht="14.25" customHeight="1"/>
-    <row r="1109" ht="14.25" customHeight="1"/>
-    <row r="1110" ht="14.25" customHeight="1"/>
-    <row r="1111" ht="14.25" customHeight="1"/>
-    <row r="1112" ht="14.25" customHeight="1"/>
-    <row r="1113" ht="14.25" customHeight="1"/>
-    <row r="1114" ht="14.25" customHeight="1"/>
-    <row r="1115" ht="14.25" customHeight="1"/>
-    <row r="1116" ht="14.25" customHeight="1"/>
-    <row r="1117" ht="14.25" customHeight="1"/>
-    <row r="1118" ht="14.25" customHeight="1"/>
-    <row r="1119" ht="14.25" customHeight="1"/>
-    <row r="1120" ht="14.25" customHeight="1"/>
-    <row r="1121" ht="14.25" customHeight="1"/>
-    <row r="1122" ht="14.25" customHeight="1"/>
-    <row r="1123" ht="14.25" customHeight="1"/>
-    <row r="1124" ht="14.25" customHeight="1"/>
-    <row r="1125" ht="14.25" customHeight="1"/>
-    <row r="1126" ht="14.25" customHeight="1"/>
-    <row r="1127" ht="14.25" customHeight="1"/>
-    <row r="1128" ht="14.25" customHeight="1"/>
-    <row r="1129" ht="14.25" customHeight="1"/>
-    <row r="1130" ht="14.25" customHeight="1"/>
-    <row r="1131" ht="14.25" customHeight="1"/>
-    <row r="1132" ht="14.25" customHeight="1"/>
-    <row r="1133" ht="14.25" customHeight="1"/>
-    <row r="1134" ht="14.25" customHeight="1"/>
-    <row r="1135" ht="14.25" customHeight="1"/>
-    <row r="1136" ht="14.25" customHeight="1"/>
-    <row r="1137" ht="14.25" customHeight="1"/>
-    <row r="1138" ht="14.25" customHeight="1"/>
-    <row r="1139" ht="14.25" customHeight="1"/>
-    <row r="1140" ht="14.25" customHeight="1"/>
-    <row r="1141" ht="14.25" customHeight="1"/>
-    <row r="1142" ht="14.25" customHeight="1"/>
-    <row r="1143" ht="14.25" customHeight="1"/>
-    <row r="1144" ht="14.25" customHeight="1"/>
-    <row r="1145" ht="14.25" customHeight="1"/>
-    <row r="1146" ht="14.25" customHeight="1"/>
-    <row r="1147" ht="14.25" customHeight="1"/>
-    <row r="1148" ht="14.25" customHeight="1"/>
-    <row r="1149" ht="14.25" customHeight="1"/>
-    <row r="1150" ht="14.25" customHeight="1"/>
-    <row r="1151" ht="14.25" customHeight="1"/>
-    <row r="1152" ht="14.25" customHeight="1"/>
-    <row r="1153" ht="14.25" customHeight="1"/>
-    <row r="1154" ht="14.25" customHeight="1"/>
-    <row r="1155" ht="14.25" customHeight="1"/>
-    <row r="1156" ht="14.25" customHeight="1"/>
-    <row r="1157" ht="14.25" customHeight="1"/>
-    <row r="1158" ht="14.25" customHeight="1"/>
-    <row r="1159" ht="14.25" customHeight="1"/>
-    <row r="1160" ht="14.25" customHeight="1"/>
-    <row r="1161" ht="14.25" customHeight="1"/>
-    <row r="1162" ht="14.25" customHeight="1"/>
-    <row r="1163" ht="14.25" customHeight="1"/>
-    <row r="1164" ht="14.25" customHeight="1"/>
-    <row r="1165" ht="14.25" customHeight="1"/>
-    <row r="1166" ht="14.25" customHeight="1"/>
-    <row r="1167" ht="14.25" customHeight="1"/>
-    <row r="1168" ht="14.25" customHeight="1"/>
-    <row r="1169" ht="14.25" customHeight="1"/>
-    <row r="1170" ht="14.25" customHeight="1"/>
-    <row r="1171" ht="14.25" customHeight="1"/>
-    <row r="1172" ht="14.25" customHeight="1"/>
-    <row r="1173" ht="14.25" customHeight="1"/>
-    <row r="1174" ht="14.25" customHeight="1"/>
-    <row r="1175" ht="14.25" customHeight="1"/>
-    <row r="1176" ht="14.25" customHeight="1"/>
-    <row r="1177" ht="14.25" customHeight="1"/>
-    <row r="1178" ht="14.25" customHeight="1"/>
-    <row r="1179" ht="14.25" customHeight="1"/>
-    <row r="1180" ht="14.25" customHeight="1"/>
-    <row r="1181" ht="14.25" customHeight="1"/>
-    <row r="1182" ht="14.25" customHeight="1"/>
-    <row r="1183" ht="14.25" customHeight="1"/>
-    <row r="1184" ht="14.25" customHeight="1"/>
-    <row r="1185" ht="14.25" customHeight="1"/>
-    <row r="1186" ht="14.25" customHeight="1"/>
-    <row r="1187" ht="14.25" customHeight="1"/>
-    <row r="1188" ht="14.25" customHeight="1"/>
-    <row r="1189" ht="14.25" customHeight="1"/>
-    <row r="1190" ht="14.25" customHeight="1"/>
-    <row r="1191" ht="14.25" customHeight="1"/>
-    <row r="1192" ht="14.25" customHeight="1"/>
-    <row r="1193" ht="14.25" customHeight="1"/>
-    <row r="1194" ht="14.25" customHeight="1"/>
-    <row r="1195" ht="14.25" customHeight="1"/>
-    <row r="1196" ht="14.25" customHeight="1"/>
-    <row r="1197" ht="14.25" customHeight="1"/>
-    <row r="1198" ht="14.25" customHeight="1"/>
-    <row r="1199" ht="14.25" customHeight="1"/>
-    <row r="1200" ht="14.25" customHeight="1"/>
-    <row r="1201" ht="14.25" customHeight="1"/>
-    <row r="1202" ht="14.25" customHeight="1"/>
-    <row r="1203" ht="14.25" customHeight="1"/>
-    <row r="1204" ht="14.25" customHeight="1"/>
-    <row r="1205" ht="14.25" customHeight="1"/>
-    <row r="1206" ht="14.25" customHeight="1"/>
-    <row r="1207" ht="14.25" customHeight="1"/>
-    <row r="1208" ht="14.25" customHeight="1"/>
-    <row r="1209" ht="14.25" customHeight="1"/>
-    <row r="1210" ht="14.25" customHeight="1"/>
-    <row r="1211" ht="14.25" customHeight="1"/>
-    <row r="1212" ht="14.25" customHeight="1"/>
-    <row r="1213" ht="14.25" customHeight="1"/>
-    <row r="1214" ht="14.25" customHeight="1"/>
-    <row r="1215" ht="14.25" customHeight="1"/>
-    <row r="1216" ht="14.25" customHeight="1"/>
-    <row r="1217" ht="14.25" customHeight="1"/>
-    <row r="1218" ht="14.25" customHeight="1"/>
-    <row r="1219" ht="14.25" customHeight="1"/>
-    <row r="1220" ht="14.25" customHeight="1"/>
-    <row r="1221" ht="14.25" customHeight="1"/>
-    <row r="1222" ht="14.25" customHeight="1"/>
-    <row r="1223" ht="14.25" customHeight="1"/>
-    <row r="1224" ht="14.25" customHeight="1"/>
-    <row r="1225" ht="14.25" customHeight="1"/>
-    <row r="1226" ht="14.25" customHeight="1"/>
-    <row r="1227" ht="14.25" customHeight="1"/>
-    <row r="1228" ht="14.25" customHeight="1"/>
-    <row r="1229" ht="14.25" customHeight="1"/>
-    <row r="1230" ht="14.25" customHeight="1"/>
-    <row r="1231" ht="14.25" customHeight="1"/>
-    <row r="1232" ht="14.25" customHeight="1"/>
-    <row r="1233" ht="14.25" customHeight="1"/>
-    <row r="1234" ht="14.25" customHeight="1"/>
-    <row r="1235" ht="14.25" customHeight="1"/>
-    <row r="1236" ht="14.25" customHeight="1"/>
-    <row r="1237" ht="14.25" customHeight="1"/>
-    <row r="1238" ht="14.25" customHeight="1"/>
-    <row r="1239" ht="14.25" customHeight="1"/>
-    <row r="1240" ht="14.25" customHeight="1"/>
-    <row r="1241" ht="14.25" customHeight="1"/>
-    <row r="1242" ht="14.25" customHeight="1"/>
-    <row r="1243" ht="14.25" customHeight="1"/>
-    <row r="1244" ht="14.25" customHeight="1"/>
-    <row r="1245" ht="14.25" customHeight="1"/>
-    <row r="1246" ht="14.25" customHeight="1"/>
-    <row r="1247" ht="14.25" customHeight="1"/>
-    <row r="1248" ht="14.25" customHeight="1"/>
-    <row r="1249" ht="14.25" customHeight="1"/>
-    <row r="1250" ht="14.25" customHeight="1"/>
-    <row r="1251" ht="14.25" customHeight="1"/>
-    <row r="1252" ht="14.25" customHeight="1"/>
-    <row r="1253" ht="14.25" customHeight="1"/>
-    <row r="1254" ht="14.25" customHeight="1"/>
-    <row r="1255" ht="14.25" customHeight="1"/>
-    <row r="1256" ht="14.25" customHeight="1"/>
-    <row r="1257" ht="14.25" customHeight="1"/>
-    <row r="1258" ht="14.25" customHeight="1"/>
-    <row r="1259" ht="14.25" customHeight="1"/>
-    <row r="1260" ht="14.25" customHeight="1"/>
-    <row r="1261" ht="14.25" customHeight="1"/>
-    <row r="1262" ht="14.25" customHeight="1"/>
-    <row r="1263" ht="14.25" customHeight="1"/>
-    <row r="1264" ht="14.25" customHeight="1"/>
-    <row r="1265" ht="14.25" customHeight="1"/>
-    <row r="1266" ht="14.25" customHeight="1"/>
-    <row r="1267" ht="14.25" customHeight="1"/>
-    <row r="1268" ht="14.25" customHeight="1"/>
-    <row r="1269" ht="14.25" customHeight="1"/>
-    <row r="1270" ht="14.25" customHeight="1"/>
-    <row r="1271" ht="14.25" customHeight="1"/>
-    <row r="1272" ht="14.25" customHeight="1"/>
-    <row r="1273" ht="14.25" customHeight="1"/>
-    <row r="1274" ht="14.25" customHeight="1"/>
+      <c r="C1101" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1102" ht="14.25" customHeight="1">
+      <c r="A1102" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1102" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1103" ht="14.25" customHeight="1">
+      <c r="A1103" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1103" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1104" ht="14.25" customHeight="1">
+      <c r="A1104" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1104" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1105" ht="14.25" customHeight="1">
+      <c r="A1105" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1105" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1106" ht="14.25" customHeight="1">
+      <c r="A1106" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1106" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1107" ht="14.25" customHeight="1">
+      <c r="A1107" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1107" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1108" ht="14.25" customHeight="1">
+      <c r="A1108" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1108" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1109" ht="14.25" customHeight="1">
+      <c r="A1109" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1109" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1110" ht="14.25" customHeight="1">
+      <c r="A1110" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1110" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1111" ht="14.25" customHeight="1">
+      <c r="A1111" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1111" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1112" ht="14.25" customHeight="1">
+      <c r="A1112" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1112" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1113" ht="14.25" customHeight="1">
+      <c r="A1113" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1113" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1114" ht="14.25" customHeight="1">
+      <c r="A1114" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1114" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1115" ht="14.25" customHeight="1">
+      <c r="A1115" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1115" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1116" ht="14.25" customHeight="1">
+      <c r="A1116" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C1116" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1117" ht="14.25" customHeight="1">
+      <c r="A1117" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C1117" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1118" ht="14.25" customHeight="1">
+      <c r="A1118" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C1118" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1119" ht="14.25" customHeight="1">
+      <c r="A1119" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C1119" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1120" ht="14.25" customHeight="1">
+      <c r="A1120" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C1120" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1121" ht="14.25" customHeight="1">
+      <c r="A1121" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C1121" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1122" ht="14.25" customHeight="1">
+      <c r="A1122" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1122" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1123" ht="14.25" customHeight="1">
+      <c r="A1123" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1123" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1124" ht="14.25" customHeight="1">
+      <c r="A1124" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1124" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1125" ht="14.25" customHeight="1">
+      <c r="A1125" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1125" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="1126" ht="14.25" customHeight="1">
+      <c r="A1126" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1126" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="1127" ht="14.25" customHeight="1">
+      <c r="A1127" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1127" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="1128" ht="14.25" customHeight="1">
+      <c r="A1128" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1128" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="1129" ht="14.25" customHeight="1">
+      <c r="A1129" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C1129" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1130" ht="14.25" customHeight="1">
+      <c r="A1130" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C1130" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1131" ht="14.25" customHeight="1">
+      <c r="A1131" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C1131" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1132" ht="14.25" customHeight="1">
+      <c r="A1132" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C1132" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1133" ht="14.25" customHeight="1">
+      <c r="A1133" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C1133" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1134" ht="14.25" customHeight="1">
+      <c r="A1134" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C1134" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1135" ht="14.25" customHeight="1">
+      <c r="A1135" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="1136" ht="14.25" customHeight="1">
+      <c r="A1136" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="1137" ht="14.25" customHeight="1">
+      <c r="A1137" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="1138" ht="14.25" customHeight="1">
+      <c r="A1138" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="1139" ht="14.25" customHeight="1">
+      <c r="A1139" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="1140" ht="14.25" customHeight="1">
+      <c r="A1140" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="1141" ht="14.25" customHeight="1">
+      <c r="A1141" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="1142" ht="14.25" customHeight="1">
+      <c r="A1142" s="2">
+        <v>270.0</v>
+      </c>
+      <c r="C1142" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1143" ht="14.25" customHeight="1">
+      <c r="A1143" s="2">
+        <v>271.0</v>
+      </c>
+      <c r="C1143" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1144" ht="14.25" customHeight="1">
+      <c r="A1144" s="2">
+        <v>272.0</v>
+      </c>
+      <c r="C1144" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1145" ht="14.25" customHeight="1">
+      <c r="A1145" s="2">
+        <v>273.0</v>
+      </c>
+      <c r="C1145" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1146" ht="14.25" customHeight="1">
+      <c r="A1146" s="2">
+        <v>274.0</v>
+      </c>
+      <c r="C1146" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1147" ht="14.25" customHeight="1">
+      <c r="A1147" s="2">
+        <v>275.0</v>
+      </c>
+      <c r="C1147" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1148" ht="14.25" customHeight="1">
+      <c r="A1148" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="C1148" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1149" ht="14.25" customHeight="1">
+      <c r="A1149" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1149" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1150" ht="14.25" customHeight="1">
+      <c r="A1150" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1150" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1151" ht="14.25" customHeight="1">
+      <c r="A1151" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1151" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1152" ht="14.25" customHeight="1">
+      <c r="A1152" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1152" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1153" ht="14.25" customHeight="1">
+      <c r="A1153" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1153" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1154" ht="14.25" customHeight="1">
+      <c r="A1154" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1154" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1155" ht="14.25" customHeight="1">
+      <c r="A1155" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1155" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1156" ht="14.25" customHeight="1">
+      <c r="A1156" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1157" ht="14.25" customHeight="1">
+      <c r="A1157" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1157" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1158" ht="14.25" customHeight="1">
+      <c r="A1158" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1158" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1159" ht="14.25" customHeight="1">
+      <c r="A1159" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1159" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1160" ht="14.25" customHeight="1">
+      <c r="A1160" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1160" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1161" ht="14.25" customHeight="1">
+      <c r="A1161" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1162" ht="14.25" customHeight="1">
+      <c r="A1162" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1163" ht="14.25" customHeight="1">
+      <c r="A1163" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1164" ht="14.25" customHeight="1">
+      <c r="A1164" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1164" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1165" ht="14.25" customHeight="1">
+      <c r="A1165" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1165" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1166" ht="14.25" customHeight="1">
+      <c r="A1166" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1167" ht="14.25" customHeight="1">
+      <c r="A1167" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1167" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1168" ht="14.25" customHeight="1">
+      <c r="A1168" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1168" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1169" ht="14.25" customHeight="1">
+      <c r="A1169" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1170" ht="14.25" customHeight="1">
+      <c r="A1170" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="1171" ht="14.25" customHeight="1">
+      <c r="A1171" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="1172" ht="14.25" customHeight="1">
+      <c r="A1172" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="1173" ht="14.25" customHeight="1">
+      <c r="A1173" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="1174" ht="14.25" customHeight="1">
+      <c r="A1174" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="1175" ht="14.25" customHeight="1">
+      <c r="A1175" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="1176" ht="14.25" customHeight="1">
+      <c r="A1176" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="1177" ht="14.25" customHeight="1">
+      <c r="A1177" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1177" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1178" ht="14.25" customHeight="1">
+      <c r="A1178" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1178" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1179" ht="14.25" customHeight="1">
+      <c r="A1179" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1179" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1180" ht="14.25" customHeight="1">
+      <c r="A1180" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1180" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1181" ht="14.25" customHeight="1">
+      <c r="A1181" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1181" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1182" ht="14.25" customHeight="1">
+      <c r="A1182" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1182" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1183" ht="14.25" customHeight="1">
+      <c r="A1183" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1184" ht="14.25" customHeight="1">
+      <c r="A1184" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1184" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1185" ht="14.25" customHeight="1">
+      <c r="A1185" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1185" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1186" ht="14.25" customHeight="1">
+      <c r="A1186" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1187" ht="14.25" customHeight="1">
+      <c r="A1187" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1188" ht="14.25" customHeight="1">
+      <c r="A1188" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1188" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1189" ht="14.25" customHeight="1">
+      <c r="A1189" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1189" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1190" ht="14.25" customHeight="1">
+      <c r="A1190" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1191" ht="14.25" customHeight="1">
+      <c r="A1191" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1192" ht="14.25" customHeight="1">
+      <c r="A1192" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1192" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1193" ht="14.25" customHeight="1">
+      <c r="A1193" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1193" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1194" ht="14.25" customHeight="1">
+      <c r="A1194" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1194" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1195" ht="14.25" customHeight="1">
+      <c r="A1195" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1196" ht="14.25" customHeight="1">
+      <c r="A1196" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1197" ht="14.25" customHeight="1">
+      <c r="A1197" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1197" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1198" ht="14.25" customHeight="1">
+      <c r="A1198" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C1198" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1199" ht="14.25" customHeight="1">
+      <c r="A1199" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C1199" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1200" ht="14.25" customHeight="1">
+      <c r="A1200" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C1200" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1201" ht="14.25" customHeight="1">
+      <c r="A1201" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1202" ht="14.25" customHeight="1">
+      <c r="A1202" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C1202" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1203" ht="14.25" customHeight="1">
+      <c r="A1203" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1203" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1204" ht="14.25" customHeight="1">
+      <c r="A1204" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1204" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1205" ht="14.25" customHeight="1">
+      <c r="A1205" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1205" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1206" ht="14.25" customHeight="1">
+      <c r="A1206" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1206" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1207" ht="14.25" customHeight="1">
+      <c r="A1207" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1207" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1208" ht="14.25" customHeight="1">
+      <c r="A1208" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1208" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1209" ht="14.25" customHeight="1">
+      <c r="A1209" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1209" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1210" ht="14.25" customHeight="1">
+      <c r="A1210" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1210" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1211" ht="14.25" customHeight="1">
+      <c r="A1211" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1211" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1212" ht="14.25" customHeight="1">
+      <c r="A1212" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1212" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1213" ht="14.25" customHeight="1">
+      <c r="A1213" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1214" ht="14.25" customHeight="1">
+      <c r="A1214" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1214" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1215" ht="14.25" customHeight="1">
+      <c r="A1215" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1215" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1216" ht="14.25" customHeight="1">
+      <c r="A1216" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1216" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1217" ht="14.25" customHeight="1">
+      <c r="A1217" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1217" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1218" ht="14.25" customHeight="1">
+      <c r="A1218" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1218" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1219" ht="14.25" customHeight="1">
+      <c r="A1219" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1219" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1220" ht="14.25" customHeight="1">
+      <c r="A1220" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1220" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1221" ht="14.25" customHeight="1">
+      <c r="A1221" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1221" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1222" ht="14.25" customHeight="1">
+      <c r="A1222" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1222" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1223" ht="14.25" customHeight="1">
+      <c r="A1223" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1223" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1224" ht="14.25" customHeight="1">
+      <c r="A1224" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1224" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1225" ht="14.25" customHeight="1">
+      <c r="A1225" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1225" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1226" ht="14.25" customHeight="1">
+      <c r="A1226" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1226" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1227" ht="14.25" customHeight="1">
+      <c r="A1227" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1227" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1228" ht="14.25" customHeight="1">
+      <c r="A1228" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1228" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1229" ht="14.25" customHeight="1">
+      <c r="A1229" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1229" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1230" ht="14.25" customHeight="1">
+      <c r="A1230" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1230" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1231" ht="14.25" customHeight="1">
+      <c r="A1231" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1232" ht="14.25" customHeight="1">
+      <c r="A1232" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1232" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1233" ht="14.25" customHeight="1">
+      <c r="A1233" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1233" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1234" ht="14.25" customHeight="1">
+      <c r="A1234" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1234" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1235" ht="14.25" customHeight="1">
+      <c r="A1235" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1235" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1236" ht="14.25" customHeight="1">
+      <c r="A1236" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1236" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1237" ht="14.25" customHeight="1">
+      <c r="A1237" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1237" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1238" ht="14.25" customHeight="1">
+      <c r="A1238" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1239" ht="14.25" customHeight="1">
+      <c r="A1239" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1239" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1240" ht="14.25" customHeight="1">
+      <c r="A1240" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1240" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1241" ht="14.25" customHeight="1">
+      <c r="A1241" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1242" ht="14.25" customHeight="1">
+      <c r="A1242" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1242" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1243" ht="14.25" customHeight="1">
+      <c r="A1243" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1243" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1244" ht="14.25" customHeight="1">
+      <c r="A1244" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1244" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1245" ht="14.25" customHeight="1">
+      <c r="A1245" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1245" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1246" ht="14.25" customHeight="1">
+      <c r="A1246" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1247" ht="14.25" customHeight="1">
+      <c r="A1247" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1247" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1248" ht="14.25" customHeight="1">
+      <c r="A1248" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1248" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1249" ht="14.25" customHeight="1">
+      <c r="A1249" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1250" ht="14.25" customHeight="1">
+      <c r="A1250" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1250" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1251" ht="14.25" customHeight="1">
+      <c r="A1251" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1252" ht="14.25" customHeight="1">
+      <c r="A1252" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1252" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1253" ht="14.25" customHeight="1">
+      <c r="A1253" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1254" ht="14.25" customHeight="1">
+      <c r="A1254" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1255" ht="14.25" customHeight="1">
+      <c r="A1255" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1255" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1256" ht="14.25" customHeight="1">
+      <c r="A1256" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1257" ht="14.25" customHeight="1">
+      <c r="A1257" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1257" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1258" ht="14.25" customHeight="1">
+      <c r="A1258" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1259" ht="14.25" customHeight="1">
+      <c r="A1259" s="2">
+        <v>293.0</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1260" ht="14.25" customHeight="1">
+      <c r="A1260" s="2">
+        <v>294.0</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1261" ht="14.25" customHeight="1">
+      <c r="A1261" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1262" ht="14.25" customHeight="1">
+      <c r="A1262" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1263" ht="14.25" customHeight="1">
+      <c r="A1263" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1264" ht="14.25" customHeight="1">
+      <c r="A1264" s="2">
+        <v>296.0</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1265" ht="14.25" customHeight="1">
+      <c r="A1265" s="2">
+        <v>297.0</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1266" ht="14.25" customHeight="1">
+      <c r="A1266" s="2">
+        <v>298.0</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1267" ht="14.25" customHeight="1">
+      <c r="A1267" s="2">
+        <v>299.0</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1268" ht="14.25" customHeight="1">
+      <c r="A1268" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1269" ht="14.25" customHeight="1">
+      <c r="A1269" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1270" ht="14.25" customHeight="1">
+      <c r="A1270" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1271" ht="14.25" customHeight="1">
+      <c r="A1271" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1272" ht="14.25" customHeight="1">
+      <c r="A1272" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1273" ht="14.25" customHeight="1">
+      <c r="A1273" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C1273" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1274" ht="14.25" customHeight="1">
+      <c r="A1274" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B1274" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="1275" ht="14.25" customHeight="1"/>
     <row r="1276" ht="14.25" customHeight="1"/>
     <row r="1277" ht="14.25" customHeight="1"/>
@@ -12426,6 +14132,12 @@
     <row r="1393" ht="14.25" customHeight="1"/>
     <row r="1394" ht="14.25" customHeight="1"/>
     <row r="1395" ht="14.25" customHeight="1"/>
+    <row r="1396" ht="14.25" customHeight="1"/>
+    <row r="1397" ht="14.25" customHeight="1"/>
+    <row r="1398" ht="14.25" customHeight="1"/>
+    <row r="1399" ht="14.25" customHeight="1"/>
+    <row r="1400" ht="14.25" customHeight="1"/>
+    <row r="1401" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/data/Stock.xlsx
+++ b/data/Stock.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhqESf94IyUVYvzdaJAQkUu4LMT1g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjvA3SaZyASChOHCv6nRwD7ZJLnSw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -6251,7 +6251,7 @@
         <v>117.0</v>
       </c>
       <c r="B546" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C546" s="2">
         <v>1.0</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="2">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="B547" s="2">
         <v>3.0</v>
@@ -6273,32 +6273,32 @@
         <v>118.0</v>
       </c>
       <c r="B548" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C548" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="A549" s="2">
-        <v>118.0</v>
-      </c>
-      <c r="B549" s="2">
+      <c r="A549" s="3">
+        <v>119.0</v>
+      </c>
+      <c r="B549" s="3">
         <v>5.0</v>
       </c>
-      <c r="C549" s="2">
+      <c r="C549" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="A550" s="3">
-        <v>119.0</v>
-      </c>
-      <c r="B550" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C550" s="3">
-        <v>1.0</v>
+      <c r="A550" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="B550" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C550" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="551" ht="14.25" customHeight="1">
@@ -6306,10 +6306,10 @@
         <v>120.0</v>
       </c>
       <c r="B551" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C551" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="552" ht="14.25" customHeight="1">
@@ -6317,10 +6317,10 @@
         <v>120.0</v>
       </c>
       <c r="B552" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C552" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="553" ht="14.25" customHeight="1">
@@ -6328,10 +6328,10 @@
         <v>120.0</v>
       </c>
       <c r="B553" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C553" s="2">
         <v>3.0</v>
-      </c>
-      <c r="C553" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="554" ht="14.25" customHeight="1">
@@ -6339,10 +6339,10 @@
         <v>120.0</v>
       </c>
       <c r="B554" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C554" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="555" ht="14.25" customHeight="1">
@@ -6350,7 +6350,7 @@
         <v>120.0</v>
       </c>
       <c r="B555" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C555" s="2">
         <v>1.0</v>
@@ -6358,10 +6358,10 @@
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="2">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="B556" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C556" s="2">
         <v>1.0</v>
@@ -6372,10 +6372,10 @@
         <v>121.0</v>
       </c>
       <c r="B557" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C557" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558" ht="14.25" customHeight="1">
@@ -6383,10 +6383,10 @@
         <v>121.0</v>
       </c>
       <c r="B558" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C558" s="2">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="559" ht="14.25" customHeight="1">
@@ -6394,10 +6394,10 @@
         <v>121.0</v>
       </c>
       <c r="B559" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C559" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="560" ht="14.25" customHeight="1">
@@ -6405,10 +6405,10 @@
         <v>121.0</v>
       </c>
       <c r="B560" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C560" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561" ht="14.25" customHeight="1">
@@ -6416,7 +6416,7 @@
         <v>121.0</v>
       </c>
       <c r="B561" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C561" s="2">
         <v>0.0</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="2">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="B562" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C562" s="2">
         <v>0.0</v>
@@ -6438,7 +6438,7 @@
         <v>122.0</v>
       </c>
       <c r="B563" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C563" s="2">
         <v>0.0</v>
@@ -6449,10 +6449,10 @@
         <v>122.0</v>
       </c>
       <c r="B564" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C564" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="565" ht="14.25" customHeight="1">
@@ -6460,10 +6460,10 @@
         <v>122.0</v>
       </c>
       <c r="B565" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C565" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="566" ht="14.25" customHeight="1">
@@ -6471,7 +6471,7 @@
         <v>122.0</v>
       </c>
       <c r="B566" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C566" s="2">
         <v>0.0</v>
@@ -6482,21 +6482,21 @@
         <v>122.0</v>
       </c>
       <c r="B567" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C567" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="2">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="B568" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C568" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569" ht="14.25" customHeight="1">
@@ -6504,7 +6504,7 @@
         <v>123.0</v>
       </c>
       <c r="B569" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C569" s="2">
         <v>0.0</v>
@@ -6515,7 +6515,7 @@
         <v>123.0</v>
       </c>
       <c r="B570" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C570" s="2">
         <v>0.0</v>
@@ -6526,10 +6526,10 @@
         <v>123.0</v>
       </c>
       <c r="B571" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C571" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="572" ht="14.25" customHeight="1">
@@ -6537,10 +6537,10 @@
         <v>123.0</v>
       </c>
       <c r="B572" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C572" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573" ht="14.25" customHeight="1">
@@ -6548,7 +6548,7 @@
         <v>123.0</v>
       </c>
       <c r="B573" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C573" s="2">
         <v>0.0</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="2">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="B574" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C574" s="2">
         <v>0.0</v>
@@ -6570,10 +6570,10 @@
         <v>124.0</v>
       </c>
       <c r="B575" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C575" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="576" ht="14.25" customHeight="1">
@@ -6581,10 +6581,10 @@
         <v>124.0</v>
       </c>
       <c r="B576" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C576" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577" ht="14.25" customHeight="1">
@@ -6592,10 +6592,10 @@
         <v>124.0</v>
       </c>
       <c r="B577" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C577" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="578" ht="14.25" customHeight="1">
@@ -6603,10 +6603,10 @@
         <v>124.0</v>
       </c>
       <c r="B578" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C578" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="579" ht="14.25" customHeight="1">
@@ -6614,7 +6614,7 @@
         <v>124.0</v>
       </c>
       <c r="B579" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C579" s="2">
         <v>0.0</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="2">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="B580" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C580" s="2">
         <v>0.0</v>
@@ -6636,7 +6636,7 @@
         <v>125.0</v>
       </c>
       <c r="B581" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C581" s="2">
         <v>0.0</v>
@@ -6647,10 +6647,10 @@
         <v>125.0</v>
       </c>
       <c r="B582" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C582" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="583" ht="14.25" customHeight="1">
@@ -6658,10 +6658,10 @@
         <v>125.0</v>
       </c>
       <c r="B583" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C583" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="584" ht="14.25" customHeight="1">
@@ -6669,10 +6669,10 @@
         <v>125.0</v>
       </c>
       <c r="B584" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C584" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="585" ht="14.25" customHeight="1">
@@ -6680,18 +6680,18 @@
         <v>125.0</v>
       </c>
       <c r="B585" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C585" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="2">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="B586" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C586" s="2">
         <v>0.0</v>
@@ -6702,7 +6702,7 @@
         <v>126.0</v>
       </c>
       <c r="B587" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C587" s="2">
         <v>0.0</v>
@@ -6713,7 +6713,7 @@
         <v>126.0</v>
       </c>
       <c r="B588" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C588" s="2">
         <v>0.0</v>
@@ -6724,10 +6724,10 @@
         <v>126.0</v>
       </c>
       <c r="B589" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C589" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="590" ht="14.25" customHeight="1">
@@ -6735,7 +6735,7 @@
         <v>126.0</v>
       </c>
       <c r="B590" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C590" s="2">
         <v>1.0</v>
@@ -6746,7 +6746,7 @@
         <v>126.0</v>
       </c>
       <c r="B591" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C591" s="2">
         <v>1.0</v>
@@ -6754,13 +6754,13 @@
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="2">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="B592" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C592" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="593" ht="14.25" customHeight="1">
@@ -6768,7 +6768,7 @@
         <v>127.0</v>
       </c>
       <c r="B593" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C593" s="2">
         <v>0.0</v>
@@ -6779,10 +6779,10 @@
         <v>127.0</v>
       </c>
       <c r="B594" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C594" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="595" ht="14.25" customHeight="1">
@@ -6790,7 +6790,7 @@
         <v>127.0</v>
       </c>
       <c r="B595" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C595" s="2">
         <v>1.0</v>
@@ -6801,10 +6801,10 @@
         <v>127.0</v>
       </c>
       <c r="B596" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C596" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="597" ht="14.25" customHeight="1">
@@ -6812,21 +6812,21 @@
         <v>127.0</v>
       </c>
       <c r="B597" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C597" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="2">
-        <v>127.0</v>
+        <v>129.0</v>
       </c>
       <c r="B598" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C598" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="599" ht="14.25" customHeight="1">
@@ -6834,10 +6834,10 @@
         <v>129.0</v>
       </c>
       <c r="B599" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C599" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="600" ht="14.25" customHeight="1">
@@ -6845,7 +6845,7 @@
         <v>129.0</v>
       </c>
       <c r="B600" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C600" s="2">
         <v>3.0</v>
@@ -6856,10 +6856,10 @@
         <v>129.0</v>
       </c>
       <c r="B601" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C601" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="602" ht="14.25" customHeight="1">
@@ -6867,10 +6867,10 @@
         <v>129.0</v>
       </c>
       <c r="B602" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C602" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="603" ht="14.25" customHeight="1">
@@ -6878,18 +6878,18 @@
         <v>129.0</v>
       </c>
       <c r="B603" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C603" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="2">
-        <v>129.0</v>
+        <v>128.0</v>
       </c>
       <c r="B604" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C604" s="2">
         <v>0.0</v>
@@ -6900,7 +6900,7 @@
         <v>128.0</v>
       </c>
       <c r="B605" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C605" s="2">
         <v>0.0</v>
@@ -6911,10 +6911,10 @@
         <v>128.0</v>
       </c>
       <c r="B606" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C606" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="607" ht="14.25" customHeight="1">
@@ -6922,10 +6922,10 @@
         <v>128.0</v>
       </c>
       <c r="B607" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C607" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="608" ht="14.25" customHeight="1">
@@ -6933,7 +6933,7 @@
         <v>128.0</v>
       </c>
       <c r="B608" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C608" s="2">
         <v>0.0</v>
@@ -6944,7 +6944,7 @@
         <v>128.0</v>
       </c>
       <c r="B609" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C609" s="2">
         <v>0.0</v>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="2">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="B610" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C610" s="2">
         <v>0.0</v>
@@ -6966,7 +6966,7 @@
         <v>130.0</v>
       </c>
       <c r="B611" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C611" s="2">
         <v>0.0</v>
@@ -6977,10 +6977,10 @@
         <v>130.0</v>
       </c>
       <c r="B612" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C612" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="613" ht="14.25" customHeight="1">
@@ -6988,10 +6988,10 @@
         <v>130.0</v>
       </c>
       <c r="B613" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C613" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="614" ht="14.25" customHeight="1">
@@ -6999,7 +6999,7 @@
         <v>130.0</v>
       </c>
       <c r="B614" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C614" s="2">
         <v>0.0</v>
@@ -7010,7 +7010,7 @@
         <v>130.0</v>
       </c>
       <c r="B615" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C615" s="2">
         <v>0.0</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="2">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="B616" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C616" s="2">
         <v>0.0</v>
@@ -7032,7 +7032,7 @@
         <v>131.0</v>
       </c>
       <c r="B617" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C617" s="2">
         <v>0.0</v>
@@ -7043,10 +7043,10 @@
         <v>131.0</v>
       </c>
       <c r="B618" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C618" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="619" ht="14.25" customHeight="1">
@@ -7054,10 +7054,10 @@
         <v>131.0</v>
       </c>
       <c r="B619" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C619" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="620" ht="14.25" customHeight="1">
@@ -7065,7 +7065,7 @@
         <v>131.0</v>
       </c>
       <c r="B620" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C620" s="2">
         <v>0.0</v>
@@ -7076,7 +7076,7 @@
         <v>131.0</v>
       </c>
       <c r="B621" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C621" s="2">
         <v>0.0</v>
@@ -7084,10 +7084,10 @@
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="2">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="B622" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C622" s="2">
         <v>0.0</v>
@@ -7098,7 +7098,7 @@
         <v>132.0</v>
       </c>
       <c r="B623" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C623" s="2">
         <v>0.0</v>
@@ -7109,10 +7109,10 @@
         <v>132.0</v>
       </c>
       <c r="B624" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C624" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="625" ht="14.25" customHeight="1">
@@ -7120,10 +7120,10 @@
         <v>132.0</v>
       </c>
       <c r="B625" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C625" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="626" ht="14.25" customHeight="1">
@@ -7131,31 +7131,31 @@
         <v>132.0</v>
       </c>
       <c r="B626" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C626" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="A627" s="2">
+      <c r="A627" s="5">
         <v>132.0</v>
       </c>
-      <c r="B627" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C627" s="2">
+      <c r="B627" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C627" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="A628" s="5">
-        <v>132.0</v>
-      </c>
-      <c r="B628" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="C628" s="5">
+      <c r="A628" s="2">
+        <v>133.0</v>
+      </c>
+      <c r="B628" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C628" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -7164,10 +7164,10 @@
         <v>133.0</v>
       </c>
       <c r="B629" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C629" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="630" ht="14.25" customHeight="1">
@@ -7175,10 +7175,10 @@
         <v>133.0</v>
       </c>
       <c r="B630" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C630" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="631" ht="14.25" customHeight="1">
@@ -7186,10 +7186,10 @@
         <v>133.0</v>
       </c>
       <c r="B631" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C631" s="2">
         <v>3.0</v>
-      </c>
-      <c r="C631" s="2">
-        <v>0.0</v>
       </c>
     </row>
     <row r="632" ht="14.25" customHeight="1">
@@ -7197,7 +7197,7 @@
         <v>133.0</v>
       </c>
       <c r="B632" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C632" s="2">
         <v>3.0</v>
@@ -7208,18 +7208,18 @@
         <v>133.0</v>
       </c>
       <c r="B633" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C633" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="2">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="B634" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C634" s="2">
         <v>0.0</v>
@@ -7230,10 +7230,10 @@
         <v>134.0</v>
       </c>
       <c r="B635" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C635" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="636" ht="14.25" customHeight="1">
@@ -7241,10 +7241,10 @@
         <v>134.0</v>
       </c>
       <c r="B636" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C636" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="637" ht="14.25" customHeight="1">
@@ -7252,7 +7252,7 @@
         <v>134.0</v>
       </c>
       <c r="B637" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C637" s="2">
         <v>0.0</v>
@@ -7263,7 +7263,7 @@
         <v>134.0</v>
       </c>
       <c r="B638" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C638" s="2">
         <v>0.0</v>
@@ -7274,7 +7274,7 @@
         <v>134.0</v>
       </c>
       <c r="B639" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C639" s="2">
         <v>0.0</v>
@@ -7282,13 +7282,13 @@
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="2">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="B640" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C640" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="641" ht="14.25" customHeight="1">
@@ -7296,10 +7296,10 @@
         <v>135.0</v>
       </c>
       <c r="B641" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C641" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="642" ht="14.25" customHeight="1">
@@ -7307,7 +7307,7 @@
         <v>135.0</v>
       </c>
       <c r="B642" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C642" s="2">
         <v>0.0</v>
@@ -7318,7 +7318,7 @@
         <v>135.0</v>
       </c>
       <c r="B643" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C643" s="2">
         <v>0.0</v>
@@ -7329,7 +7329,7 @@
         <v>135.0</v>
       </c>
       <c r="B644" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C644" s="2">
         <v>0.0</v>
@@ -7340,7 +7340,7 @@
         <v>135.0</v>
       </c>
       <c r="B645" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C645" s="2">
         <v>0.0</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="A646" s="2">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="B646" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C646" s="2">
         <v>0.0</v>
@@ -7362,10 +7362,10 @@
         <v>136.0</v>
       </c>
       <c r="B647" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C647" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="648" ht="14.25" customHeight="1">
@@ -7373,10 +7373,10 @@
         <v>136.0</v>
       </c>
       <c r="B648" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C648" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="649" ht="14.25" customHeight="1">
@@ -7384,10 +7384,10 @@
         <v>136.0</v>
       </c>
       <c r="B649" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C649" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="650" ht="14.25" customHeight="1">
@@ -7395,7 +7395,7 @@
         <v>136.0</v>
       </c>
       <c r="B650" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C650" s="2">
         <v>0.0</v>
@@ -7406,7 +7406,7 @@
         <v>136.0</v>
       </c>
       <c r="B651" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C651" s="2">
         <v>0.0</v>
@@ -7414,10 +7414,10 @@
     </row>
     <row r="652" ht="14.25" customHeight="1">
       <c r="A652" s="2">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="B652" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C652" s="2">
         <v>0.0</v>
@@ -7428,10 +7428,10 @@
         <v>137.0</v>
       </c>
       <c r="B653" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C653" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="654" ht="14.25" customHeight="1">
@@ -7439,10 +7439,10 @@
         <v>137.0</v>
       </c>
       <c r="B654" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C654" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="655" ht="14.25" customHeight="1">
@@ -7450,7 +7450,7 @@
         <v>137.0</v>
       </c>
       <c r="B655" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C655" s="2">
         <v>0.0</v>
@@ -7461,7 +7461,7 @@
         <v>137.0</v>
       </c>
       <c r="B656" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C656" s="2">
         <v>0.0</v>
@@ -7472,7 +7472,7 @@
         <v>137.0</v>
       </c>
       <c r="B657" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C657" s="2">
         <v>0.0</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="658" ht="14.25" customHeight="1">
       <c r="A658" s="2">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="B658" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C658" s="2">
         <v>0.0</v>
@@ -7494,10 +7494,10 @@
         <v>138.0</v>
       </c>
       <c r="B659" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C659" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="660" ht="14.25" customHeight="1">
@@ -7505,10 +7505,10 @@
         <v>138.0</v>
       </c>
       <c r="B660" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C660" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="661" ht="14.25" customHeight="1">
@@ -7516,10 +7516,10 @@
         <v>138.0</v>
       </c>
       <c r="B661" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C661" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="662" ht="14.25" customHeight="1">
@@ -7527,10 +7527,10 @@
         <v>138.0</v>
       </c>
       <c r="B662" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C662" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="663" ht="14.25" customHeight="1">
@@ -7538,18 +7538,18 @@
         <v>138.0</v>
       </c>
       <c r="B663" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C663" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="664" ht="14.25" customHeight="1">
       <c r="A664" s="2">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="B664" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C664" s="2">
         <v>0.0</v>
@@ -7560,10 +7560,10 @@
         <v>139.0</v>
       </c>
       <c r="B665" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C665" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="666" ht="14.25" customHeight="1">
@@ -7571,10 +7571,10 @@
         <v>139.0</v>
       </c>
       <c r="B666" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C666" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="667" ht="14.25" customHeight="1">
@@ -7582,7 +7582,7 @@
         <v>139.0</v>
       </c>
       <c r="B667" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C667" s="2">
         <v>0.0</v>
@@ -7593,10 +7593,10 @@
         <v>139.0</v>
       </c>
       <c r="B668" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C668" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="669" ht="14.25" customHeight="1">
@@ -7604,18 +7604,18 @@
         <v>139.0</v>
       </c>
       <c r="B669" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C669" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="670" ht="14.25" customHeight="1">
       <c r="A670" s="2">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="B670" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C670" s="2">
         <v>0.0</v>
@@ -7626,10 +7626,10 @@
         <v>140.0</v>
       </c>
       <c r="B671" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C671" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="672" ht="14.25" customHeight="1">
@@ -7637,10 +7637,10 @@
         <v>140.0</v>
       </c>
       <c r="B672" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C672" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="673" ht="14.25" customHeight="1">
@@ -7648,10 +7648,10 @@
         <v>140.0</v>
       </c>
       <c r="B673" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C673" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="674" ht="14.25" customHeight="1">
@@ -7659,7 +7659,7 @@
         <v>140.0</v>
       </c>
       <c r="B674" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C674" s="2">
         <v>1.0</v>
@@ -7670,21 +7670,21 @@
         <v>140.0</v>
       </c>
       <c r="B675" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C675" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="676" ht="14.25" customHeight="1">
       <c r="A676" s="2">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="B676" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C676" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="677" ht="14.25" customHeight="1">
@@ -7692,7 +7692,7 @@
         <v>141.0</v>
       </c>
       <c r="B677" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C677" s="2">
         <v>0.0</v>
@@ -7703,10 +7703,10 @@
         <v>141.0</v>
       </c>
       <c r="B678" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C678" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="679" ht="14.25" customHeight="1">
@@ -7714,7 +7714,7 @@
         <v>141.0</v>
       </c>
       <c r="B679" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C679" s="2">
         <v>1.0</v>
@@ -7725,10 +7725,10 @@
         <v>141.0</v>
       </c>
       <c r="B680" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C680" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="681" ht="14.25" customHeight="1">
@@ -7736,18 +7736,18 @@
         <v>141.0</v>
       </c>
       <c r="B681" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C681" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="682" ht="14.25" customHeight="1">
       <c r="A682" s="2">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="B682" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C682" s="2">
         <v>1.0</v>
@@ -7758,10 +7758,10 @@
         <v>142.0</v>
       </c>
       <c r="B683" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C683" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="684" ht="14.25" customHeight="1">
@@ -7769,10 +7769,10 @@
         <v>142.0</v>
       </c>
       <c r="B684" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C684" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="685" ht="14.25" customHeight="1">
@@ -7780,10 +7780,10 @@
         <v>142.0</v>
       </c>
       <c r="B685" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C685" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="686" ht="14.25" customHeight="1">
@@ -7791,10 +7791,10 @@
         <v>142.0</v>
       </c>
       <c r="B686" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C686" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="687" ht="14.25" customHeight="1">
@@ -7802,18 +7802,18 @@
         <v>142.0</v>
       </c>
       <c r="B687" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C687" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="688" ht="14.25" customHeight="1">
       <c r="A688" s="2">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="B688" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C688" s="2">
         <v>2.0</v>
@@ -7824,10 +7824,10 @@
         <v>143.0</v>
       </c>
       <c r="B689" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C689" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="690" ht="14.25" customHeight="1">
@@ -7835,10 +7835,10 @@
         <v>143.0</v>
       </c>
       <c r="B690" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C690" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="691" ht="14.25" customHeight="1">
@@ -7846,10 +7846,10 @@
         <v>143.0</v>
       </c>
       <c r="B691" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C691" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="692" ht="14.25" customHeight="1">
@@ -7857,7 +7857,7 @@
         <v>143.0</v>
       </c>
       <c r="B692" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C692" s="2">
         <v>0.0</v>
@@ -7868,7 +7868,7 @@
         <v>143.0</v>
       </c>
       <c r="B693" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C693" s="2">
         <v>0.0</v>
@@ -7876,10 +7876,10 @@
     </row>
     <row r="694" ht="14.25" customHeight="1">
       <c r="A694" s="2">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="B694" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C694" s="2">
         <v>0.0</v>
@@ -7890,7 +7890,7 @@
         <v>144.0</v>
       </c>
       <c r="B695" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C695" s="2">
         <v>0.0</v>
@@ -7901,10 +7901,10 @@
         <v>144.0</v>
       </c>
       <c r="B696" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C696" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="697" ht="14.25" customHeight="1">
@@ -7912,7 +7912,7 @@
         <v>144.0</v>
       </c>
       <c r="B697" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C697" s="2">
         <v>1.0</v>
@@ -7923,7 +7923,7 @@
         <v>144.0</v>
       </c>
       <c r="B698" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C698" s="2">
         <v>1.0</v>
@@ -7934,7 +7934,7 @@
         <v>144.0</v>
       </c>
       <c r="B699" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C699" s="2">
         <v>1.0</v>
@@ -7942,13 +7942,13 @@
     </row>
     <row r="700" ht="14.25" customHeight="1">
       <c r="A700" s="2">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="B700" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C700" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="701" ht="14.25" customHeight="1">
@@ -7956,7 +7956,7 @@
         <v>145.0</v>
       </c>
       <c r="B701" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C701" s="2">
         <v>0.0</v>
@@ -7967,7 +7967,7 @@
         <v>145.0</v>
       </c>
       <c r="B702" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C702" s="2">
         <v>0.0</v>
@@ -7978,10 +7978,10 @@
         <v>145.0</v>
       </c>
       <c r="B703" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C703" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="704" ht="14.25" customHeight="1">
@@ -7989,112 +7989,112 @@
         <v>145.0</v>
       </c>
       <c r="B704" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C704" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="A705" s="2">
+      <c r="A705" s="3">
         <v>145.0</v>
       </c>
-      <c r="B705" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C705" s="2">
+      <c r="B705" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C705" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="A706" s="3">
-        <v>145.0</v>
-      </c>
-      <c r="B706" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C706" s="3">
-        <v>0.0</v>
+      <c r="A706" s="2">
+        <v>146.0</v>
+      </c>
+      <c r="C706" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="707" ht="14.25" customHeight="1">
       <c r="A707" s="2">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="C707" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="708" ht="14.25" customHeight="1">
       <c r="A708" s="2">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="C708" s="2">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="709" ht="14.25" customHeight="1">
       <c r="A709" s="2">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="C709" s="2">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="710" ht="14.25" customHeight="1">
       <c r="A710" s="2">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="C710" s="2">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="711" ht="14.25" customHeight="1">
       <c r="A711" s="2">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="C711" s="2">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="712" ht="14.25" customHeight="1">
       <c r="A712" s="2">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="C712" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="713" ht="14.25" customHeight="1">
       <c r="A713" s="2">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="C713" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="714" ht="14.25" customHeight="1">
       <c r="A714" s="2">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="C714" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="715" ht="14.25" customHeight="1">
       <c r="A715" s="2">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="C715" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="716" ht="14.25" customHeight="1">
       <c r="A716" s="2">
-        <v>155.0</v>
+        <v>156.0</v>
+      </c>
+      <c r="B716" s="2">
+        <v>10.0</v>
       </c>
       <c r="C716" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="717" ht="14.25" customHeight="1">
@@ -8102,7 +8102,7 @@
         <v>156.0</v>
       </c>
       <c r="B717" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C717" s="2">
         <v>0.0</v>
@@ -8113,10 +8113,10 @@
         <v>156.0</v>
       </c>
       <c r="B718" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C718" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="719" ht="14.25" customHeight="1">
@@ -8124,7 +8124,7 @@
         <v>156.0</v>
       </c>
       <c r="B719" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C719" s="2">
         <v>1.0</v>
@@ -8135,7 +8135,7 @@
         <v>156.0</v>
       </c>
       <c r="B720" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C720" s="2">
         <v>1.0</v>
@@ -8146,21 +8146,21 @@
         <v>156.0</v>
       </c>
       <c r="B721" s="2">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C721" s="2">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="722" ht="14.25" customHeight="1">
       <c r="A722" s="2">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="B722" s="2">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="C722" s="2">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="723" ht="14.25" customHeight="1">
@@ -8168,7 +8168,7 @@
         <v>157.0</v>
       </c>
       <c r="B723" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C723" s="2">
         <v>0.0</v>
@@ -8179,7 +8179,7 @@
         <v>157.0</v>
       </c>
       <c r="B724" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C724" s="2">
         <v>0.0</v>
@@ -8190,10 +8190,10 @@
         <v>157.0</v>
       </c>
       <c r="B725" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C725" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="726" ht="14.25" customHeight="1">
@@ -8201,7 +8201,7 @@
         <v>157.0</v>
       </c>
       <c r="B726" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C726" s="2">
         <v>1.0</v>
@@ -8212,7 +8212,7 @@
         <v>157.0</v>
       </c>
       <c r="B727" s="2">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C727" s="2">
         <v>1.0</v>
@@ -8223,10 +8223,10 @@
         <v>157.0</v>
       </c>
       <c r="B728" s="2">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C728" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="729" ht="14.25" customHeight="1">
@@ -8234,18 +8234,18 @@
         <v>157.0</v>
       </c>
       <c r="B729" s="2">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C729" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="730" ht="14.25" customHeight="1">
       <c r="A730" s="2">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="B730" s="2">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C730" s="2">
         <v>1.0</v>
@@ -8256,10 +8256,10 @@
         <v>158.0</v>
       </c>
       <c r="B731" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C731" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="732" ht="14.25" customHeight="1">
@@ -8267,10 +8267,10 @@
         <v>158.0</v>
       </c>
       <c r="B732" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C732" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="733" ht="14.25" customHeight="1">
@@ -8278,7 +8278,7 @@
         <v>158.0</v>
       </c>
       <c r="B733" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C733" s="2">
         <v>0.0</v>
@@ -8289,7 +8289,7 @@
         <v>158.0</v>
       </c>
       <c r="B734" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C734" s="2">
         <v>0.0</v>
@@ -8300,10 +8300,10 @@
         <v>158.0</v>
       </c>
       <c r="B735" s="2">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C735" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="736" ht="14.25" customHeight="1">
@@ -8311,7 +8311,7 @@
         <v>158.0</v>
       </c>
       <c r="B736" s="2">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C736" s="2">
         <v>1.0</v>
@@ -8322,21 +8322,21 @@
         <v>158.0</v>
       </c>
       <c r="B737" s="2">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C737" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="738" ht="14.25" customHeight="1">
       <c r="A738" s="2">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="B738" s="2">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C738" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="739" ht="14.25" customHeight="1">
@@ -8344,10 +8344,10 @@
         <v>159.0</v>
       </c>
       <c r="B739" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C739" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="740" ht="14.25" customHeight="1">
@@ -8355,10 +8355,10 @@
         <v>159.0</v>
       </c>
       <c r="B740" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C740" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="741" ht="14.25" customHeight="1">
@@ -8366,21 +8366,21 @@
         <v>159.0</v>
       </c>
       <c r="B741" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C741" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="742" ht="14.25" customHeight="1">
       <c r="A742" s="2">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="B742" s="2">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="C742" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="743" ht="14.25" customHeight="1">
@@ -8388,10 +8388,10 @@
         <v>160.0</v>
       </c>
       <c r="B743" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C743" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="744" ht="14.25" customHeight="1">
@@ -8399,7 +8399,7 @@
         <v>160.0</v>
       </c>
       <c r="B744" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C744" s="2">
         <v>0.0</v>
@@ -8410,7 +8410,7 @@
         <v>160.0</v>
       </c>
       <c r="B745" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C745" s="2">
         <v>0.0</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="746" ht="14.25" customHeight="1">
       <c r="A746" s="2">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="B746" s="2">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="C746" s="2">
         <v>0.0</v>
@@ -8432,7 +8432,7 @@
         <v>161.0</v>
       </c>
       <c r="B747" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C747" s="2">
         <v>0.0</v>
@@ -8443,10 +8443,10 @@
         <v>161.0</v>
       </c>
       <c r="B748" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C748" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="749" ht="14.25" customHeight="1">
@@ -8454,21 +8454,21 @@
         <v>161.0</v>
       </c>
       <c r="B749" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C749" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="750" ht="14.25" customHeight="1">
       <c r="A750" s="2">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="B750" s="2">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="C750" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="751" ht="14.25" customHeight="1">
@@ -8476,10 +8476,10 @@
         <v>162.0</v>
       </c>
       <c r="B751" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C751" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="752" ht="14.25" customHeight="1">
@@ -8487,7 +8487,7 @@
         <v>162.0</v>
       </c>
       <c r="B752" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C752" s="2">
         <v>0.0</v>
@@ -8498,7 +8498,7 @@
         <v>162.0</v>
       </c>
       <c r="B753" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C753" s="2">
         <v>0.0</v>
@@ -8506,13 +8506,13 @@
     </row>
     <row r="754" ht="14.25" customHeight="1">
       <c r="A754" s="2">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="B754" s="2">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="C754" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="755" ht="14.25" customHeight="1">
@@ -8520,7 +8520,7 @@
         <v>163.0</v>
       </c>
       <c r="B755" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C755" s="2">
         <v>1.0</v>
@@ -8531,7 +8531,7 @@
         <v>163.0</v>
       </c>
       <c r="B756" s="2">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C756" s="2">
         <v>1.0</v>
@@ -8542,7 +8542,7 @@
         <v>163.0</v>
       </c>
       <c r="B757" s="2">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C757" s="2">
         <v>1.0</v>
@@ -8550,10 +8550,7 @@
     </row>
     <row r="758" ht="14.25" customHeight="1">
       <c r="A758" s="2">
-        <v>163.0</v>
-      </c>
-      <c r="B758" s="2">
-        <v>20.0</v>
+        <v>164.0</v>
       </c>
       <c r="C758" s="2">
         <v>1.0</v>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="759" ht="14.25" customHeight="1">
       <c r="A759" s="2">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="C759" s="2">
         <v>1.0</v>
@@ -8569,51 +8566,54 @@
     </row>
     <row r="760" ht="14.25" customHeight="1">
       <c r="A760" s="2">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="C760" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="761" ht="14.25" customHeight="1">
       <c r="A761" s="2">
-        <v>166.0</v>
+        <v>167.0</v>
       </c>
       <c r="C761" s="2">
-        <v>2.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="762" ht="14.25" customHeight="1">
       <c r="A762" s="2">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="C762" s="2">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="763" ht="14.25" customHeight="1">
       <c r="A763" s="2">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="C763" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="A764" s="2">
-        <v>169.0</v>
-      </c>
-      <c r="C764" s="2">
-        <v>5.0</v>
+      <c r="A764" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="B764" s="4"/>
+      <c r="C764" s="3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="A765" s="3">
-        <v>170.0</v>
-      </c>
-      <c r="B765" s="4"/>
-      <c r="C765" s="3">
-        <v>7.0</v>
+      <c r="A765" s="2">
+        <v>171.0</v>
+      </c>
+      <c r="B765" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C765" s="2">
+        <v>9.0</v>
       </c>
     </row>
     <row r="766" ht="14.25" customHeight="1">
@@ -8621,10 +8621,10 @@
         <v>171.0</v>
       </c>
       <c r="B766" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C766" s="2">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="767" ht="14.25" customHeight="1">
@@ -8632,10 +8632,10 @@
         <v>171.0</v>
       </c>
       <c r="B767" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C767" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="768" ht="14.25" customHeight="1">
@@ -8643,10 +8643,10 @@
         <v>171.0</v>
       </c>
       <c r="B768" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C768" s="2">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="769" ht="14.25" customHeight="1">
@@ -8654,21 +8654,21 @@
         <v>171.0</v>
       </c>
       <c r="B769" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C769" s="2">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="770" ht="14.25" customHeight="1">
       <c r="A770" s="2">
-        <v>171.0</v>
+        <v>172.0</v>
       </c>
       <c r="B770" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C770" s="2">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="771" ht="14.25" customHeight="1">
@@ -8676,10 +8676,10 @@
         <v>172.0</v>
       </c>
       <c r="B771" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C771" s="2">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="772" ht="14.25" customHeight="1">
@@ -8687,10 +8687,10 @@
         <v>172.0</v>
       </c>
       <c r="B772" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C772" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="773" ht="14.25" customHeight="1">
@@ -8698,10 +8698,10 @@
         <v>172.0</v>
       </c>
       <c r="B773" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C773" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="774" ht="14.25" customHeight="1">
@@ -8709,21 +8709,21 @@
         <v>172.0</v>
       </c>
       <c r="B774" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C774" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="775" ht="14.25" customHeight="1">
       <c r="A775" s="2">
-        <v>172.0</v>
+        <v>173.0</v>
       </c>
       <c r="B775" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C775" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="776" ht="14.25" customHeight="1">
@@ -8731,10 +8731,10 @@
         <v>173.0</v>
       </c>
       <c r="B776" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C776" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="777" ht="14.25" customHeight="1">
@@ -8742,10 +8742,10 @@
         <v>173.0</v>
       </c>
       <c r="B777" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C777" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="778" ht="14.25" customHeight="1">
@@ -8753,7 +8753,7 @@
         <v>173.0</v>
       </c>
       <c r="B778" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C778" s="2">
         <v>1.0</v>
@@ -8764,7 +8764,7 @@
         <v>173.0</v>
       </c>
       <c r="B779" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C779" s="2">
         <v>1.0</v>
@@ -8772,13 +8772,13 @@
     </row>
     <row r="780" ht="14.25" customHeight="1">
       <c r="A780" s="2">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="B780" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C780" s="2">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="781" ht="14.25" customHeight="1">
@@ -8786,10 +8786,10 @@
         <v>174.0</v>
       </c>
       <c r="B781" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C781" s="2">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="782" ht="14.25" customHeight="1">
@@ -8797,10 +8797,10 @@
         <v>174.0</v>
       </c>
       <c r="B782" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C782" s="2">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="783" ht="14.25" customHeight="1">
@@ -8808,10 +8808,10 @@
         <v>174.0</v>
       </c>
       <c r="B783" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C783" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="784" ht="14.25" customHeight="1">
@@ -8819,21 +8819,21 @@
         <v>174.0</v>
       </c>
       <c r="B784" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C784" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="785" ht="14.25" customHeight="1">
       <c r="A785" s="2">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="B785" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C785" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="786" ht="14.25" customHeight="1">
@@ -8841,10 +8841,10 @@
         <v>175.0</v>
       </c>
       <c r="B786" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C786" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="787" ht="14.25" customHeight="1">
@@ -8852,10 +8852,10 @@
         <v>175.0</v>
       </c>
       <c r="B787" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C787" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="788" ht="14.25" customHeight="1">
@@ -8863,18 +8863,18 @@
         <v>175.0</v>
       </c>
       <c r="B788" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C788" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="789" ht="14.25" customHeight="1">
       <c r="A789" s="2">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="B789" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C789" s="2">
         <v>2.0</v>
@@ -8885,10 +8885,10 @@
         <v>176.0</v>
       </c>
       <c r="B790" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C790" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="791" ht="14.25" customHeight="1">
@@ -8896,10 +8896,10 @@
         <v>176.0</v>
       </c>
       <c r="B791" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C791" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="792" ht="14.25" customHeight="1">
@@ -8907,10 +8907,10 @@
         <v>176.0</v>
       </c>
       <c r="B792" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C792" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="793" ht="14.25" customHeight="1">
@@ -8918,21 +8918,21 @@
         <v>176.0</v>
       </c>
       <c r="B793" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C793" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="794" ht="14.25" customHeight="1">
       <c r="A794" s="2">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="B794" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C794" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="795" ht="14.25" customHeight="1">
@@ -8940,10 +8940,10 @@
         <v>177.0</v>
       </c>
       <c r="B795" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C795" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="796" ht="14.25" customHeight="1">
@@ -8951,7 +8951,7 @@
         <v>177.0</v>
       </c>
       <c r="B796" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C796" s="2">
         <v>0.0</v>
@@ -8962,7 +8962,7 @@
         <v>177.0</v>
       </c>
       <c r="B797" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C797" s="2">
         <v>0.0</v>
@@ -8973,7 +8973,7 @@
         <v>177.0</v>
       </c>
       <c r="B798" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C798" s="2">
         <v>0.0</v>
@@ -8981,10 +8981,10 @@
     </row>
     <row r="799" ht="14.25" customHeight="1">
       <c r="A799" s="2">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="B799" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C799" s="2">
         <v>0.0</v>
@@ -8995,10 +8995,10 @@
         <v>178.0</v>
       </c>
       <c r="B800" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C800" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="801" ht="14.25" customHeight="1">
@@ -9006,10 +9006,10 @@
         <v>178.0</v>
       </c>
       <c r="B801" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C801" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="802" ht="14.25" customHeight="1">
@@ -9017,7 +9017,7 @@
         <v>178.0</v>
       </c>
       <c r="B802" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C802" s="2">
         <v>0.0</v>
@@ -9028,7 +9028,7 @@
         <v>178.0</v>
       </c>
       <c r="B803" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C803" s="2">
         <v>0.0</v>
@@ -9036,13 +9036,13 @@
     </row>
     <row r="804" ht="14.25" customHeight="1">
       <c r="A804" s="2">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="B804" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C804" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="805" ht="14.25" customHeight="1">
@@ -9050,10 +9050,10 @@
         <v>179.0</v>
       </c>
       <c r="B805" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C805" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="806" ht="14.25" customHeight="1">
@@ -9061,7 +9061,7 @@
         <v>179.0</v>
       </c>
       <c r="B806" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C806" s="2">
         <v>2.0</v>
@@ -9072,32 +9072,32 @@
         <v>179.0</v>
       </c>
       <c r="B807" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C807" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="808" ht="14.25" customHeight="1">
+      <c r="A808" s="3">
+        <v>179.0</v>
+      </c>
+      <c r="B808" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C808" s="3">
         <v>3.0</v>
       </c>
-      <c r="C807" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="808" ht="14.25" customHeight="1">
-      <c r="A808" s="2">
-        <v>179.0</v>
-      </c>
-      <c r="B808" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C808" s="2">
-        <v>2.0</v>
-      </c>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="A809" s="3">
-        <v>179.0</v>
-      </c>
-      <c r="B809" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C809" s="3">
-        <v>3.0</v>
+      <c r="A809" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="B809" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C809" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="810" ht="14.25" customHeight="1">
@@ -9105,7 +9105,7 @@
         <v>180.0</v>
       </c>
       <c r="B810" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C810" s="2">
         <v>0.0</v>
@@ -9116,10 +9116,10 @@
         <v>180.0</v>
       </c>
       <c r="B811" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C811" s="2">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="812" ht="14.25" customHeight="1">
@@ -9127,10 +9127,10 @@
         <v>180.0</v>
       </c>
       <c r="B812" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C812" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="813" ht="14.25" customHeight="1">
@@ -9138,10 +9138,10 @@
         <v>180.0</v>
       </c>
       <c r="B813" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C813" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="814" ht="14.25" customHeight="1">
@@ -9149,10 +9149,10 @@
         <v>180.0</v>
       </c>
       <c r="B814" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C814" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="815" ht="14.25" customHeight="1">
@@ -9160,21 +9160,21 @@
         <v>180.0</v>
       </c>
       <c r="B815" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C815" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="816" ht="14.25" customHeight="1">
       <c r="A816" s="2">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="B816" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C816" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="817" ht="14.25" customHeight="1">
@@ -9182,10 +9182,10 @@
         <v>181.0</v>
       </c>
       <c r="B817" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C817" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="818" ht="14.25" customHeight="1">
@@ -9193,10 +9193,10 @@
         <v>181.0</v>
       </c>
       <c r="B818" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C818" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="819" ht="14.25" customHeight="1">
@@ -9204,7 +9204,7 @@
         <v>181.0</v>
       </c>
       <c r="B819" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C819" s="2">
         <v>2.0</v>
@@ -9215,10 +9215,10 @@
         <v>181.0</v>
       </c>
       <c r="B820" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C820" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="821" ht="14.25" customHeight="1">
@@ -9226,10 +9226,10 @@
         <v>181.0</v>
       </c>
       <c r="B821" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C821" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="822" ht="14.25" customHeight="1">
@@ -9237,7 +9237,7 @@
         <v>181.0</v>
       </c>
       <c r="B822" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C822" s="2">
         <v>3.0</v>
@@ -9245,13 +9245,13 @@
     </row>
     <row r="823" ht="14.25" customHeight="1">
       <c r="A823" s="2">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="B823" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C823" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="824" ht="14.25" customHeight="1">
@@ -9259,7 +9259,7 @@
         <v>182.0</v>
       </c>
       <c r="B824" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C824" s="2">
         <v>0.0</v>
@@ -9270,10 +9270,10 @@
         <v>182.0</v>
       </c>
       <c r="B825" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C825" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="826" ht="14.25" customHeight="1">
@@ -9281,10 +9281,10 @@
         <v>182.0</v>
       </c>
       <c r="B826" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C826" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="827" ht="14.25" customHeight="1">
@@ -9292,7 +9292,7 @@
         <v>182.0</v>
       </c>
       <c r="B827" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C827" s="2">
         <v>0.0</v>
@@ -9303,7 +9303,7 @@
         <v>182.0</v>
       </c>
       <c r="B828" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C828" s="2">
         <v>0.0</v>
@@ -9314,7 +9314,7 @@
         <v>182.0</v>
       </c>
       <c r="B829" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C829" s="2">
         <v>0.0</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="830" ht="14.25" customHeight="1">
       <c r="A830" s="2">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="B830" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C830" s="2">
         <v>0.0</v>
@@ -9336,7 +9336,7 @@
         <v>183.0</v>
       </c>
       <c r="B831" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C831" s="2">
         <v>0.0</v>
@@ -9347,10 +9347,10 @@
         <v>183.0</v>
       </c>
       <c r="B832" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C832" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="833" ht="14.25" customHeight="1">
@@ -9358,10 +9358,10 @@
         <v>183.0</v>
       </c>
       <c r="B833" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C833" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="834" ht="14.25" customHeight="1">
@@ -9369,7 +9369,7 @@
         <v>183.0</v>
       </c>
       <c r="B834" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C834" s="2">
         <v>0.0</v>
@@ -9380,7 +9380,7 @@
         <v>183.0</v>
       </c>
       <c r="B835" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C835" s="2">
         <v>0.0</v>
@@ -9391,7 +9391,7 @@
         <v>183.0</v>
       </c>
       <c r="B836" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C836" s="2">
         <v>0.0</v>
@@ -9399,10 +9399,10 @@
     </row>
     <row r="837" ht="14.25" customHeight="1">
       <c r="A837" s="2">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="B837" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C837" s="2">
         <v>0.0</v>
@@ -9413,7 +9413,7 @@
         <v>184.0</v>
       </c>
       <c r="B838" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C838" s="2">
         <v>0.0</v>
@@ -9424,7 +9424,7 @@
         <v>184.0</v>
       </c>
       <c r="B839" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C839" s="2">
         <v>0.0</v>
@@ -9435,7 +9435,7 @@
         <v>184.0</v>
       </c>
       <c r="B840" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C840" s="2">
         <v>0.0</v>
@@ -9446,10 +9446,10 @@
         <v>184.0</v>
       </c>
       <c r="B841" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C841" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="842" ht="14.25" customHeight="1">
@@ -9457,7 +9457,7 @@
         <v>184.0</v>
       </c>
       <c r="B842" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C842" s="2">
         <v>1.0</v>
@@ -9468,18 +9468,18 @@
         <v>184.0</v>
       </c>
       <c r="B843" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C843" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="844" ht="14.25" customHeight="1">
       <c r="A844" s="2">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="B844" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C844" s="2">
         <v>0.0</v>
@@ -9490,7 +9490,7 @@
         <v>185.0</v>
       </c>
       <c r="B845" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C845" s="2">
         <v>0.0</v>
@@ -9501,10 +9501,10 @@
         <v>185.0</v>
       </c>
       <c r="B846" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C846" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="847" ht="14.25" customHeight="1">
@@ -9512,10 +9512,10 @@
         <v>185.0</v>
       </c>
       <c r="B847" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C847" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="848" ht="14.25" customHeight="1">
@@ -9523,10 +9523,10 @@
         <v>185.0</v>
       </c>
       <c r="B848" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C848" s="2">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="849" ht="14.25" customHeight="1">
@@ -9534,10 +9534,10 @@
         <v>185.0</v>
       </c>
       <c r="B849" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C849" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="850" ht="14.25" customHeight="1">
@@ -9545,21 +9545,21 @@
         <v>185.0</v>
       </c>
       <c r="B850" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C850" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="851" ht="14.25" customHeight="1">
       <c r="A851" s="2">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
       <c r="B851" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C851" s="2">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="852" ht="14.25" customHeight="1">
@@ -9567,10 +9567,10 @@
         <v>186.0</v>
       </c>
       <c r="B852" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C852" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="853" ht="14.25" customHeight="1">
@@ -9578,10 +9578,10 @@
         <v>186.0</v>
       </c>
       <c r="B853" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C853" s="2">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="854" ht="14.25" customHeight="1">
@@ -9589,10 +9589,10 @@
         <v>186.0</v>
       </c>
       <c r="B854" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C854" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="855" ht="14.25" customHeight="1">
@@ -9600,10 +9600,10 @@
         <v>186.0</v>
       </c>
       <c r="B855" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C855" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="856" ht="14.25" customHeight="1">
@@ -9611,10 +9611,10 @@
         <v>186.0</v>
       </c>
       <c r="B856" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C856" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="857" ht="14.25" customHeight="1">
@@ -9622,21 +9622,21 @@
         <v>186.0</v>
       </c>
       <c r="B857" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C857" s="2">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="858" ht="14.25" customHeight="1">
       <c r="A858" s="2">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="B858" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C858" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="859" ht="14.25" customHeight="1">
@@ -9644,7 +9644,7 @@
         <v>187.0</v>
       </c>
       <c r="B859" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C859" s="2">
         <v>0.0</v>
@@ -9655,10 +9655,10 @@
         <v>187.0</v>
       </c>
       <c r="B860" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C860" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="861" ht="14.25" customHeight="1">
@@ -9666,10 +9666,10 @@
         <v>187.0</v>
       </c>
       <c r="B861" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C861" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="862" ht="14.25" customHeight="1">
@@ -9677,10 +9677,10 @@
         <v>187.0</v>
       </c>
       <c r="B862" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C862" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="863" ht="14.25" customHeight="1">
@@ -9688,7 +9688,7 @@
         <v>187.0</v>
       </c>
       <c r="B863" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C863" s="2">
         <v>0.0</v>
@@ -9699,18 +9699,18 @@
         <v>187.0</v>
       </c>
       <c r="B864" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C864" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="865" ht="14.25" customHeight="1">
       <c r="A865" s="2">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="B865" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C865" s="2">
         <v>2.0</v>
@@ -9721,10 +9721,10 @@
         <v>188.0</v>
       </c>
       <c r="B866" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C866" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="867" ht="14.25" customHeight="1">
@@ -9732,7 +9732,7 @@
         <v>188.0</v>
       </c>
       <c r="B867" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C867" s="2">
         <v>0.0</v>
@@ -9743,7 +9743,7 @@
         <v>188.0</v>
       </c>
       <c r="B868" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C868" s="2">
         <v>0.0</v>
@@ -9754,7 +9754,7 @@
         <v>188.0</v>
       </c>
       <c r="B869" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C869" s="2">
         <v>0.0</v>
@@ -9765,10 +9765,10 @@
         <v>188.0</v>
       </c>
       <c r="B870" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C870" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="871" ht="14.25" customHeight="1">
@@ -9776,7 +9776,7 @@
         <v>188.0</v>
       </c>
       <c r="B871" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C871" s="2">
         <v>2.0</v>
@@ -9784,13 +9784,13 @@
     </row>
     <row r="872" ht="14.25" customHeight="1">
       <c r="A872" s="2">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="B872" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C872" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="873" ht="14.25" customHeight="1">
@@ -9798,10 +9798,10 @@
         <v>189.0</v>
       </c>
       <c r="B873" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C873" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="874" ht="14.25" customHeight="1">
@@ -9809,10 +9809,10 @@
         <v>189.0</v>
       </c>
       <c r="B874" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C874" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="875" ht="14.25" customHeight="1">
@@ -9820,7 +9820,7 @@
         <v>189.0</v>
       </c>
       <c r="B875" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C875" s="2">
         <v>0.0</v>
@@ -9831,10 +9831,10 @@
         <v>189.0</v>
       </c>
       <c r="B876" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C876" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="877" ht="14.25" customHeight="1">
@@ -9842,7 +9842,7 @@
         <v>189.0</v>
       </c>
       <c r="B877" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C877" s="2">
         <v>1.0</v>
@@ -9853,7 +9853,7 @@
         <v>189.0</v>
       </c>
       <c r="B878" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C878" s="2">
         <v>1.0</v>
@@ -9861,13 +9861,13 @@
     </row>
     <row r="879" ht="14.25" customHeight="1">
       <c r="A879" s="2">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="B879" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C879" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="880" ht="14.25" customHeight="1">
@@ -9875,7 +9875,7 @@
         <v>190.0</v>
       </c>
       <c r="B880" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C880" s="2">
         <v>0.0</v>
@@ -9886,7 +9886,7 @@
         <v>190.0</v>
       </c>
       <c r="B881" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C881" s="2">
         <v>0.0</v>
@@ -9897,7 +9897,7 @@
         <v>190.0</v>
       </c>
       <c r="B882" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C882" s="2">
         <v>0.0</v>
@@ -9908,7 +9908,7 @@
         <v>190.0</v>
       </c>
       <c r="B883" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C883" s="2">
         <v>0.0</v>
@@ -9919,10 +9919,10 @@
         <v>190.0</v>
       </c>
       <c r="B884" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C884" s="2">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="885" ht="14.25" customHeight="1">
@@ -9930,18 +9930,18 @@
         <v>190.0</v>
       </c>
       <c r="B885" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C885" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="886" ht="14.25" customHeight="1">
       <c r="A886" s="2">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="B886" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C886" s="2">
         <v>0.0</v>
@@ -9952,10 +9952,10 @@
         <v>191.0</v>
       </c>
       <c r="B887" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C887" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="888" ht="14.25" customHeight="1">
@@ -9963,7 +9963,7 @@
         <v>191.0</v>
       </c>
       <c r="B888" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C888" s="2">
         <v>1.0</v>
@@ -9974,10 +9974,10 @@
         <v>191.0</v>
       </c>
       <c r="B889" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C889" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="890" ht="14.25" customHeight="1">
@@ -9985,7 +9985,7 @@
         <v>191.0</v>
       </c>
       <c r="B890" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C890" s="2">
         <v>0.0</v>
@@ -9996,10 +9996,10 @@
         <v>191.0</v>
       </c>
       <c r="B891" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C891" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="892" ht="14.25" customHeight="1">
@@ -10007,7 +10007,7 @@
         <v>191.0</v>
       </c>
       <c r="B892" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C892" s="2">
         <v>1.0</v>
@@ -10015,10 +10015,10 @@
     </row>
     <row r="893" ht="14.25" customHeight="1">
       <c r="A893" s="2">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="B893" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C893" s="2">
         <v>1.0</v>
@@ -10029,10 +10029,10 @@
         <v>192.0</v>
       </c>
       <c r="B894" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C894" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="895" ht="14.25" customHeight="1">
@@ -10040,10 +10040,10 @@
         <v>192.0</v>
       </c>
       <c r="B895" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C895" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="896" ht="14.25" customHeight="1">
@@ -10051,10 +10051,10 @@
         <v>192.0</v>
       </c>
       <c r="B896" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C896" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="897" ht="14.25" customHeight="1">
@@ -10062,10 +10062,10 @@
         <v>192.0</v>
       </c>
       <c r="B897" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C897" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="898" ht="14.25" customHeight="1">
@@ -10073,85 +10073,82 @@
         <v>192.0</v>
       </c>
       <c r="B898" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C898" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="A899" s="2">
+      <c r="A899" s="3">
         <v>192.0</v>
       </c>
-      <c r="B899" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C899" s="2">
-        <v>4.0</v>
+      <c r="B899" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="C899" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="A900" s="3">
-        <v>192.0</v>
-      </c>
-      <c r="B900" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="C900" s="3">
-        <v>2.0</v>
+      <c r="A900" s="2">
+        <v>193.0</v>
+      </c>
+      <c r="C900" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="901" ht="14.25" customHeight="1">
       <c r="A901" s="2">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="C901" s="2">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="902" ht="14.25" customHeight="1">
       <c r="A902" s="2">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="C902" s="2">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="903" ht="14.25" customHeight="1">
       <c r="A903" s="2">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="C903" s="2">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="2">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="C904" s="2">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="2">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="C905" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="2">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="C906" s="2">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="2">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="C907" s="2">
         <v>7.0</v>
@@ -10159,7 +10156,7 @@
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="2">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="C908" s="2">
         <v>7.0</v>
@@ -10167,63 +10164,63 @@
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="2">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="C909" s="2">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="2">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="C910" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="2">
-        <v>203.0</v>
-      </c>
-      <c r="C911" s="2">
-        <v>1.0</v>
+        <v>204.0</v>
+      </c>
+      <c r="C911" s="6">
+        <v>2.0</v>
       </c>
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="2">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="C912" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="2">
-        <v>205.0</v>
-      </c>
-      <c r="C913" s="6">
-        <v>1.0</v>
+        <v>206.0</v>
+      </c>
+      <c r="C913" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="2">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="C914" s="2">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="2">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="C915" s="2">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="2">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="C916" s="2">
         <v>8.0</v>
@@ -10231,10 +10228,13 @@
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="2">
-        <v>209.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="B917" s="2">
+        <v>1.0</v>
       </c>
       <c r="C917" s="2">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="918" ht="14.25" customHeight="1">
@@ -10242,7 +10242,7 @@
         <v>210.0</v>
       </c>
       <c r="B918" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C918" s="2">
         <v>0.0</v>
@@ -10253,10 +10253,10 @@
         <v>210.0</v>
       </c>
       <c r="B919" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C919" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="920" ht="14.25" customHeight="1">
@@ -10264,10 +10264,10 @@
         <v>210.0</v>
       </c>
       <c r="B920" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C920" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="921" ht="14.25" customHeight="1">
@@ -10275,18 +10275,15 @@
         <v>210.0</v>
       </c>
       <c r="B921" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C921" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="B922" s="2">
-        <v>5.0</v>
+        <v>211.0</v>
       </c>
       <c r="C922" s="2">
         <v>1.0</v>
@@ -10294,7 +10291,7 @@
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="2">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="C923" s="2">
         <v>1.0</v>
@@ -10302,7 +10299,7 @@
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="2">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="C924" s="2">
         <v>1.0</v>
@@ -10310,7 +10307,7 @@
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="2">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="C925" s="2">
         <v>1.0</v>
@@ -10318,7 +10315,7 @@
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="2">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="C926" s="2">
         <v>1.0</v>
@@ -10326,15 +10323,15 @@
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="2">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="C927" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="2">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
       <c r="C928" s="2">
         <v>2.0</v>
@@ -10342,79 +10339,79 @@
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="2">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
       <c r="C929" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="2">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="C930" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="2">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="C931" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="2">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="C932" s="2">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="2">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="C933" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="2">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="C934" s="2">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="2">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="C935" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="2">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="C936" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="2">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="C937" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="2">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="C938" s="2">
         <v>1.0</v>
@@ -10422,23 +10419,23 @@
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="2">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="C939" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="2">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="C940" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="2">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="C941" s="2">
         <v>1.0</v>
@@ -10446,7 +10443,7 @@
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="2">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="C942" s="2">
         <v>1.0</v>
@@ -10454,7 +10451,7 @@
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="2">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="C943" s="2">
         <v>1.0</v>
@@ -10462,26 +10459,29 @@
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="2">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="C944" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="2">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="C945" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="2">
-        <v>234.0</v>
+        <v>235.0</v>
+      </c>
+      <c r="B946" s="2">
+        <v>1.0</v>
       </c>
       <c r="C946" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="947" ht="14.25" customHeight="1">
@@ -10489,7 +10489,7 @@
         <v>235.0</v>
       </c>
       <c r="B947" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C947" s="2">
         <v>0.0</v>
@@ -10500,7 +10500,7 @@
         <v>235.0</v>
       </c>
       <c r="B948" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C948" s="2">
         <v>0.0</v>
@@ -10511,7 +10511,7 @@
         <v>235.0</v>
       </c>
       <c r="B949" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C949" s="2">
         <v>0.0</v>
@@ -10522,21 +10522,21 @@
         <v>235.0</v>
       </c>
       <c r="B950" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C950" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="2">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
       <c r="B951" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C951" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="952" ht="14.25" customHeight="1">
@@ -10544,10 +10544,10 @@
         <v>236.0</v>
       </c>
       <c r="B952" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C952" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="953" ht="14.25" customHeight="1">
@@ -10555,10 +10555,10 @@
         <v>236.0</v>
       </c>
       <c r="B953" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C953" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="954" ht="14.25" customHeight="1">
@@ -10566,10 +10566,10 @@
         <v>236.0</v>
       </c>
       <c r="B954" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C954" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="955" ht="14.25" customHeight="1">
@@ -10577,7 +10577,7 @@
         <v>236.0</v>
       </c>
       <c r="B955" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C955" s="2">
         <v>1.0</v>
@@ -10585,10 +10585,10 @@
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="2">
-        <v>236.0</v>
+        <v>237.0</v>
       </c>
       <c r="B956" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C956" s="2">
         <v>1.0</v>
@@ -10599,7 +10599,7 @@
         <v>237.0</v>
       </c>
       <c r="B957" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C957" s="2">
         <v>1.0</v>
@@ -10610,10 +10610,10 @@
         <v>237.0</v>
       </c>
       <c r="B958" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C958" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="959" ht="14.25" customHeight="1">
@@ -10621,7 +10621,7 @@
         <v>237.0</v>
       </c>
       <c r="B959" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C959" s="2">
         <v>0.0</v>
@@ -10632,21 +10632,21 @@
         <v>237.0</v>
       </c>
       <c r="B960" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C960" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="2">
-        <v>237.0</v>
+        <v>238.0</v>
       </c>
       <c r="B961" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C961" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="962" ht="14.25" customHeight="1">
@@ -10654,10 +10654,10 @@
         <v>238.0</v>
       </c>
       <c r="B962" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C962" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="963" ht="14.25" customHeight="1">
@@ -10665,10 +10665,10 @@
         <v>238.0</v>
       </c>
       <c r="B963" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C963" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="964" ht="14.25" customHeight="1">
@@ -10676,10 +10676,10 @@
         <v>238.0</v>
       </c>
       <c r="B964" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C964" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="965" ht="14.25" customHeight="1">
@@ -10687,7 +10687,7 @@
         <v>238.0</v>
       </c>
       <c r="B965" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C965" s="2">
         <v>0.0</v>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="2">
-        <v>238.0</v>
+        <v>239.0</v>
       </c>
       <c r="B966" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C966" s="2">
         <v>0.0</v>
@@ -10709,7 +10709,7 @@
         <v>239.0</v>
       </c>
       <c r="B967" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C967" s="2">
         <v>0.0</v>
@@ -10720,10 +10720,10 @@
         <v>239.0</v>
       </c>
       <c r="B968" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C968" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="969" ht="14.25" customHeight="1">
@@ -10731,10 +10731,10 @@
         <v>239.0</v>
       </c>
       <c r="B969" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C969" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="970" ht="14.25" customHeight="1">
@@ -10742,21 +10742,21 @@
         <v>239.0</v>
       </c>
       <c r="B970" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C970" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="2">
-        <v>239.0</v>
+        <v>240.0</v>
       </c>
       <c r="B971" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C971" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="972" ht="14.25" customHeight="1">
@@ -10764,7 +10764,7 @@
         <v>240.0</v>
       </c>
       <c r="B972" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C972" s="2">
         <v>0.0</v>
@@ -10775,7 +10775,7 @@
         <v>240.0</v>
       </c>
       <c r="B973" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C973" s="2">
         <v>0.0</v>
@@ -10786,10 +10786,10 @@
         <v>240.0</v>
       </c>
       <c r="B974" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C974" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="975" ht="14.25" customHeight="1">
@@ -10797,7 +10797,7 @@
         <v>240.0</v>
       </c>
       <c r="B975" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C975" s="2">
         <v>1.0</v>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="2">
-        <v>240.0</v>
+        <v>241.0</v>
       </c>
       <c r="B976" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C976" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="977" ht="14.25" customHeight="1">
@@ -10819,7 +10819,7 @@
         <v>241.0</v>
       </c>
       <c r="B977" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C977" s="2">
         <v>0.0</v>
@@ -10830,7 +10830,7 @@
         <v>241.0</v>
       </c>
       <c r="B978" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C978" s="2">
         <v>0.0</v>
@@ -10841,7 +10841,7 @@
         <v>241.0</v>
       </c>
       <c r="B979" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C979" s="2">
         <v>0.0</v>
@@ -10852,21 +10852,21 @@
         <v>241.0</v>
       </c>
       <c r="B980" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C980" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="2">
-        <v>241.0</v>
+        <v>242.0</v>
       </c>
       <c r="B981" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C981" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="982" ht="14.25" customHeight="1">
@@ -10874,10 +10874,10 @@
         <v>242.0</v>
       </c>
       <c r="B982" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C982" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="983" ht="14.25" customHeight="1">
@@ -10885,10 +10885,10 @@
         <v>242.0</v>
       </c>
       <c r="B983" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C983" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="984" ht="14.25" customHeight="1">
@@ -10896,10 +10896,10 @@
         <v>242.0</v>
       </c>
       <c r="B984" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C984" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="985" ht="14.25" customHeight="1">
@@ -10907,18 +10907,18 @@
         <v>242.0</v>
       </c>
       <c r="B985" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C985" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="2">
-        <v>242.0</v>
+        <v>243.0</v>
       </c>
       <c r="B986" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C986" s="2">
         <v>0.0</v>
@@ -10929,10 +10929,10 @@
         <v>243.0</v>
       </c>
       <c r="B987" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C987" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="988" ht="14.25" customHeight="1">
@@ -10940,7 +10940,7 @@
         <v>243.0</v>
       </c>
       <c r="B988" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C988" s="2">
         <v>1.0</v>
@@ -10951,10 +10951,10 @@
         <v>243.0</v>
       </c>
       <c r="B989" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C989" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="990" ht="14.25" customHeight="1">
@@ -10962,18 +10962,18 @@
         <v>243.0</v>
       </c>
       <c r="B990" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C990" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="2">
-        <v>243.0</v>
+        <v>244.0</v>
       </c>
       <c r="B991" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C991" s="2">
         <v>1.0</v>
@@ -10984,7 +10984,7 @@
         <v>244.0</v>
       </c>
       <c r="B992" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C992" s="2">
         <v>1.0</v>
@@ -10995,7 +10995,7 @@
         <v>244.0</v>
       </c>
       <c r="B993" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C993" s="2">
         <v>1.0</v>
@@ -11006,7 +11006,7 @@
         <v>244.0</v>
       </c>
       <c r="B994" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C994" s="2">
         <v>1.0</v>
@@ -11017,7 +11017,7 @@
         <v>244.0</v>
       </c>
       <c r="B995" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C995" s="2">
         <v>1.0</v>
@@ -11025,13 +11025,13 @@
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="2">
-        <v>244.0</v>
+        <v>245.0</v>
       </c>
       <c r="B996" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C996" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="997" ht="14.25" customHeight="1">
@@ -11039,7 +11039,7 @@
         <v>245.0</v>
       </c>
       <c r="B997" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C997" s="2">
         <v>2.0</v>
@@ -11050,10 +11050,10 @@
         <v>245.0</v>
       </c>
       <c r="B998" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C998" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="999" ht="14.25" customHeight="1">
@@ -11061,10 +11061,10 @@
         <v>245.0</v>
       </c>
       <c r="B999" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C999" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
@@ -11072,7 +11072,7 @@
         <v>245.0</v>
       </c>
       <c r="B1000" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1000" s="2">
         <v>2.0</v>
@@ -11080,13 +11080,13 @@
     </row>
     <row r="1001" ht="14.25" customHeight="1">
       <c r="A1001" s="2">
-        <v>245.0</v>
+        <v>246.0</v>
       </c>
       <c r="B1001" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1001" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1002" ht="14.25" customHeight="1">
@@ -11094,10 +11094,10 @@
         <v>246.0</v>
       </c>
       <c r="B1002" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1002" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
@@ -11105,10 +11105,10 @@
         <v>246.0</v>
       </c>
       <c r="B1003" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1003" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1004" ht="14.25" customHeight="1">
@@ -11116,10 +11116,10 @@
         <v>246.0</v>
       </c>
       <c r="B1004" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1004" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1005" ht="14.25" customHeight="1">
@@ -11127,7 +11127,7 @@
         <v>246.0</v>
       </c>
       <c r="B1005" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1005" s="2">
         <v>0.0</v>
@@ -11135,13 +11135,13 @@
     </row>
     <row r="1006" ht="14.25" customHeight="1">
       <c r="A1006" s="2">
-        <v>246.0</v>
+        <v>247.0</v>
       </c>
       <c r="B1006" s="2">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1006" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1007" ht="14.25" customHeight="1">
@@ -11149,10 +11149,10 @@
         <v>247.0</v>
       </c>
       <c r="B1007" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1007" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1008" ht="14.25" customHeight="1">
@@ -11160,10 +11160,10 @@
         <v>247.0</v>
       </c>
       <c r="B1008" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1008" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1009" ht="14.25" customHeight="1">
@@ -11171,7 +11171,7 @@
         <v>247.0</v>
       </c>
       <c r="B1009" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1009" s="2">
         <v>1.0</v>
@@ -11182,7 +11182,7 @@
         <v>247.0</v>
       </c>
       <c r="B1010" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1010" s="2">
         <v>1.0</v>
@@ -11193,18 +11193,18 @@
         <v>247.0</v>
       </c>
       <c r="B1011" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1011" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1012" ht="14.25" customHeight="1">
       <c r="A1012" s="2">
-        <v>247.0</v>
+        <v>248.0</v>
       </c>
       <c r="B1012" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1012" s="2">
         <v>0.0</v>
@@ -11215,10 +11215,10 @@
         <v>248.0</v>
       </c>
       <c r="B1013" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1013" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1014" ht="14.25" customHeight="1">
@@ -11226,10 +11226,10 @@
         <v>248.0</v>
       </c>
       <c r="B1014" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1014" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1015" ht="14.25" customHeight="1">
@@ -11237,10 +11237,10 @@
         <v>248.0</v>
       </c>
       <c r="B1015" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1015" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1016" ht="14.25" customHeight="1">
@@ -11248,7 +11248,7 @@
         <v>248.0</v>
       </c>
       <c r="B1016" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1016" s="2">
         <v>1.0</v>
@@ -11259,18 +11259,18 @@
         <v>248.0</v>
       </c>
       <c r="B1017" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1017" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1018" ht="14.25" customHeight="1">
       <c r="A1018" s="2">
-        <v>248.0</v>
+        <v>249.0</v>
       </c>
       <c r="B1018" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1018" s="2">
         <v>0.0</v>
@@ -11281,10 +11281,10 @@
         <v>249.0</v>
       </c>
       <c r="B1019" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1019" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1020" ht="14.25" customHeight="1">
@@ -11292,10 +11292,10 @@
         <v>249.0</v>
       </c>
       <c r="B1020" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1020" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1021" ht="14.25" customHeight="1">
@@ -11303,7 +11303,7 @@
         <v>249.0</v>
       </c>
       <c r="B1021" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1021" s="2">
         <v>0.0</v>
@@ -11314,10 +11314,10 @@
         <v>249.0</v>
       </c>
       <c r="B1022" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1022" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1023" ht="14.25" customHeight="1">
@@ -11325,18 +11325,18 @@
         <v>249.0</v>
       </c>
       <c r="B1023" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1023" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
       <c r="A1024" s="2">
-        <v>249.0</v>
+        <v>250.0</v>
       </c>
       <c r="B1024" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1024" s="2">
         <v>0.0</v>
@@ -11347,7 +11347,7 @@
         <v>250.0</v>
       </c>
       <c r="B1025" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1025" s="2">
         <v>0.0</v>
@@ -11358,7 +11358,7 @@
         <v>250.0</v>
       </c>
       <c r="B1026" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1026" s="2">
         <v>0.0</v>
@@ -11369,7 +11369,7 @@
         <v>250.0</v>
       </c>
       <c r="B1027" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1027" s="2">
         <v>0.0</v>
@@ -11380,7 +11380,7 @@
         <v>250.0</v>
       </c>
       <c r="B1028" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1028" s="2">
         <v>0.0</v>
@@ -11391,21 +11391,21 @@
         <v>250.0</v>
       </c>
       <c r="B1029" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1029" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1030" ht="14.25" customHeight="1">
       <c r="A1030" s="2">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="B1030" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1030" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1031" ht="14.25" customHeight="1">
@@ -11413,7 +11413,7 @@
         <v>251.0</v>
       </c>
       <c r="B1031" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1031" s="2">
         <v>0.0</v>
@@ -11424,7 +11424,7 @@
         <v>251.0</v>
       </c>
       <c r="B1032" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1032" s="2">
         <v>0.0</v>
@@ -11435,7 +11435,7 @@
         <v>251.0</v>
       </c>
       <c r="B1033" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1033" s="2">
         <v>0.0</v>
@@ -11446,7 +11446,7 @@
         <v>251.0</v>
       </c>
       <c r="B1034" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1034" s="2">
         <v>0.0</v>
@@ -11457,21 +11457,21 @@
         <v>251.0</v>
       </c>
       <c r="B1035" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1035" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1036" ht="14.25" customHeight="1">
       <c r="A1036" s="2">
-        <v>251.0</v>
+        <v>252.0</v>
       </c>
       <c r="B1036" s="2">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1036" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1037" ht="14.25" customHeight="1">
@@ -11479,7 +11479,7 @@
         <v>252.0</v>
       </c>
       <c r="B1037" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1037" s="2">
         <v>0.0</v>
@@ -11490,7 +11490,7 @@
         <v>252.0</v>
       </c>
       <c r="B1038" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1038" s="2">
         <v>0.0</v>
@@ -11501,7 +11501,7 @@
         <v>252.0</v>
       </c>
       <c r="B1039" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1039" s="2">
         <v>0.0</v>
@@ -11512,10 +11512,10 @@
         <v>252.0</v>
       </c>
       <c r="B1040" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1040" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1041" ht="14.25" customHeight="1">
@@ -11523,18 +11523,18 @@
         <v>252.0</v>
       </c>
       <c r="B1041" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1041" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1042" ht="14.25" customHeight="1">
       <c r="A1042" s="2">
-        <v>252.0</v>
+        <v>253.0</v>
       </c>
       <c r="B1042" s="2">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1042" s="2">
         <v>0.0</v>
@@ -11545,7 +11545,7 @@
         <v>253.0</v>
       </c>
       <c r="B1043" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1043" s="2">
         <v>0.0</v>
@@ -11556,7 +11556,7 @@
         <v>253.0</v>
       </c>
       <c r="B1044" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1044" s="2">
         <v>0.0</v>
@@ -11567,10 +11567,10 @@
         <v>253.0</v>
       </c>
       <c r="B1045" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1045" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1046" ht="14.25" customHeight="1">
@@ -11578,7 +11578,7 @@
         <v>253.0</v>
       </c>
       <c r="B1046" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1046" s="2">
         <v>1.0</v>
@@ -11586,13 +11586,13 @@
     </row>
     <row r="1047" ht="14.25" customHeight="1">
       <c r="A1047" s="2">
-        <v>253.0</v>
+        <v>254.0</v>
       </c>
       <c r="B1047" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1047" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1048" ht="14.25" customHeight="1">
@@ -11600,7 +11600,7 @@
         <v>254.0</v>
       </c>
       <c r="B1048" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1048" s="2">
         <v>0.0</v>
@@ -11611,7 +11611,7 @@
         <v>254.0</v>
       </c>
       <c r="B1049" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1049" s="2">
         <v>0.0</v>
@@ -11622,7 +11622,7 @@
         <v>254.0</v>
       </c>
       <c r="B1050" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1050" s="2">
         <v>0.0</v>
@@ -11633,21 +11633,21 @@
         <v>254.0</v>
       </c>
       <c r="B1051" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1051" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1052" ht="14.25" customHeight="1">
       <c r="A1052" s="2">
-        <v>254.0</v>
+        <v>255.0</v>
       </c>
       <c r="B1052" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1052" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1053" ht="14.25" customHeight="1">
@@ -11655,7 +11655,7 @@
         <v>255.0</v>
       </c>
       <c r="B1053" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1053" s="2">
         <v>0.0</v>
@@ -11666,10 +11666,10 @@
         <v>255.0</v>
       </c>
       <c r="B1054" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1054" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1055" ht="14.25" customHeight="1">
@@ -11677,10 +11677,10 @@
         <v>255.0</v>
       </c>
       <c r="B1055" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1055" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1056" ht="14.25" customHeight="1">
@@ -11688,7 +11688,7 @@
         <v>255.0</v>
       </c>
       <c r="B1056" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1056" s="2">
         <v>0.0</v>
@@ -11696,10 +11696,10 @@
     </row>
     <row r="1057" ht="14.25" customHeight="1">
       <c r="A1057" s="2">
-        <v>255.0</v>
+        <v>256.0</v>
       </c>
       <c r="B1057" s="2">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1057" s="2">
         <v>0.0</v>
@@ -11710,7 +11710,7 @@
         <v>256.0</v>
       </c>
       <c r="B1058" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1058" s="2">
         <v>0.0</v>
@@ -11721,7 +11721,7 @@
         <v>256.0</v>
       </c>
       <c r="B1059" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1059" s="2">
         <v>0.0</v>
@@ -11732,7 +11732,7 @@
         <v>256.0</v>
       </c>
       <c r="B1060" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1060" s="2">
         <v>0.0</v>
@@ -11743,10 +11743,10 @@
         <v>256.0</v>
       </c>
       <c r="B1061" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1061" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1062" ht="14.25" customHeight="1">
@@ -11754,21 +11754,21 @@
         <v>256.0</v>
       </c>
       <c r="B1062" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1062" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
       <c r="A1063" s="2">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="B1063" s="2">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1063" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1064" ht="14.25" customHeight="1">
@@ -11776,7 +11776,7 @@
         <v>257.0</v>
       </c>
       <c r="B1064" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1064" s="2">
         <v>2.0</v>
@@ -11787,10 +11787,10 @@
         <v>257.0</v>
       </c>
       <c r="B1065" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1065" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1066" ht="14.25" customHeight="1">
@@ -11798,7 +11798,7 @@
         <v>257.0</v>
       </c>
       <c r="B1066" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1066" s="2">
         <v>0.0</v>
@@ -11809,7 +11809,7 @@
         <v>257.0</v>
       </c>
       <c r="B1067" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1067" s="2">
         <v>0.0</v>
@@ -11820,7 +11820,7 @@
         <v>257.0</v>
       </c>
       <c r="B1068" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1068" s="2">
         <v>0.0</v>
@@ -11828,13 +11828,13 @@
     </row>
     <row r="1069" ht="14.25" customHeight="1">
       <c r="A1069" s="2">
-        <v>257.0</v>
+        <v>258.0</v>
       </c>
       <c r="B1069" s="2">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1069" s="2">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1070" ht="14.25" customHeight="1">
@@ -11842,10 +11842,10 @@
         <v>258.0</v>
       </c>
       <c r="B1070" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1070" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1071" ht="14.25" customHeight="1">
@@ -11853,7 +11853,7 @@
         <v>258.0</v>
       </c>
       <c r="B1071" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1071" s="2">
         <v>0.0</v>
@@ -11864,7 +11864,7 @@
         <v>258.0</v>
       </c>
       <c r="B1072" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1072" s="2">
         <v>0.0</v>
@@ -11875,10 +11875,10 @@
         <v>258.0</v>
       </c>
       <c r="B1073" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1073" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1074" ht="14.25" customHeight="1">
@@ -11886,7 +11886,7 @@
         <v>258.0</v>
       </c>
       <c r="B1074" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1074" s="2">
         <v>1.0</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="1075" ht="14.25" customHeight="1">
       <c r="A1075" s="2">
-        <v>258.0</v>
+        <v>259.0</v>
       </c>
       <c r="B1075" s="2">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1075" s="2">
         <v>1.0</v>
@@ -11908,7 +11908,7 @@
         <v>259.0</v>
       </c>
       <c r="B1076" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1076" s="2">
         <v>1.0</v>
@@ -11919,10 +11919,10 @@
         <v>259.0</v>
       </c>
       <c r="B1077" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1077" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1078" ht="14.25" customHeight="1">
@@ -11930,10 +11930,10 @@
         <v>259.0</v>
       </c>
       <c r="B1078" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1078" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1079" ht="14.25" customHeight="1">
@@ -11941,18 +11941,18 @@
         <v>259.0</v>
       </c>
       <c r="B1079" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1079" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1080" ht="14.25" customHeight="1">
       <c r="A1080" s="2">
-        <v>259.0</v>
+        <v>260.0</v>
       </c>
       <c r="B1080" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1080" s="2">
         <v>0.0</v>
@@ -11963,7 +11963,7 @@
         <v>260.0</v>
       </c>
       <c r="B1081" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1081" s="2">
         <v>0.0</v>
@@ -11974,10 +11974,10 @@
         <v>260.0</v>
       </c>
       <c r="B1082" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1082" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1083" ht="14.25" customHeight="1">
@@ -11985,10 +11985,10 @@
         <v>260.0</v>
       </c>
       <c r="B1083" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1083" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1084" ht="14.25" customHeight="1">
@@ -11996,7 +11996,7 @@
         <v>260.0</v>
       </c>
       <c r="B1084" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1084" s="2">
         <v>0.0</v>
@@ -12004,13 +12004,13 @@
     </row>
     <row r="1085" ht="14.25" customHeight="1">
       <c r="A1085" s="2">
-        <v>260.0</v>
+        <v>261.0</v>
       </c>
       <c r="B1085" s="2">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C1085" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1086" ht="14.25" customHeight="1">
@@ -12018,10 +12018,10 @@
         <v>261.0</v>
       </c>
       <c r="B1086" s="2">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1086" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1087" ht="14.25" customHeight="1">
@@ -12029,7 +12029,7 @@
         <v>261.0</v>
       </c>
       <c r="B1087" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1087" s="2">
         <v>2.0</v>
@@ -12040,7 +12040,7 @@
         <v>261.0</v>
       </c>
       <c r="B1088" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1088" s="2">
         <v>2.0</v>
@@ -12051,10 +12051,10 @@
         <v>261.0</v>
       </c>
       <c r="B1089" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1089" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="1090" ht="14.25" customHeight="1">
@@ -12062,18 +12062,18 @@
         <v>261.0</v>
       </c>
       <c r="B1090" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1090" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1091" ht="14.25" customHeight="1">
       <c r="A1091" s="2">
-        <v>261.0</v>
+        <v>262.0</v>
       </c>
       <c r="B1091" s="2">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1091" s="2">
         <v>0.0</v>
@@ -12084,7 +12084,7 @@
         <v>262.0</v>
       </c>
       <c r="B1092" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1092" s="2">
         <v>0.0</v>
@@ -12095,10 +12095,10 @@
         <v>262.0</v>
       </c>
       <c r="B1093" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1093" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1094" ht="14.25" customHeight="1">
@@ -12106,10 +12106,10 @@
         <v>262.0</v>
       </c>
       <c r="B1094" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1094" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1095" ht="14.25" customHeight="1">
@@ -12117,21 +12117,21 @@
         <v>262.0</v>
       </c>
       <c r="B1095" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1095" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1096" ht="14.25" customHeight="1">
       <c r="A1096" s="2">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="B1096" s="2">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1096" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1097" ht="14.25" customHeight="1">
@@ -12139,7 +12139,7 @@
         <v>263.0</v>
       </c>
       <c r="B1097" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1097" s="2">
         <v>0.0</v>
@@ -12150,7 +12150,7 @@
         <v>263.0</v>
       </c>
       <c r="B1098" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1098" s="2">
         <v>0.0</v>
@@ -12161,10 +12161,10 @@
         <v>263.0</v>
       </c>
       <c r="B1099" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1099" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="1100" ht="14.25" customHeight="1">
@@ -12172,18 +12172,18 @@
         <v>263.0</v>
       </c>
       <c r="B1100" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1100" s="2">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1101" ht="14.25" customHeight="1">
       <c r="A1101" s="2">
-        <v>263.0</v>
+        <v>264.0</v>
       </c>
       <c r="B1101" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1101" s="2">
         <v>0.0</v>
@@ -12194,7 +12194,7 @@
         <v>264.0</v>
       </c>
       <c r="B1102" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1102" s="2">
         <v>0.0</v>
@@ -12205,10 +12205,10 @@
         <v>264.0</v>
       </c>
       <c r="B1103" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1103" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1104" ht="14.25" customHeight="1">
@@ -12216,10 +12216,10 @@
         <v>264.0</v>
       </c>
       <c r="B1104" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1104" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1105" ht="14.25" customHeight="1">
@@ -12227,7 +12227,7 @@
         <v>264.0</v>
       </c>
       <c r="B1105" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1105" s="2">
         <v>3.0</v>
@@ -12238,10 +12238,10 @@
         <v>264.0</v>
       </c>
       <c r="B1106" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1106" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1107" ht="14.25" customHeight="1">
@@ -12249,18 +12249,18 @@
         <v>264.0</v>
       </c>
       <c r="B1107" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1107" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1108" ht="14.25" customHeight="1">
       <c r="A1108" s="2">
-        <v>264.0</v>
+        <v>265.0</v>
       </c>
       <c r="B1108" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1108" s="2">
         <v>0.0</v>
@@ -12271,7 +12271,7 @@
         <v>265.0</v>
       </c>
       <c r="B1109" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1109" s="2">
         <v>0.0</v>
@@ -12282,7 +12282,7 @@
         <v>265.0</v>
       </c>
       <c r="B1110" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1110" s="2">
         <v>0.0</v>
@@ -12293,7 +12293,7 @@
         <v>265.0</v>
       </c>
       <c r="B1111" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1111" s="2">
         <v>0.0</v>
@@ -12304,7 +12304,7 @@
         <v>265.0</v>
       </c>
       <c r="B1112" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1112" s="2">
         <v>0.0</v>
@@ -12315,7 +12315,7 @@
         <v>265.0</v>
       </c>
       <c r="B1113" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1113" s="2">
         <v>0.0</v>
@@ -12326,7 +12326,7 @@
         <v>265.0</v>
       </c>
       <c r="B1114" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1114" s="2">
         <v>0.0</v>
@@ -12334,10 +12334,10 @@
     </row>
     <row r="1115" ht="14.25" customHeight="1">
       <c r="A1115" s="2">
-        <v>265.0</v>
+        <v>266.0</v>
       </c>
       <c r="B1115" s="2">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1115" s="2">
         <v>0.0</v>
@@ -12348,7 +12348,7 @@
         <v>266.0</v>
       </c>
       <c r="B1116" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1116" s="2">
         <v>0.0</v>
@@ -12359,7 +12359,7 @@
         <v>266.0</v>
       </c>
       <c r="B1117" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1117" s="2">
         <v>0.0</v>
@@ -12370,7 +12370,7 @@
         <v>266.0</v>
       </c>
       <c r="B1118" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1118" s="2">
         <v>0.0</v>
@@ -12381,7 +12381,7 @@
         <v>266.0</v>
       </c>
       <c r="B1119" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1119" s="2">
         <v>0.0</v>
@@ -12392,21 +12392,21 @@
         <v>266.0</v>
       </c>
       <c r="B1120" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1120" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1121" ht="14.25" customHeight="1">
       <c r="A1121" s="2">
-        <v>266.0</v>
+        <v>267.0</v>
       </c>
       <c r="B1121" s="2">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1121" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1122" ht="14.25" customHeight="1">
@@ -12414,10 +12414,10 @@
         <v>267.0</v>
       </c>
       <c r="B1122" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1122" s="2">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1123" ht="14.25" customHeight="1">
@@ -12425,7 +12425,7 @@
         <v>267.0</v>
       </c>
       <c r="B1123" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1123" s="2">
         <v>0.0</v>
@@ -12436,10 +12436,10 @@
         <v>267.0</v>
       </c>
       <c r="B1124" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1124" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="1125" ht="14.25" customHeight="1">
@@ -12447,7 +12447,7 @@
         <v>267.0</v>
       </c>
       <c r="B1125" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1125" s="2">
         <v>10.0</v>
@@ -12458,7 +12458,7 @@
         <v>267.0</v>
       </c>
       <c r="B1126" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1126" s="2">
         <v>10.0</v>
@@ -12469,7 +12469,7 @@
         <v>267.0</v>
       </c>
       <c r="B1127" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1127" s="2">
         <v>10.0</v>
@@ -12477,13 +12477,13 @@
     </row>
     <row r="1128" ht="14.25" customHeight="1">
       <c r="A1128" s="2">
-        <v>267.0</v>
+        <v>268.0</v>
       </c>
       <c r="B1128" s="2">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1128" s="2">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="1129" ht="14.25" customHeight="1">
@@ -12491,7 +12491,7 @@
         <v>268.0</v>
       </c>
       <c r="B1129" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C1129" s="2">
         <v>5.0</v>
@@ -12502,7 +12502,7 @@
         <v>268.0</v>
       </c>
       <c r="B1130" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C1130" s="2">
         <v>5.0</v>
@@ -12513,7 +12513,7 @@
         <v>268.0</v>
       </c>
       <c r="B1131" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1131" s="2">
         <v>5.0</v>
@@ -12524,7 +12524,7 @@
         <v>268.0</v>
       </c>
       <c r="B1132" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1132" s="2">
         <v>5.0</v>
@@ -12535,7 +12535,7 @@
         <v>268.0</v>
       </c>
       <c r="B1133" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C1133" s="2">
         <v>5.0</v>
@@ -12543,13 +12543,10 @@
     </row>
     <row r="1134" ht="14.25" customHeight="1">
       <c r="A1134" s="2">
-        <v>268.0</v>
+        <v>269.0</v>
       </c>
       <c r="B1134" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C1134" s="2">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="1135" ht="14.25" customHeight="1">
@@ -12557,7 +12554,7 @@
         <v>269.0</v>
       </c>
       <c r="B1135" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="1136" ht="14.25" customHeight="1">
@@ -12565,7 +12562,7 @@
         <v>269.0</v>
       </c>
       <c r="B1136" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="1137" ht="14.25" customHeight="1">
@@ -12573,7 +12570,7 @@
         <v>269.0</v>
       </c>
       <c r="B1137" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1138" ht="14.25" customHeight="1">
@@ -12581,7 +12578,7 @@
         <v>269.0</v>
       </c>
       <c r="B1138" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="1139" ht="14.25" customHeight="1">
@@ -12589,7 +12586,7 @@
         <v>269.0</v>
       </c>
       <c r="B1139" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="1140" ht="14.25" customHeight="1">
@@ -12597,52 +12594,52 @@
         <v>269.0</v>
       </c>
       <c r="B1140" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="1141" ht="14.25" customHeight="1">
       <c r="A1141" s="2">
-        <v>269.0</v>
-      </c>
-      <c r="B1141" s="2">
-        <v>18.0</v>
+        <v>270.0</v>
+      </c>
+      <c r="C1141" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1142" ht="14.25" customHeight="1">
       <c r="A1142" s="2">
-        <v>270.0</v>
+        <v>271.0</v>
       </c>
       <c r="C1142" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="1143" ht="14.25" customHeight="1">
       <c r="A1143" s="2">
-        <v>271.0</v>
+        <v>272.0</v>
       </c>
       <c r="C1143" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1144" ht="14.25" customHeight="1">
       <c r="A1144" s="2">
-        <v>272.0</v>
+        <v>273.0</v>
       </c>
       <c r="C1144" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1145" ht="14.25" customHeight="1">
       <c r="A1145" s="2">
-        <v>273.0</v>
+        <v>274.0</v>
       </c>
       <c r="C1145" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1146" ht="14.25" customHeight="1">
       <c r="A1146" s="2">
-        <v>274.0</v>
+        <v>275.0</v>
       </c>
       <c r="C1146" s="2">
         <v>1.0</v>
@@ -12650,7 +12647,7 @@
     </row>
     <row r="1147" ht="14.25" customHeight="1">
       <c r="A1147" s="2">
-        <v>275.0</v>
+        <v>276.0</v>
       </c>
       <c r="C1147" s="2">
         <v>1.0</v>
@@ -12658,7 +12655,10 @@
     </row>
     <row r="1148" ht="14.25" customHeight="1">
       <c r="A1148" s="2">
-        <v>276.0</v>
+        <v>277.0</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>11.0</v>
       </c>
       <c r="C1148" s="2">
         <v>1.0</v>
@@ -12669,10 +12669,10 @@
         <v>277.0</v>
       </c>
       <c r="B1149" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1149" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1150" ht="14.25" customHeight="1">
@@ -12680,7 +12680,7 @@
         <v>277.0</v>
       </c>
       <c r="B1150" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1150" s="2">
         <v>0.0</v>
@@ -12691,7 +12691,7 @@
         <v>277.0</v>
       </c>
       <c r="B1151" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1151" s="2">
         <v>0.0</v>
@@ -12702,7 +12702,7 @@
         <v>277.0</v>
       </c>
       <c r="B1152" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1152" s="2">
         <v>0.0</v>
@@ -12713,7 +12713,7 @@
         <v>277.0</v>
       </c>
       <c r="B1153" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1153" s="2">
         <v>0.0</v>
@@ -12724,7 +12724,7 @@
         <v>277.0</v>
       </c>
       <c r="B1154" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1154" s="2">
         <v>0.0</v>
@@ -12732,13 +12732,13 @@
     </row>
     <row r="1155" ht="14.25" customHeight="1">
       <c r="A1155" s="2">
-        <v>277.0</v>
+        <v>278.0</v>
       </c>
       <c r="B1155" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1155" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1156" ht="14.25" customHeight="1">
@@ -12746,10 +12746,10 @@
         <v>278.0</v>
       </c>
       <c r="B1156" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1156" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1157" ht="14.25" customHeight="1">
@@ -12757,7 +12757,7 @@
         <v>278.0</v>
       </c>
       <c r="B1157" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1157" s="2">
         <v>0.0</v>
@@ -12768,7 +12768,7 @@
         <v>278.0</v>
       </c>
       <c r="B1158" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1158" s="2">
         <v>0.0</v>
@@ -12779,7 +12779,7 @@
         <v>278.0</v>
       </c>
       <c r="B1159" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1159" s="2">
         <v>0.0</v>
@@ -12790,7 +12790,7 @@
         <v>278.0</v>
       </c>
       <c r="B1160" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1160" s="2">
         <v>0.0</v>
@@ -12801,7 +12801,7 @@
         <v>278.0</v>
       </c>
       <c r="B1161" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1161" s="2">
         <v>0.0</v>
@@ -12809,13 +12809,13 @@
     </row>
     <row r="1162" ht="14.25" customHeight="1">
       <c r="A1162" s="2">
-        <v>278.0</v>
+        <v>279.0</v>
       </c>
       <c r="B1162" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1162" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1163" ht="14.25" customHeight="1">
@@ -12823,10 +12823,10 @@
         <v>279.0</v>
       </c>
       <c r="B1163" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1163" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1164" ht="14.25" customHeight="1">
@@ -12834,7 +12834,7 @@
         <v>279.0</v>
       </c>
       <c r="B1164" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1164" s="2">
         <v>0.0</v>
@@ -12845,7 +12845,7 @@
         <v>279.0</v>
       </c>
       <c r="B1165" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1165" s="2">
         <v>0.0</v>
@@ -12856,7 +12856,7 @@
         <v>279.0</v>
       </c>
       <c r="B1166" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1166" s="2">
         <v>0.0</v>
@@ -12867,7 +12867,7 @@
         <v>279.0</v>
       </c>
       <c r="B1167" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1167" s="2">
         <v>0.0</v>
@@ -12878,7 +12878,7 @@
         <v>279.0</v>
       </c>
       <c r="B1168" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1168" s="2">
         <v>0.0</v>
@@ -12886,13 +12886,10 @@
     </row>
     <row r="1169" ht="14.25" customHeight="1">
       <c r="A1169" s="2">
-        <v>279.0</v>
+        <v>280.0</v>
       </c>
       <c r="B1169" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="C1169" s="2">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="1170" ht="14.25" customHeight="1">
@@ -12900,7 +12897,7 @@
         <v>280.0</v>
       </c>
       <c r="B1170" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="1171" ht="14.25" customHeight="1">
@@ -12908,7 +12905,7 @@
         <v>280.0</v>
       </c>
       <c r="B1171" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="1172" ht="14.25" customHeight="1">
@@ -12916,7 +12913,7 @@
         <v>280.0</v>
       </c>
       <c r="B1172" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="1173" ht="14.25" customHeight="1">
@@ -12924,7 +12921,7 @@
         <v>280.0</v>
       </c>
       <c r="B1173" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="1174" ht="14.25" customHeight="1">
@@ -12932,7 +12929,7 @@
         <v>280.0</v>
       </c>
       <c r="B1174" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="1175" ht="14.25" customHeight="1">
@@ -12940,15 +12937,18 @@
         <v>280.0</v>
       </c>
       <c r="B1175" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="1176" ht="14.25" customHeight="1">
       <c r="A1176" s="2">
-        <v>280.0</v>
+        <v>281.0</v>
       </c>
       <c r="B1176" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1177" ht="14.25" customHeight="1">
@@ -12956,10 +12956,10 @@
         <v>281.0</v>
       </c>
       <c r="B1177" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1177" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1178" ht="14.25" customHeight="1">
@@ -12967,7 +12967,7 @@
         <v>281.0</v>
       </c>
       <c r="B1178" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1178" s="2">
         <v>0.0</v>
@@ -12978,7 +12978,7 @@
         <v>281.0</v>
       </c>
       <c r="B1179" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1179" s="2">
         <v>0.0</v>
@@ -12989,7 +12989,7 @@
         <v>281.0</v>
       </c>
       <c r="B1180" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1180" s="2">
         <v>0.0</v>
@@ -13000,7 +13000,7 @@
         <v>281.0</v>
       </c>
       <c r="B1181" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1181" s="2">
         <v>0.0</v>
@@ -13011,7 +13011,7 @@
         <v>281.0</v>
       </c>
       <c r="B1182" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1182" s="2">
         <v>0.0</v>
@@ -13019,13 +13019,13 @@
     </row>
     <row r="1183" ht="14.25" customHeight="1">
       <c r="A1183" s="2">
-        <v>281.0</v>
+        <v>282.0</v>
       </c>
       <c r="B1183" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1183" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1184" ht="14.25" customHeight="1">
@@ -13033,10 +13033,10 @@
         <v>282.0</v>
       </c>
       <c r="B1184" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1184" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1185" ht="14.25" customHeight="1">
@@ -13044,7 +13044,7 @@
         <v>282.0</v>
       </c>
       <c r="B1185" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1185" s="2">
         <v>0.0</v>
@@ -13055,7 +13055,7 @@
         <v>282.0</v>
       </c>
       <c r="B1186" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1186" s="2">
         <v>0.0</v>
@@ -13066,7 +13066,7 @@
         <v>282.0</v>
       </c>
       <c r="B1187" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1187" s="2">
         <v>0.0</v>
@@ -13077,7 +13077,7 @@
         <v>282.0</v>
       </c>
       <c r="B1188" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1188" s="2">
         <v>0.0</v>
@@ -13088,21 +13088,21 @@
         <v>282.0</v>
       </c>
       <c r="B1189" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1189" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1190" ht="14.25" customHeight="1">
       <c r="A1190" s="2">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="B1190" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1190" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1191" ht="14.25" customHeight="1">
@@ -13110,7 +13110,7 @@
         <v>283.0</v>
       </c>
       <c r="B1191" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1191" s="2">
         <v>0.0</v>
@@ -13121,7 +13121,7 @@
         <v>283.0</v>
       </c>
       <c r="B1192" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1192" s="2">
         <v>0.0</v>
@@ -13132,7 +13132,7 @@
         <v>283.0</v>
       </c>
       <c r="B1193" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1193" s="2">
         <v>0.0</v>
@@ -13143,7 +13143,7 @@
         <v>283.0</v>
       </c>
       <c r="B1194" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1194" s="2">
         <v>0.0</v>
@@ -13154,10 +13154,10 @@
         <v>283.0</v>
       </c>
       <c r="B1195" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1195" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1196" ht="14.25" customHeight="1">
@@ -13165,21 +13165,21 @@
         <v>283.0</v>
       </c>
       <c r="B1196" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1196" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1197" ht="14.25" customHeight="1">
       <c r="A1197" s="2">
-        <v>283.0</v>
+        <v>284.0</v>
       </c>
       <c r="B1197" s="2">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C1197" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1198" ht="14.25" customHeight="1">
@@ -13187,10 +13187,10 @@
         <v>284.0</v>
       </c>
       <c r="B1198" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C1198" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1199" ht="14.25" customHeight="1">
@@ -13198,7 +13198,7 @@
         <v>284.0</v>
       </c>
       <c r="B1199" s="2">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C1199" s="2">
         <v>0.0</v>
@@ -13209,7 +13209,7 @@
         <v>284.0</v>
       </c>
       <c r="B1200" s="2">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1200" s="2">
         <v>0.0</v>
@@ -13220,7 +13220,7 @@
         <v>284.0</v>
       </c>
       <c r="B1201" s="2">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C1201" s="2">
         <v>0.0</v>
@@ -13228,10 +13228,10 @@
     </row>
     <row r="1202" ht="14.25" customHeight="1">
       <c r="A1202" s="2">
-        <v>284.0</v>
+        <v>285.0</v>
       </c>
       <c r="B1202" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1202" s="2">
         <v>0.0</v>
@@ -13242,10 +13242,10 @@
         <v>285.0</v>
       </c>
       <c r="B1203" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1203" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1204" ht="14.25" customHeight="1">
@@ -13253,10 +13253,10 @@
         <v>285.0</v>
       </c>
       <c r="B1204" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1204" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1205" ht="14.25" customHeight="1">
@@ -13264,7 +13264,7 @@
         <v>285.0</v>
       </c>
       <c r="B1205" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1205" s="2">
         <v>0.0</v>
@@ -13275,7 +13275,7 @@
         <v>285.0</v>
       </c>
       <c r="B1206" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1206" s="2">
         <v>0.0</v>
@@ -13286,7 +13286,7 @@
         <v>285.0</v>
       </c>
       <c r="B1207" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1207" s="2">
         <v>0.0</v>
@@ -13297,21 +13297,21 @@
         <v>285.0</v>
       </c>
       <c r="B1208" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1208" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1209" ht="14.25" customHeight="1">
       <c r="A1209" s="2">
-        <v>285.0</v>
+        <v>286.0</v>
       </c>
       <c r="B1209" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1209" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1210" ht="14.25" customHeight="1">
@@ -13319,7 +13319,7 @@
         <v>286.0</v>
       </c>
       <c r="B1210" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1210" s="2">
         <v>0.0</v>
@@ -13330,7 +13330,7 @@
         <v>286.0</v>
       </c>
       <c r="B1211" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1211" s="2">
         <v>0.0</v>
@@ -13341,7 +13341,7 @@
         <v>286.0</v>
       </c>
       <c r="B1212" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1212" s="2">
         <v>0.0</v>
@@ -13352,7 +13352,7 @@
         <v>286.0</v>
       </c>
       <c r="B1213" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1213" s="2">
         <v>0.0</v>
@@ -13363,7 +13363,7 @@
         <v>286.0</v>
       </c>
       <c r="B1214" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1214" s="2">
         <v>0.0</v>
@@ -13374,21 +13374,21 @@
         <v>286.0</v>
       </c>
       <c r="B1215" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1215" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1216" ht="14.25" customHeight="1">
       <c r="A1216" s="2">
-        <v>286.0</v>
+        <v>287.0</v>
       </c>
       <c r="B1216" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1216" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1217" ht="14.25" customHeight="1">
@@ -13396,7 +13396,7 @@
         <v>287.0</v>
       </c>
       <c r="B1217" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1217" s="2">
         <v>0.0</v>
@@ -13407,7 +13407,7 @@
         <v>287.0</v>
       </c>
       <c r="B1218" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1218" s="2">
         <v>0.0</v>
@@ -13418,7 +13418,7 @@
         <v>287.0</v>
       </c>
       <c r="B1219" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1219" s="2">
         <v>0.0</v>
@@ -13429,7 +13429,7 @@
         <v>287.0</v>
       </c>
       <c r="B1220" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1220" s="2">
         <v>0.0</v>
@@ -13440,7 +13440,7 @@
         <v>287.0</v>
       </c>
       <c r="B1221" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1221" s="2">
         <v>0.0</v>
@@ -13451,21 +13451,21 @@
         <v>287.0</v>
       </c>
       <c r="B1222" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1222" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1223" ht="14.25" customHeight="1">
       <c r="A1223" s="2">
-        <v>287.0</v>
+        <v>288.0</v>
       </c>
       <c r="B1223" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1223" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1224" ht="14.25" customHeight="1">
@@ -13473,10 +13473,10 @@
         <v>288.0</v>
       </c>
       <c r="B1224" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C1224" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C1224" s="6">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1225" ht="14.25" customHeight="1">
@@ -13484,10 +13484,10 @@
         <v>288.0</v>
       </c>
       <c r="B1225" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C1225" s="6">
-        <v>1.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="C1225" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="1226" ht="14.25" customHeight="1">
@@ -13495,7 +13495,7 @@
         <v>288.0</v>
       </c>
       <c r="B1226" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1226" s="2">
         <v>0.0</v>
@@ -13506,7 +13506,7 @@
         <v>288.0</v>
       </c>
       <c r="B1227" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1227" s="2">
         <v>0.0</v>
@@ -13517,7 +13517,7 @@
         <v>288.0</v>
       </c>
       <c r="B1228" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1228" s="2">
         <v>0.0</v>
@@ -13528,20 +13528,20 @@
         <v>288.0</v>
       </c>
       <c r="B1229" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C1229" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C1229" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="1230" ht="14.25" customHeight="1">
       <c r="A1230" s="2">
-        <v>288.0</v>
+        <v>289.0</v>
       </c>
       <c r="B1230" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="C1230" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="C1230" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -13550,7 +13550,7 @@
         <v>289.0</v>
       </c>
       <c r="B1231" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1231" s="2">
         <v>0.0</v>
@@ -13561,7 +13561,7 @@
         <v>289.0</v>
       </c>
       <c r="B1232" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1232" s="2">
         <v>0.0</v>
@@ -13572,7 +13572,7 @@
         <v>289.0</v>
       </c>
       <c r="B1233" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1233" s="2">
         <v>0.0</v>
@@ -13583,7 +13583,7 @@
         <v>289.0</v>
       </c>
       <c r="B1234" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1234" s="2">
         <v>0.0</v>
@@ -13594,7 +13594,7 @@
         <v>289.0</v>
       </c>
       <c r="B1235" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1235" s="2">
         <v>0.0</v>
@@ -13605,21 +13605,21 @@
         <v>289.0</v>
       </c>
       <c r="B1236" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1236" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1237" ht="14.25" customHeight="1">
       <c r="A1237" s="2">
-        <v>289.0</v>
+        <v>290.0</v>
       </c>
       <c r="B1237" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1237" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1238" ht="14.25" customHeight="1">
@@ -13627,7 +13627,7 @@
         <v>290.0</v>
       </c>
       <c r="B1238" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1238" s="2">
         <v>0.0</v>
@@ -13638,10 +13638,10 @@
         <v>290.0</v>
       </c>
       <c r="B1239" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1239" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1240" ht="14.25" customHeight="1">
@@ -13649,10 +13649,10 @@
         <v>290.0</v>
       </c>
       <c r="B1240" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1240" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1241" ht="14.25" customHeight="1">
@@ -13660,7 +13660,7 @@
         <v>290.0</v>
       </c>
       <c r="B1241" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1241" s="2">
         <v>0.0</v>
@@ -13671,7 +13671,7 @@
         <v>290.0</v>
       </c>
       <c r="B1242" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1242" s="2">
         <v>0.0</v>
@@ -13682,7 +13682,7 @@
         <v>290.0</v>
       </c>
       <c r="B1243" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1243" s="2">
         <v>0.0</v>
@@ -13690,12 +13690,12 @@
     </row>
     <row r="1244" ht="14.25" customHeight="1">
       <c r="A1244" s="2">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="B1244" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="C1244" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C1244" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -13704,10 +13704,10 @@
         <v>291.0</v>
       </c>
       <c r="B1245" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C1245" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C1245" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="1246" ht="14.25" customHeight="1">
@@ -13715,10 +13715,10 @@
         <v>291.0</v>
       </c>
       <c r="B1246" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1246" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1247" ht="14.25" customHeight="1">
@@ -13726,7 +13726,7 @@
         <v>291.0</v>
       </c>
       <c r="B1247" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1247" s="2">
         <v>0.0</v>
@@ -13737,7 +13737,7 @@
         <v>291.0</v>
       </c>
       <c r="B1248" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1248" s="2">
         <v>0.0</v>
@@ -13748,7 +13748,7 @@
         <v>291.0</v>
       </c>
       <c r="B1249" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1249" s="2">
         <v>0.0</v>
@@ -13759,7 +13759,7 @@
         <v>291.0</v>
       </c>
       <c r="B1250" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1250" s="2">
         <v>0.0</v>
@@ -13767,10 +13767,10 @@
     </row>
     <row r="1251" ht="14.25" customHeight="1">
       <c r="A1251" s="2">
-        <v>291.0</v>
+        <v>292.0</v>
       </c>
       <c r="B1251" s="2">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C1251" s="2">
         <v>0.0</v>
@@ -13781,10 +13781,10 @@
         <v>292.0</v>
       </c>
       <c r="B1252" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1252" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1253" ht="14.25" customHeight="1">
@@ -13792,7 +13792,7 @@
         <v>292.0</v>
       </c>
       <c r="B1253" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1253" s="2">
         <v>1.0</v>
@@ -13803,7 +13803,7 @@
         <v>292.0</v>
       </c>
       <c r="B1254" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1254" s="2">
         <v>1.0</v>
@@ -13814,7 +13814,7 @@
         <v>292.0</v>
       </c>
       <c r="B1255" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1255" s="2">
         <v>1.0</v>
@@ -13825,7 +13825,7 @@
         <v>292.0</v>
       </c>
       <c r="B1256" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1256" s="2">
         <v>1.0</v>
@@ -13836,7 +13836,7 @@
         <v>292.0</v>
       </c>
       <c r="B1257" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1257" s="2">
         <v>1.0</v>
@@ -13844,10 +13844,7 @@
     </row>
     <row r="1258" ht="14.25" customHeight="1">
       <c r="A1258" s="2">
-        <v>292.0</v>
-      </c>
-      <c r="B1258" s="2">
-        <v>18.0</v>
+        <v>293.0</v>
       </c>
       <c r="C1258" s="2">
         <v>1.0</v>
@@ -13855,18 +13852,21 @@
     </row>
     <row r="1259" ht="14.25" customHeight="1">
       <c r="A1259" s="2">
-        <v>293.0</v>
+        <v>294.0</v>
       </c>
       <c r="C1259" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1260" ht="14.25" customHeight="1">
       <c r="A1260" s="2">
-        <v>294.0</v>
+        <v>295.0</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>3.0</v>
       </c>
       <c r="C1260" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1261" ht="14.25" customHeight="1">
@@ -13874,10 +13874,10 @@
         <v>295.0</v>
       </c>
       <c r="B1261" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C1261" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="1262" ht="14.25" customHeight="1">
@@ -13885,42 +13885,39 @@
         <v>295.0</v>
       </c>
       <c r="B1262" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C1262" s="2">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1263" ht="14.25" customHeight="1">
       <c r="A1263" s="2">
-        <v>295.0</v>
-      </c>
-      <c r="B1263" s="2">
-        <v>5.0</v>
+        <v>296.0</v>
       </c>
       <c r="C1263" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1264" ht="14.25" customHeight="1">
       <c r="A1264" s="2">
-        <v>296.0</v>
+        <v>297.0</v>
       </c>
       <c r="C1264" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="1265" ht="14.25" customHeight="1">
       <c r="A1265" s="2">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="C1265" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1266" ht="14.25" customHeight="1">
       <c r="A1266" s="2">
-        <v>298.0</v>
+        <v>299.0</v>
       </c>
       <c r="C1266" s="2">
         <v>1.0</v>
@@ -13928,10 +13925,13 @@
     </row>
     <row r="1267" ht="14.25" customHeight="1">
       <c r="A1267" s="2">
-        <v>299.0</v>
+        <v>300.0</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>11.0</v>
       </c>
       <c r="C1267" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1268" ht="14.25" customHeight="1">
@@ -13939,10 +13939,10 @@
         <v>300.0</v>
       </c>
       <c r="B1268" s="2">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C1268" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1269" ht="14.25" customHeight="1">
@@ -13950,10 +13950,10 @@
         <v>300.0</v>
       </c>
       <c r="B1269" s="2">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C1269" s="2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="1270" ht="14.25" customHeight="1">
@@ -13961,10 +13961,10 @@
         <v>300.0</v>
       </c>
       <c r="B1270" s="2">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C1270" s="2">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1271" ht="14.25" customHeight="1">
@@ -13972,10 +13972,10 @@
         <v>300.0</v>
       </c>
       <c r="B1271" s="2">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C1271" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="1272" ht="14.25" customHeight="1">
@@ -13983,7 +13983,7 @@
         <v>300.0</v>
       </c>
       <c r="B1272" s="2">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C1272" s="2">
         <v>1.0</v>
@@ -13994,23 +13994,13 @@
         <v>300.0</v>
       </c>
       <c r="B1273" s="2">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="C1273" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="1274" ht="14.25" customHeight="1">
-      <c r="A1274" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="B1274" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="C1274" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1274" ht="14.25" customHeight="1"/>
     <row r="1275" ht="14.25" customHeight="1"/>
     <row r="1276" ht="14.25" customHeight="1"/>
     <row r="1277" ht="14.25" customHeight="1"/>
@@ -14137,7 +14127,6 @@
     <row r="1398" ht="14.25" customHeight="1"/>
     <row r="1399" ht="14.25" customHeight="1"/>
     <row r="1400" ht="14.25" customHeight="1"/>
-    <row r="1401" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
